--- a/data/measurements/Summary rat sample data 61 edit.xlsx
+++ b/data/measurements/Summary rat sample data 61 edit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="983" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="626">
   <si>
     <t xml:space="preserve">Sample Identification</t>
   </si>
@@ -1166,10 +1166,10 @@
     <t xml:space="preserve">Dodecanoylcarnitine</t>
   </si>
   <si>
-    <t xml:space="preserve">Dodecenoylcarnitine</t>
+    <t xml:space="preserve">Dodecanedioylcarnitine</t>
   </si>
   <si>
-    <t xml:space="preserve">Dodecanedioylcarnitine</t>
+    <t xml:space="preserve">Dodecenoylcarnitine</t>
   </si>
   <si>
     <t xml:space="preserve">Tetradecanoylcarnitine</t>
@@ -1814,19 +1814,34 @@
     <t xml:space="preserve">chloride</t>
   </si>
   <si>
+    <t xml:space="preserve">Up under stress</t>
+  </si>
+  <si>
     <t xml:space="preserve">Base Excess</t>
   </si>
   <si>
     <t xml:space="preserve">Hydrogencarbonat </t>
   </si>
   <si>
+    <t xml:space="preserve">Lipid-associated</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aspartate Aminotransferase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kidney-associated</t>
   </si>
   <si>
     <t xml:space="preserve">Alkaline phosphatase</t>
   </si>
   <si>
+    <t xml:space="preserve">Liver damage indicator</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alanine transaminase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Down under stress</t>
   </si>
   <si>
     <t xml:space="preserve">pg/ml</t>
@@ -1836,6 +1851,9 @@
   </si>
   <si>
     <t xml:space="preserve">Low-density lipoprotein/Very-low-density lipoprotein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heart dysfunction indicator</t>
   </si>
   <si>
     <t xml:space="preserve">B-type natriuretic peptide</t>
@@ -1850,6 +1868,9 @@
     <t xml:space="preserve">Calcium</t>
   </si>
   <si>
+    <t xml:space="preserve">Ambiguous</t>
+  </si>
+  <si>
     <t xml:space="preserve">growth hormone</t>
   </si>
   <si>
@@ -1857,6 +1878,9 @@
   </si>
   <si>
     <t xml:space="preserve">Thyroid-stimulating hormone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anabolism-associated</t>
   </si>
   <si>
     <t xml:space="preserve">triiodothyronine</t>
@@ -1869,6 +1893,9 @@
   </si>
   <si>
     <t xml:space="preserve">interleukin-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inflammation regulation</t>
   </si>
   <si>
     <t xml:space="preserve">ng/ml</t>
@@ -1887,7 +1914,7 @@
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1909,12 +1936,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1972,7 +1993,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1996,25 +2017,21 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2022,27 +2039,23 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2070,19 +2083,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Standard 2" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -2094,7 +2106,7 @@
   </sheetPr>
   <dimension ref="A1:JF98"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -2104,17 +2116,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="207" min="5" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="208" min="208" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="228" min="209" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="229" min="229" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="234" min="230" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="237" min="235" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="238" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="207" min="5" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="208" min="208" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="228" min="209" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="229" min="229" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="234" min="230" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="237" min="235" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="238" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2908,7 +2920,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>262</v>
       </c>
@@ -20291,8 +20303,8 @@
       <c r="JC23" s="5" t="n">
         <v>2264</v>
       </c>
-      <c r="JE23" s="10"/>
-      <c r="JF23" s="10"/>
+      <c r="JE23" s="9"/>
+      <c r="JF23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -21082,8 +21094,8 @@
       <c r="JC24" s="5" t="n">
         <v>3049</v>
       </c>
-      <c r="JE24" s="10"/>
-      <c r="JF24" s="10"/>
+      <c r="JE24" s="9"/>
+      <c r="JF24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -21875,8 +21887,8 @@
       <c r="JC25" s="5" t="n">
         <v>805</v>
       </c>
-      <c r="JE25" s="10"/>
-      <c r="JF25" s="10"/>
+      <c r="JE25" s="9"/>
+      <c r="JF25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
@@ -22668,8 +22680,8 @@
       <c r="JC26" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="JE26" s="10"/>
-      <c r="JF26" s="10"/>
+      <c r="JE26" s="9"/>
+      <c r="JF26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -28199,269 +28211,269 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="11"/>
-      <c r="AC34" s="11"/>
-      <c r="AD34" s="11"/>
-      <c r="AE34" s="11"/>
-      <c r="AF34" s="11"/>
-      <c r="AG34" s="11"/>
-      <c r="AH34" s="11"/>
-      <c r="AI34" s="11"/>
-      <c r="AJ34" s="11"/>
-      <c r="AK34" s="11"/>
-      <c r="AL34" s="11"/>
-      <c r="AM34" s="11"/>
-      <c r="AN34" s="11"/>
-      <c r="AO34" s="11"/>
-      <c r="AP34" s="11"/>
-      <c r="AQ34" s="11"/>
-      <c r="AR34" s="11"/>
-      <c r="AS34" s="11"/>
-      <c r="AT34" s="11"/>
-      <c r="AU34" s="11"/>
-      <c r="AV34" s="11"/>
-      <c r="AW34" s="11"/>
-      <c r="AX34" s="11"/>
-      <c r="AY34" s="11"/>
-      <c r="AZ34" s="11"/>
-      <c r="BA34" s="11"/>
-      <c r="BB34" s="11"/>
-      <c r="BC34" s="11"/>
-      <c r="BD34" s="11"/>
-      <c r="BE34" s="11"/>
-      <c r="BF34" s="11"/>
-      <c r="BG34" s="11"/>
-      <c r="BH34" s="11"/>
-      <c r="BI34" s="11"/>
-      <c r="BJ34" s="11"/>
-      <c r="BK34" s="11"/>
-      <c r="BL34" s="11"/>
-      <c r="BM34" s="11"/>
-      <c r="BN34" s="11"/>
-      <c r="BO34" s="11"/>
-      <c r="BP34" s="11"/>
-      <c r="BQ34" s="11"/>
-      <c r="BR34" s="11"/>
-      <c r="BS34" s="11"/>
-      <c r="BT34" s="11"/>
-      <c r="BU34" s="11"/>
-      <c r="BV34" s="11"/>
-      <c r="BW34" s="11"/>
-      <c r="BX34" s="11"/>
-      <c r="BY34" s="11"/>
-      <c r="BZ34" s="11"/>
-      <c r="CA34" s="11"/>
-      <c r="CB34" s="11"/>
-      <c r="CC34" s="11"/>
-      <c r="CD34" s="11"/>
-      <c r="CE34" s="11"/>
-      <c r="CF34" s="11"/>
-      <c r="CG34" s="11"/>
-      <c r="CH34" s="11"/>
-      <c r="CI34" s="11"/>
-      <c r="CJ34" s="11"/>
-      <c r="CK34" s="11"/>
-      <c r="CL34" s="11"/>
-      <c r="CM34" s="11"/>
-      <c r="CN34" s="11"/>
-      <c r="CO34" s="11"/>
-      <c r="CP34" s="11"/>
-      <c r="CQ34" s="11"/>
-      <c r="CR34" s="11"/>
-      <c r="CS34" s="11"/>
-      <c r="CT34" s="11"/>
-      <c r="CU34" s="11"/>
-      <c r="CV34" s="11"/>
-      <c r="CW34" s="11"/>
-      <c r="CX34" s="11"/>
-      <c r="CY34" s="11"/>
-      <c r="CZ34" s="11"/>
-      <c r="DA34" s="11"/>
-      <c r="DB34" s="11"/>
-      <c r="DC34" s="11"/>
-      <c r="DD34" s="11"/>
-      <c r="DE34" s="11"/>
-      <c r="DF34" s="11"/>
-      <c r="DG34" s="11"/>
-      <c r="DH34" s="11"/>
-      <c r="DI34" s="11"/>
-      <c r="DJ34" s="11"/>
-      <c r="DK34" s="11"/>
-      <c r="DL34" s="11"/>
-      <c r="DM34" s="11"/>
-      <c r="DN34" s="11"/>
-      <c r="DO34" s="11"/>
-      <c r="DP34" s="11"/>
-      <c r="DQ34" s="11"/>
-      <c r="DR34" s="11"/>
-      <c r="DS34" s="11"/>
-      <c r="DT34" s="11"/>
-      <c r="DU34" s="11"/>
-      <c r="DV34" s="11"/>
-      <c r="DW34" s="11"/>
-      <c r="DX34" s="11"/>
-      <c r="DY34" s="11"/>
-      <c r="DZ34" s="11"/>
-      <c r="EA34" s="11"/>
-      <c r="EB34" s="11"/>
-      <c r="EC34" s="11"/>
-      <c r="ED34" s="11"/>
-      <c r="EE34" s="11"/>
-      <c r="EF34" s="11"/>
-      <c r="EG34" s="11"/>
-      <c r="EH34" s="11"/>
-      <c r="EI34" s="11"/>
-      <c r="EJ34" s="11"/>
-      <c r="EK34" s="11"/>
-      <c r="EL34" s="11"/>
-      <c r="EM34" s="11"/>
-      <c r="EN34" s="11"/>
-      <c r="EO34" s="11"/>
-      <c r="EP34" s="11"/>
-      <c r="EQ34" s="11"/>
-      <c r="ER34" s="11"/>
-      <c r="ES34" s="11"/>
-      <c r="ET34" s="11"/>
-      <c r="EU34" s="11"/>
-      <c r="EV34" s="11"/>
-      <c r="EW34" s="11"/>
-      <c r="EX34" s="11"/>
-      <c r="EY34" s="11"/>
-      <c r="EZ34" s="11"/>
-      <c r="FA34" s="11"/>
-      <c r="FB34" s="11"/>
-      <c r="FC34" s="11"/>
-      <c r="FD34" s="11"/>
-      <c r="FE34" s="11"/>
-      <c r="FF34" s="11"/>
-      <c r="FG34" s="11"/>
-      <c r="FH34" s="11"/>
-      <c r="FI34" s="11"/>
-      <c r="FJ34" s="11"/>
-      <c r="FK34" s="11"/>
-      <c r="FL34" s="11"/>
-      <c r="FM34" s="11"/>
-      <c r="FN34" s="11"/>
-      <c r="FO34" s="11"/>
-      <c r="FP34" s="11"/>
-      <c r="FQ34" s="11"/>
-      <c r="FR34" s="11"/>
-      <c r="FS34" s="11"/>
-      <c r="FT34" s="11"/>
-      <c r="FU34" s="11"/>
-      <c r="FV34" s="11"/>
-      <c r="FW34" s="11"/>
-      <c r="FX34" s="11"/>
-      <c r="FY34" s="11"/>
-      <c r="FZ34" s="11"/>
-      <c r="GA34" s="11"/>
-      <c r="GB34" s="11"/>
-      <c r="GC34" s="11"/>
-      <c r="GD34" s="11"/>
-      <c r="GE34" s="11"/>
-      <c r="GF34" s="11"/>
-      <c r="GG34" s="11"/>
-      <c r="GH34" s="11"/>
-      <c r="GI34" s="11"/>
-      <c r="GJ34" s="11"/>
-      <c r="GK34" s="12"/>
-      <c r="GL34" s="12"/>
-      <c r="GM34" s="12"/>
-      <c r="GN34" s="12"/>
-      <c r="GO34" s="12"/>
-      <c r="GP34" s="12"/>
-      <c r="GQ34" s="12"/>
-      <c r="GR34" s="12"/>
-      <c r="GS34" s="12"/>
-      <c r="GT34" s="12"/>
-      <c r="GU34" s="12"/>
-      <c r="GV34" s="12"/>
-      <c r="GW34" s="12"/>
-      <c r="GX34" s="12"/>
-      <c r="GY34" s="12"/>
-      <c r="GZ34" s="12"/>
-      <c r="HA34" s="11"/>
-      <c r="HB34" s="11"/>
-      <c r="HC34" s="11"/>
-      <c r="HD34" s="11"/>
-      <c r="HE34" s="11"/>
-      <c r="HF34" s="11"/>
-      <c r="HG34" s="11"/>
-      <c r="HH34" s="11"/>
-      <c r="HI34" s="11"/>
-      <c r="HJ34" s="11"/>
-      <c r="HK34" s="11"/>
-      <c r="HL34" s="11"/>
-      <c r="HM34" s="11"/>
-      <c r="HN34" s="11"/>
-      <c r="HO34" s="11"/>
-      <c r="HP34" s="11"/>
-      <c r="HQ34" s="11"/>
-      <c r="HR34" s="11"/>
-      <c r="HS34" s="11"/>
-      <c r="HT34" s="11"/>
-      <c r="HU34" s="11"/>
-      <c r="HV34" s="11"/>
-      <c r="HW34" s="13"/>
-      <c r="HX34" s="11"/>
-      <c r="HY34" s="11"/>
-      <c r="HZ34" s="11"/>
-      <c r="IA34" s="11"/>
-      <c r="IB34" s="11"/>
-      <c r="IC34" s="11"/>
-      <c r="ID34" s="11"/>
-      <c r="IE34" s="11"/>
-      <c r="IF34" s="11"/>
-      <c r="IG34" s="11"/>
-      <c r="IH34" s="11"/>
-      <c r="II34" s="11"/>
-      <c r="IJ34" s="11"/>
-      <c r="IK34" s="11"/>
-      <c r="IL34" s="11"/>
-      <c r="IM34" s="11"/>
-      <c r="IN34" s="11"/>
-      <c r="IO34" s="11"/>
-      <c r="IP34" s="11"/>
-      <c r="IQ34" s="11"/>
-      <c r="IR34" s="11"/>
-      <c r="IS34" s="11"/>
-      <c r="IT34" s="11"/>
-      <c r="IU34" s="11"/>
-      <c r="IV34" s="11"/>
-      <c r="IW34" s="11"/>
-      <c r="IX34" s="11"/>
-      <c r="IY34" s="11"/>
-      <c r="IZ34" s="11"/>
-      <c r="JA34" s="11"/>
-      <c r="JB34" s="11"/>
-      <c r="JC34" s="11"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="10"/>
+      <c r="AJ34" s="10"/>
+      <c r="AK34" s="10"/>
+      <c r="AL34" s="10"/>
+      <c r="AM34" s="10"/>
+      <c r="AN34" s="10"/>
+      <c r="AO34" s="10"/>
+      <c r="AP34" s="10"/>
+      <c r="AQ34" s="10"/>
+      <c r="AR34" s="10"/>
+      <c r="AS34" s="10"/>
+      <c r="AT34" s="10"/>
+      <c r="AU34" s="10"/>
+      <c r="AV34" s="10"/>
+      <c r="AW34" s="10"/>
+      <c r="AX34" s="10"/>
+      <c r="AY34" s="10"/>
+      <c r="AZ34" s="10"/>
+      <c r="BA34" s="10"/>
+      <c r="BB34" s="10"/>
+      <c r="BC34" s="10"/>
+      <c r="BD34" s="10"/>
+      <c r="BE34" s="10"/>
+      <c r="BF34" s="10"/>
+      <c r="BG34" s="10"/>
+      <c r="BH34" s="10"/>
+      <c r="BI34" s="10"/>
+      <c r="BJ34" s="10"/>
+      <c r="BK34" s="10"/>
+      <c r="BL34" s="10"/>
+      <c r="BM34" s="10"/>
+      <c r="BN34" s="10"/>
+      <c r="BO34" s="10"/>
+      <c r="BP34" s="10"/>
+      <c r="BQ34" s="10"/>
+      <c r="BR34" s="10"/>
+      <c r="BS34" s="10"/>
+      <c r="BT34" s="10"/>
+      <c r="BU34" s="10"/>
+      <c r="BV34" s="10"/>
+      <c r="BW34" s="10"/>
+      <c r="BX34" s="10"/>
+      <c r="BY34" s="10"/>
+      <c r="BZ34" s="10"/>
+      <c r="CA34" s="10"/>
+      <c r="CB34" s="10"/>
+      <c r="CC34" s="10"/>
+      <c r="CD34" s="10"/>
+      <c r="CE34" s="10"/>
+      <c r="CF34" s="10"/>
+      <c r="CG34" s="10"/>
+      <c r="CH34" s="10"/>
+      <c r="CI34" s="10"/>
+      <c r="CJ34" s="10"/>
+      <c r="CK34" s="10"/>
+      <c r="CL34" s="10"/>
+      <c r="CM34" s="10"/>
+      <c r="CN34" s="10"/>
+      <c r="CO34" s="10"/>
+      <c r="CP34" s="10"/>
+      <c r="CQ34" s="10"/>
+      <c r="CR34" s="10"/>
+      <c r="CS34" s="10"/>
+      <c r="CT34" s="10"/>
+      <c r="CU34" s="10"/>
+      <c r="CV34" s="10"/>
+      <c r="CW34" s="10"/>
+      <c r="CX34" s="10"/>
+      <c r="CY34" s="10"/>
+      <c r="CZ34" s="10"/>
+      <c r="DA34" s="10"/>
+      <c r="DB34" s="10"/>
+      <c r="DC34" s="10"/>
+      <c r="DD34" s="10"/>
+      <c r="DE34" s="10"/>
+      <c r="DF34" s="10"/>
+      <c r="DG34" s="10"/>
+      <c r="DH34" s="10"/>
+      <c r="DI34" s="10"/>
+      <c r="DJ34" s="10"/>
+      <c r="DK34" s="10"/>
+      <c r="DL34" s="10"/>
+      <c r="DM34" s="10"/>
+      <c r="DN34" s="10"/>
+      <c r="DO34" s="10"/>
+      <c r="DP34" s="10"/>
+      <c r="DQ34" s="10"/>
+      <c r="DR34" s="10"/>
+      <c r="DS34" s="10"/>
+      <c r="DT34" s="10"/>
+      <c r="DU34" s="10"/>
+      <c r="DV34" s="10"/>
+      <c r="DW34" s="10"/>
+      <c r="DX34" s="10"/>
+      <c r="DY34" s="10"/>
+      <c r="DZ34" s="10"/>
+      <c r="EA34" s="10"/>
+      <c r="EB34" s="10"/>
+      <c r="EC34" s="10"/>
+      <c r="ED34" s="10"/>
+      <c r="EE34" s="10"/>
+      <c r="EF34" s="10"/>
+      <c r="EG34" s="10"/>
+      <c r="EH34" s="10"/>
+      <c r="EI34" s="10"/>
+      <c r="EJ34" s="10"/>
+      <c r="EK34" s="10"/>
+      <c r="EL34" s="10"/>
+      <c r="EM34" s="10"/>
+      <c r="EN34" s="10"/>
+      <c r="EO34" s="10"/>
+      <c r="EP34" s="10"/>
+      <c r="EQ34" s="10"/>
+      <c r="ER34" s="10"/>
+      <c r="ES34" s="10"/>
+      <c r="ET34" s="10"/>
+      <c r="EU34" s="10"/>
+      <c r="EV34" s="10"/>
+      <c r="EW34" s="10"/>
+      <c r="EX34" s="10"/>
+      <c r="EY34" s="10"/>
+      <c r="EZ34" s="10"/>
+      <c r="FA34" s="10"/>
+      <c r="FB34" s="10"/>
+      <c r="FC34" s="10"/>
+      <c r="FD34" s="10"/>
+      <c r="FE34" s="10"/>
+      <c r="FF34" s="10"/>
+      <c r="FG34" s="10"/>
+      <c r="FH34" s="10"/>
+      <c r="FI34" s="10"/>
+      <c r="FJ34" s="10"/>
+      <c r="FK34" s="10"/>
+      <c r="FL34" s="10"/>
+      <c r="FM34" s="10"/>
+      <c r="FN34" s="10"/>
+      <c r="FO34" s="10"/>
+      <c r="FP34" s="10"/>
+      <c r="FQ34" s="10"/>
+      <c r="FR34" s="10"/>
+      <c r="FS34" s="10"/>
+      <c r="FT34" s="10"/>
+      <c r="FU34" s="10"/>
+      <c r="FV34" s="10"/>
+      <c r="FW34" s="10"/>
+      <c r="FX34" s="10"/>
+      <c r="FY34" s="10"/>
+      <c r="FZ34" s="10"/>
+      <c r="GA34" s="10"/>
+      <c r="GB34" s="10"/>
+      <c r="GC34" s="10"/>
+      <c r="GD34" s="10"/>
+      <c r="GE34" s="10"/>
+      <c r="GF34" s="10"/>
+      <c r="GG34" s="10"/>
+      <c r="GH34" s="10"/>
+      <c r="GI34" s="10"/>
+      <c r="GJ34" s="10"/>
+      <c r="GK34" s="11"/>
+      <c r="GL34" s="11"/>
+      <c r="GM34" s="11"/>
+      <c r="GN34" s="11"/>
+      <c r="GO34" s="11"/>
+      <c r="GP34" s="11"/>
+      <c r="GQ34" s="11"/>
+      <c r="GR34" s="11"/>
+      <c r="GS34" s="11"/>
+      <c r="GT34" s="11"/>
+      <c r="GU34" s="11"/>
+      <c r="GV34" s="11"/>
+      <c r="GW34" s="11"/>
+      <c r="GX34" s="11"/>
+      <c r="GY34" s="11"/>
+      <c r="GZ34" s="11"/>
+      <c r="HA34" s="10"/>
+      <c r="HB34" s="10"/>
+      <c r="HC34" s="10"/>
+      <c r="HD34" s="10"/>
+      <c r="HE34" s="10"/>
+      <c r="HF34" s="10"/>
+      <c r="HG34" s="10"/>
+      <c r="HH34" s="10"/>
+      <c r="HI34" s="10"/>
+      <c r="HJ34" s="10"/>
+      <c r="HK34" s="10"/>
+      <c r="HL34" s="10"/>
+      <c r="HM34" s="10"/>
+      <c r="HN34" s="10"/>
+      <c r="HO34" s="10"/>
+      <c r="HP34" s="10"/>
+      <c r="HQ34" s="10"/>
+      <c r="HR34" s="10"/>
+      <c r="HS34" s="10"/>
+      <c r="HT34" s="10"/>
+      <c r="HU34" s="10"/>
+      <c r="HV34" s="10"/>
+      <c r="HW34" s="12"/>
+      <c r="HX34" s="10"/>
+      <c r="HY34" s="10"/>
+      <c r="HZ34" s="10"/>
+      <c r="IA34" s="10"/>
+      <c r="IB34" s="10"/>
+      <c r="IC34" s="10"/>
+      <c r="ID34" s="10"/>
+      <c r="IE34" s="10"/>
+      <c r="IF34" s="10"/>
+      <c r="IG34" s="10"/>
+      <c r="IH34" s="10"/>
+      <c r="II34" s="10"/>
+      <c r="IJ34" s="10"/>
+      <c r="IK34" s="10"/>
+      <c r="IL34" s="10"/>
+      <c r="IM34" s="10"/>
+      <c r="IN34" s="10"/>
+      <c r="IO34" s="10"/>
+      <c r="IP34" s="10"/>
+      <c r="IQ34" s="10"/>
+      <c r="IR34" s="10"/>
+      <c r="IS34" s="10"/>
+      <c r="IT34" s="10"/>
+      <c r="IU34" s="10"/>
+      <c r="IV34" s="10"/>
+      <c r="IW34" s="10"/>
+      <c r="IX34" s="10"/>
+      <c r="IY34" s="10"/>
+      <c r="IZ34" s="10"/>
+      <c r="JA34" s="10"/>
+      <c r="JB34" s="10"/>
+      <c r="JC34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
@@ -29037,107 +29049,107 @@
       <c r="GJ35" s="0" t="n">
         <v>2661</v>
       </c>
-      <c r="GK35" s="14" t="n">
+      <c r="GK35" s="13" t="n">
         <v>0.231</v>
       </c>
-      <c r="GL35" s="14" t="n">
+      <c r="GL35" s="13" t="n">
         <v>0.0821</v>
       </c>
-      <c r="GM35" s="14" t="n">
+      <c r="GM35" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GN35" s="14" t="n">
+      <c r="GN35" s="13" t="n">
         <v>0.0368</v>
       </c>
-      <c r="GO35" s="14" t="n">
+      <c r="GO35" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GP35" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ35" s="14" t="n">
+      <c r="GP35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ35" s="13" t="n">
         <v>0.0574</v>
       </c>
-      <c r="GR35" s="14" t="n">
+      <c r="GR35" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GS35" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT35" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU35" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV35" s="14" t="n">
+      <c r="GS35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV35" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GW35" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX35" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY35" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ35" s="15"/>
-      <c r="HA35" s="16"/>
-      <c r="HB35" s="16"/>
-      <c r="HC35" s="16"/>
-      <c r="HD35" s="16"/>
-      <c r="HE35" s="16"/>
-      <c r="HF35" s="16"/>
-      <c r="HG35" s="16"/>
-      <c r="HH35" s="16"/>
-      <c r="HI35" s="16"/>
-      <c r="HJ35" s="16"/>
-      <c r="HK35" s="16"/>
-      <c r="HL35" s="16"/>
-      <c r="HM35" s="16"/>
-      <c r="HN35" s="16"/>
-      <c r="HO35" s="16"/>
-      <c r="HP35" s="16"/>
-      <c r="HQ35" s="16"/>
-      <c r="HR35" s="16"/>
-      <c r="HS35" s="16"/>
-      <c r="HT35" s="16"/>
-      <c r="HU35" s="16"/>
-      <c r="HV35" s="16"/>
-      <c r="HW35" s="16"/>
-      <c r="HX35" s="16"/>
-      <c r="HY35" s="16"/>
-      <c r="HZ35" s="16"/>
-      <c r="IA35" s="16"/>
-      <c r="IB35" s="16"/>
-      <c r="IC35" s="16"/>
-      <c r="ID35" s="16"/>
-      <c r="IE35" s="16"/>
-      <c r="IF35" s="16"/>
-      <c r="IG35" s="16"/>
-      <c r="IH35" s="16"/>
-      <c r="II35" s="16"/>
-      <c r="IJ35" s="16"/>
-      <c r="IK35" s="16"/>
-      <c r="IL35" s="16"/>
-      <c r="IM35" s="16"/>
-      <c r="IN35" s="16"/>
-      <c r="IO35" s="16"/>
-      <c r="IP35" s="16"/>
-      <c r="IQ35" s="16"/>
-      <c r="IR35" s="16"/>
-      <c r="IS35" s="16"/>
-      <c r="IT35" s="16"/>
-      <c r="IU35" s="16"/>
-      <c r="IV35" s="16"/>
-      <c r="IW35" s="16"/>
-      <c r="IX35" s="16"/>
-      <c r="IY35" s="16"/>
-      <c r="IZ35" s="16"/>
-      <c r="JA35" s="16"/>
-      <c r="JB35" s="16"/>
-      <c r="JC35" s="16"/>
+      <c r="GW35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ35" s="14"/>
+      <c r="HA35" s="15"/>
+      <c r="HB35" s="15"/>
+      <c r="HC35" s="15"/>
+      <c r="HD35" s="15"/>
+      <c r="HE35" s="15"/>
+      <c r="HF35" s="15"/>
+      <c r="HG35" s="15"/>
+      <c r="HH35" s="15"/>
+      <c r="HI35" s="15"/>
+      <c r="HJ35" s="15"/>
+      <c r="HK35" s="15"/>
+      <c r="HL35" s="15"/>
+      <c r="HM35" s="15"/>
+      <c r="HN35" s="15"/>
+      <c r="HO35" s="15"/>
+      <c r="HP35" s="15"/>
+      <c r="HQ35" s="15"/>
+      <c r="HR35" s="15"/>
+      <c r="HS35" s="15"/>
+      <c r="HT35" s="15"/>
+      <c r="HU35" s="15"/>
+      <c r="HV35" s="15"/>
+      <c r="HW35" s="15"/>
+      <c r="HX35" s="15"/>
+      <c r="HY35" s="15"/>
+      <c r="HZ35" s="15"/>
+      <c r="IA35" s="15"/>
+      <c r="IB35" s="15"/>
+      <c r="IC35" s="15"/>
+      <c r="ID35" s="15"/>
+      <c r="IE35" s="15"/>
+      <c r="IF35" s="15"/>
+      <c r="IG35" s="15"/>
+      <c r="IH35" s="15"/>
+      <c r="II35" s="15"/>
+      <c r="IJ35" s="15"/>
+      <c r="IK35" s="15"/>
+      <c r="IL35" s="15"/>
+      <c r="IM35" s="15"/>
+      <c r="IN35" s="15"/>
+      <c r="IO35" s="15"/>
+      <c r="IP35" s="15"/>
+      <c r="IQ35" s="15"/>
+      <c r="IR35" s="15"/>
+      <c r="IS35" s="15"/>
+      <c r="IT35" s="15"/>
+      <c r="IU35" s="15"/>
+      <c r="IV35" s="15"/>
+      <c r="IW35" s="15"/>
+      <c r="IX35" s="15"/>
+      <c r="IY35" s="15"/>
+      <c r="IZ35" s="15"/>
+      <c r="JA35" s="15"/>
+      <c r="JB35" s="15"/>
+      <c r="JC35" s="15"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
@@ -29713,107 +29725,107 @@
       <c r="GJ36" s="0" t="n">
         <v>3232</v>
       </c>
-      <c r="GK36" s="14" t="n">
+      <c r="GK36" s="13" t="n">
         <v>40.8</v>
       </c>
-      <c r="GL36" s="14" t="n">
+      <c r="GL36" s="13" t="n">
         <v>10.6</v>
       </c>
-      <c r="GM36" s="14" t="n">
+      <c r="GM36" s="13" t="n">
         <v>0.212</v>
       </c>
-      <c r="GN36" s="14" t="n">
+      <c r="GN36" s="13" t="n">
         <v>2.64</v>
       </c>
-      <c r="GO36" s="14" t="n">
+      <c r="GO36" s="13" t="n">
         <v>0.0842</v>
       </c>
-      <c r="GP36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ36" s="14" t="n">
+      <c r="GP36" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ36" s="13" t="n">
         <v>14.8</v>
       </c>
-      <c r="GR36" s="14" t="n">
+      <c r="GR36" s="13" t="n">
         <v>0.383</v>
       </c>
-      <c r="GS36" s="14" t="n">
+      <c r="GS36" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GT36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV36" s="14" t="n">
+      <c r="GT36" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU36" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV36" s="13" t="n">
         <v>0.0816</v>
       </c>
-      <c r="GW36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ36" s="15"/>
-      <c r="HA36" s="16"/>
-      <c r="HB36" s="16"/>
-      <c r="HC36" s="16"/>
-      <c r="HD36" s="16"/>
-      <c r="HE36" s="16"/>
-      <c r="HF36" s="16"/>
-      <c r="HG36" s="16"/>
-      <c r="HH36" s="16"/>
-      <c r="HI36" s="16"/>
-      <c r="HJ36" s="16"/>
-      <c r="HK36" s="16"/>
-      <c r="HL36" s="16"/>
-      <c r="HM36" s="16"/>
-      <c r="HN36" s="16"/>
-      <c r="HO36" s="16"/>
-      <c r="HP36" s="16"/>
-      <c r="HQ36" s="16"/>
-      <c r="HR36" s="16"/>
-      <c r="HS36" s="16"/>
-      <c r="HT36" s="16"/>
-      <c r="HU36" s="16"/>
-      <c r="HV36" s="16"/>
-      <c r="HW36" s="16"/>
-      <c r="HX36" s="16"/>
-      <c r="HY36" s="16"/>
-      <c r="HZ36" s="16"/>
-      <c r="IA36" s="16"/>
-      <c r="IB36" s="16"/>
-      <c r="IC36" s="16"/>
-      <c r="ID36" s="16"/>
-      <c r="IE36" s="16"/>
-      <c r="IF36" s="16"/>
-      <c r="IG36" s="16"/>
-      <c r="IH36" s="16"/>
-      <c r="II36" s="16"/>
-      <c r="IJ36" s="16"/>
-      <c r="IK36" s="16"/>
-      <c r="IL36" s="16"/>
-      <c r="IM36" s="16"/>
-      <c r="IN36" s="16"/>
-      <c r="IO36" s="16"/>
-      <c r="IP36" s="16"/>
-      <c r="IQ36" s="16"/>
-      <c r="IR36" s="16"/>
-      <c r="IS36" s="16"/>
-      <c r="IT36" s="16"/>
-      <c r="IU36" s="16"/>
-      <c r="IV36" s="16"/>
-      <c r="IW36" s="16"/>
-      <c r="IX36" s="16"/>
-      <c r="IY36" s="16"/>
-      <c r="IZ36" s="16"/>
-      <c r="JA36" s="16"/>
-      <c r="JB36" s="16"/>
-      <c r="JC36" s="16"/>
+      <c r="GW36" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX36" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY36" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ36" s="14"/>
+      <c r="HA36" s="15"/>
+      <c r="HB36" s="15"/>
+      <c r="HC36" s="15"/>
+      <c r="HD36" s="15"/>
+      <c r="HE36" s="15"/>
+      <c r="HF36" s="15"/>
+      <c r="HG36" s="15"/>
+      <c r="HH36" s="15"/>
+      <c r="HI36" s="15"/>
+      <c r="HJ36" s="15"/>
+      <c r="HK36" s="15"/>
+      <c r="HL36" s="15"/>
+      <c r="HM36" s="15"/>
+      <c r="HN36" s="15"/>
+      <c r="HO36" s="15"/>
+      <c r="HP36" s="15"/>
+      <c r="HQ36" s="15"/>
+      <c r="HR36" s="15"/>
+      <c r="HS36" s="15"/>
+      <c r="HT36" s="15"/>
+      <c r="HU36" s="15"/>
+      <c r="HV36" s="15"/>
+      <c r="HW36" s="15"/>
+      <c r="HX36" s="15"/>
+      <c r="HY36" s="15"/>
+      <c r="HZ36" s="15"/>
+      <c r="IA36" s="15"/>
+      <c r="IB36" s="15"/>
+      <c r="IC36" s="15"/>
+      <c r="ID36" s="15"/>
+      <c r="IE36" s="15"/>
+      <c r="IF36" s="15"/>
+      <c r="IG36" s="15"/>
+      <c r="IH36" s="15"/>
+      <c r="II36" s="15"/>
+      <c r="IJ36" s="15"/>
+      <c r="IK36" s="15"/>
+      <c r="IL36" s="15"/>
+      <c r="IM36" s="15"/>
+      <c r="IN36" s="15"/>
+      <c r="IO36" s="15"/>
+      <c r="IP36" s="15"/>
+      <c r="IQ36" s="15"/>
+      <c r="IR36" s="15"/>
+      <c r="IS36" s="15"/>
+      <c r="IT36" s="15"/>
+      <c r="IU36" s="15"/>
+      <c r="IV36" s="15"/>
+      <c r="IW36" s="15"/>
+      <c r="IX36" s="15"/>
+      <c r="IY36" s="15"/>
+      <c r="IZ36" s="15"/>
+      <c r="JA36" s="15"/>
+      <c r="JB36" s="15"/>
+      <c r="JC36" s="15"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
@@ -30392,107 +30404,107 @@
       <c r="GJ37" s="0" t="n">
         <v>3711</v>
       </c>
-      <c r="GK37" s="14" t="n">
+      <c r="GK37" s="13" t="n">
         <v>17.2</v>
       </c>
-      <c r="GL37" s="14" t="n">
+      <c r="GL37" s="13" t="n">
         <v>21.1</v>
       </c>
-      <c r="GM37" s="14" t="n">
+      <c r="GM37" s="13" t="n">
         <v>3.56</v>
       </c>
-      <c r="GN37" s="14" t="n">
+      <c r="GN37" s="13" t="n">
         <v>3.14</v>
       </c>
-      <c r="GO37" s="14" t="n">
+      <c r="GO37" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GP37" s="14" t="n">
+      <c r="GP37" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GQ37" s="14" t="n">
+      <c r="GQ37" s="13" t="n">
         <v>1.29</v>
       </c>
-      <c r="GR37" s="14" t="n">
+      <c r="GR37" s="13" t="n">
         <v>1.47</v>
       </c>
-      <c r="GS37" s="14" t="n">
+      <c r="GS37" s="13" t="n">
         <v>5.99</v>
       </c>
-      <c r="GT37" s="14" t="n">
+      <c r="GT37" s="13" t="n">
         <v>0.337</v>
       </c>
-      <c r="GU37" s="14" t="n">
+      <c r="GU37" s="13" t="n">
         <v>0.148</v>
       </c>
-      <c r="GV37" s="14" t="n">
+      <c r="GV37" s="13" t="n">
         <v>0.127</v>
       </c>
-      <c r="GW37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ37" s="15"/>
-      <c r="HA37" s="16"/>
-      <c r="HB37" s="16"/>
-      <c r="HC37" s="16"/>
-      <c r="HD37" s="16"/>
-      <c r="HE37" s="16"/>
-      <c r="HF37" s="16"/>
-      <c r="HG37" s="16"/>
-      <c r="HH37" s="16"/>
-      <c r="HI37" s="16"/>
-      <c r="HJ37" s="16"/>
-      <c r="HK37" s="16"/>
-      <c r="HL37" s="16"/>
-      <c r="HM37" s="16"/>
-      <c r="HN37" s="16"/>
-      <c r="HO37" s="16"/>
-      <c r="HP37" s="16"/>
-      <c r="HQ37" s="16"/>
-      <c r="HR37" s="16"/>
-      <c r="HS37" s="16"/>
-      <c r="HT37" s="16"/>
-      <c r="HU37" s="16"/>
-      <c r="HV37" s="16"/>
-      <c r="HW37" s="16"/>
-      <c r="HX37" s="16"/>
-      <c r="HY37" s="16"/>
-      <c r="HZ37" s="16"/>
-      <c r="IA37" s="16"/>
-      <c r="IB37" s="16"/>
-      <c r="IC37" s="16"/>
-      <c r="ID37" s="16"/>
-      <c r="IE37" s="16"/>
-      <c r="IF37" s="16"/>
-      <c r="IG37" s="16"/>
-      <c r="IH37" s="16"/>
-      <c r="II37" s="16"/>
-      <c r="IJ37" s="16"/>
-      <c r="IK37" s="16"/>
-      <c r="IL37" s="16"/>
-      <c r="IM37" s="16"/>
-      <c r="IN37" s="16"/>
-      <c r="IO37" s="16"/>
-      <c r="IP37" s="16"/>
-      <c r="IQ37" s="16"/>
-      <c r="IR37" s="16"/>
-      <c r="IS37" s="16"/>
-      <c r="IT37" s="16"/>
-      <c r="IU37" s="16"/>
-      <c r="IV37" s="16"/>
-      <c r="IW37" s="16"/>
-      <c r="IX37" s="16"/>
-      <c r="IY37" s="16"/>
-      <c r="IZ37" s="16"/>
-      <c r="JA37" s="16"/>
-      <c r="JB37" s="16"/>
-      <c r="JC37" s="16"/>
+      <c r="GW37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ37" s="14"/>
+      <c r="HA37" s="15"/>
+      <c r="HB37" s="15"/>
+      <c r="HC37" s="15"/>
+      <c r="HD37" s="15"/>
+      <c r="HE37" s="15"/>
+      <c r="HF37" s="15"/>
+      <c r="HG37" s="15"/>
+      <c r="HH37" s="15"/>
+      <c r="HI37" s="15"/>
+      <c r="HJ37" s="15"/>
+      <c r="HK37" s="15"/>
+      <c r="HL37" s="15"/>
+      <c r="HM37" s="15"/>
+      <c r="HN37" s="15"/>
+      <c r="HO37" s="15"/>
+      <c r="HP37" s="15"/>
+      <c r="HQ37" s="15"/>
+      <c r="HR37" s="15"/>
+      <c r="HS37" s="15"/>
+      <c r="HT37" s="15"/>
+      <c r="HU37" s="15"/>
+      <c r="HV37" s="15"/>
+      <c r="HW37" s="15"/>
+      <c r="HX37" s="15"/>
+      <c r="HY37" s="15"/>
+      <c r="HZ37" s="15"/>
+      <c r="IA37" s="15"/>
+      <c r="IB37" s="15"/>
+      <c r="IC37" s="15"/>
+      <c r="ID37" s="15"/>
+      <c r="IE37" s="15"/>
+      <c r="IF37" s="15"/>
+      <c r="IG37" s="15"/>
+      <c r="IH37" s="15"/>
+      <c r="II37" s="15"/>
+      <c r="IJ37" s="15"/>
+      <c r="IK37" s="15"/>
+      <c r="IL37" s="15"/>
+      <c r="IM37" s="15"/>
+      <c r="IN37" s="15"/>
+      <c r="IO37" s="15"/>
+      <c r="IP37" s="15"/>
+      <c r="IQ37" s="15"/>
+      <c r="IR37" s="15"/>
+      <c r="IS37" s="15"/>
+      <c r="IT37" s="15"/>
+      <c r="IU37" s="15"/>
+      <c r="IV37" s="15"/>
+      <c r="IW37" s="15"/>
+      <c r="IX37" s="15"/>
+      <c r="IY37" s="15"/>
+      <c r="IZ37" s="15"/>
+      <c r="JA37" s="15"/>
+      <c r="JB37" s="15"/>
+      <c r="JC37" s="15"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
@@ -31068,107 +31080,107 @@
       <c r="GJ38" s="0" t="n">
         <v>4157</v>
       </c>
-      <c r="GK38" s="14" t="n">
+      <c r="GK38" s="13" t="n">
         <v>20</v>
       </c>
-      <c r="GL38" s="14" t="n">
+      <c r="GL38" s="13" t="n">
         <v>5.86</v>
       </c>
-      <c r="GM38" s="14" t="n">
+      <c r="GM38" s="13" t="n">
         <v>0.575</v>
       </c>
-      <c r="GN38" s="14" t="n">
+      <c r="GN38" s="13" t="n">
         <v>3.82</v>
       </c>
-      <c r="GO38" s="14" t="n">
+      <c r="GO38" s="13" t="n">
         <v>0.0516</v>
       </c>
-      <c r="GP38" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ38" s="14" t="n">
+      <c r="GP38" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ38" s="13" t="n">
         <v>1.58</v>
       </c>
-      <c r="GR38" s="14" t="n">
+      <c r="GR38" s="13" t="n">
         <v>0.251</v>
       </c>
-      <c r="GS38" s="14" t="n">
+      <c r="GS38" s="13" t="n">
         <v>0.557</v>
       </c>
-      <c r="GT38" s="14" t="n">
+      <c r="GT38" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GU38" s="14" t="n">
+      <c r="GU38" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GV38" s="14" t="n">
+      <c r="GV38" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GW38" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX38" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY38" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ38" s="15"/>
-      <c r="HA38" s="16"/>
-      <c r="HB38" s="16"/>
-      <c r="HC38" s="16"/>
-      <c r="HD38" s="16"/>
-      <c r="HE38" s="16"/>
-      <c r="HF38" s="16"/>
-      <c r="HG38" s="16"/>
-      <c r="HH38" s="16"/>
-      <c r="HI38" s="16"/>
-      <c r="HJ38" s="16"/>
-      <c r="HK38" s="16"/>
-      <c r="HL38" s="16"/>
-      <c r="HM38" s="16"/>
-      <c r="HN38" s="16"/>
-      <c r="HO38" s="16"/>
-      <c r="HP38" s="16"/>
-      <c r="HQ38" s="16"/>
-      <c r="HR38" s="16"/>
-      <c r="HS38" s="16"/>
-      <c r="HT38" s="16"/>
-      <c r="HU38" s="16"/>
-      <c r="HV38" s="16"/>
-      <c r="HW38" s="16"/>
-      <c r="HX38" s="16"/>
-      <c r="HY38" s="16"/>
-      <c r="HZ38" s="16"/>
-      <c r="IA38" s="16"/>
-      <c r="IB38" s="16"/>
-      <c r="IC38" s="16"/>
-      <c r="ID38" s="16"/>
-      <c r="IE38" s="16"/>
-      <c r="IF38" s="16"/>
-      <c r="IG38" s="16"/>
-      <c r="IH38" s="16"/>
-      <c r="II38" s="16"/>
-      <c r="IJ38" s="16"/>
-      <c r="IK38" s="16"/>
-      <c r="IL38" s="16"/>
-      <c r="IM38" s="16"/>
-      <c r="IN38" s="16"/>
-      <c r="IO38" s="16"/>
-      <c r="IP38" s="16"/>
-      <c r="IQ38" s="16"/>
-      <c r="IR38" s="16"/>
-      <c r="IS38" s="16"/>
-      <c r="IT38" s="16"/>
-      <c r="IU38" s="16"/>
-      <c r="IV38" s="16"/>
-      <c r="IW38" s="16"/>
-      <c r="IX38" s="16"/>
-      <c r="IY38" s="16"/>
-      <c r="IZ38" s="16"/>
-      <c r="JA38" s="16"/>
-      <c r="JB38" s="16"/>
-      <c r="JC38" s="16"/>
+      <c r="GW38" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX38" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY38" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ38" s="14"/>
+      <c r="HA38" s="15"/>
+      <c r="HB38" s="15"/>
+      <c r="HC38" s="15"/>
+      <c r="HD38" s="15"/>
+      <c r="HE38" s="15"/>
+      <c r="HF38" s="15"/>
+      <c r="HG38" s="15"/>
+      <c r="HH38" s="15"/>
+      <c r="HI38" s="15"/>
+      <c r="HJ38" s="15"/>
+      <c r="HK38" s="15"/>
+      <c r="HL38" s="15"/>
+      <c r="HM38" s="15"/>
+      <c r="HN38" s="15"/>
+      <c r="HO38" s="15"/>
+      <c r="HP38" s="15"/>
+      <c r="HQ38" s="15"/>
+      <c r="HR38" s="15"/>
+      <c r="HS38" s="15"/>
+      <c r="HT38" s="15"/>
+      <c r="HU38" s="15"/>
+      <c r="HV38" s="15"/>
+      <c r="HW38" s="15"/>
+      <c r="HX38" s="15"/>
+      <c r="HY38" s="15"/>
+      <c r="HZ38" s="15"/>
+      <c r="IA38" s="15"/>
+      <c r="IB38" s="15"/>
+      <c r="IC38" s="15"/>
+      <c r="ID38" s="15"/>
+      <c r="IE38" s="15"/>
+      <c r="IF38" s="15"/>
+      <c r="IG38" s="15"/>
+      <c r="IH38" s="15"/>
+      <c r="II38" s="15"/>
+      <c r="IJ38" s="15"/>
+      <c r="IK38" s="15"/>
+      <c r="IL38" s="15"/>
+      <c r="IM38" s="15"/>
+      <c r="IN38" s="15"/>
+      <c r="IO38" s="15"/>
+      <c r="IP38" s="15"/>
+      <c r="IQ38" s="15"/>
+      <c r="IR38" s="15"/>
+      <c r="IS38" s="15"/>
+      <c r="IT38" s="15"/>
+      <c r="IU38" s="15"/>
+      <c r="IV38" s="15"/>
+      <c r="IW38" s="15"/>
+      <c r="IX38" s="15"/>
+      <c r="IY38" s="15"/>
+      <c r="IZ38" s="15"/>
+      <c r="JA38" s="15"/>
+      <c r="JB38" s="15"/>
+      <c r="JC38" s="15"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
@@ -31744,107 +31756,107 @@
       <c r="GJ39" s="0" t="n">
         <v>3471</v>
       </c>
-      <c r="GK39" s="14" t="n">
+      <c r="GK39" s="13" t="n">
         <v>34.4</v>
       </c>
-      <c r="GL39" s="14" t="n">
+      <c r="GL39" s="13" t="n">
         <v>2.5</v>
       </c>
-      <c r="GM39" s="14" t="n">
+      <c r="GM39" s="13" t="n">
         <v>0.213</v>
       </c>
-      <c r="GN39" s="14" t="n">
+      <c r="GN39" s="13" t="n">
         <v>4.95</v>
       </c>
-      <c r="GO39" s="14" t="n">
+      <c r="GO39" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GP39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ39" s="14" t="n">
+      <c r="GP39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ39" s="13" t="n">
         <v>5.56</v>
       </c>
-      <c r="GR39" s="14" t="n">
+      <c r="GR39" s="13" t="n">
         <v>0.205</v>
       </c>
-      <c r="GS39" s="14" t="n">
+      <c r="GS39" s="13" t="n">
         <v>0.135</v>
       </c>
-      <c r="GT39" s="14" t="n">
+      <c r="GT39" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GU39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV39" s="14" t="n">
+      <c r="GU39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV39" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GW39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ39" s="15"/>
-      <c r="HA39" s="16"/>
-      <c r="HB39" s="16"/>
-      <c r="HC39" s="16"/>
-      <c r="HD39" s="16"/>
-      <c r="HE39" s="16"/>
-      <c r="HF39" s="16"/>
-      <c r="HG39" s="16"/>
-      <c r="HH39" s="16"/>
-      <c r="HI39" s="16"/>
-      <c r="HJ39" s="16"/>
-      <c r="HK39" s="16"/>
-      <c r="HL39" s="16"/>
-      <c r="HM39" s="16"/>
-      <c r="HN39" s="16"/>
-      <c r="HO39" s="16"/>
-      <c r="HP39" s="16"/>
-      <c r="HQ39" s="16"/>
-      <c r="HR39" s="16"/>
-      <c r="HS39" s="16"/>
-      <c r="HT39" s="16"/>
-      <c r="HU39" s="16"/>
-      <c r="HV39" s="16"/>
-      <c r="HW39" s="16"/>
-      <c r="HX39" s="16"/>
-      <c r="HY39" s="16"/>
-      <c r="HZ39" s="16"/>
-      <c r="IA39" s="16"/>
-      <c r="IB39" s="16"/>
-      <c r="IC39" s="16"/>
-      <c r="ID39" s="16"/>
-      <c r="IE39" s="16"/>
-      <c r="IF39" s="16"/>
-      <c r="IG39" s="16"/>
-      <c r="IH39" s="16"/>
-      <c r="II39" s="16"/>
-      <c r="IJ39" s="16"/>
-      <c r="IK39" s="16"/>
-      <c r="IL39" s="16"/>
-      <c r="IM39" s="16"/>
-      <c r="IN39" s="16"/>
-      <c r="IO39" s="16"/>
-      <c r="IP39" s="16"/>
-      <c r="IQ39" s="16"/>
-      <c r="IR39" s="16"/>
-      <c r="IS39" s="16"/>
-      <c r="IT39" s="16"/>
-      <c r="IU39" s="16"/>
-      <c r="IV39" s="16"/>
-      <c r="IW39" s="16"/>
-      <c r="IX39" s="16"/>
-      <c r="IY39" s="16"/>
-      <c r="IZ39" s="16"/>
-      <c r="JA39" s="16"/>
-      <c r="JB39" s="16"/>
-      <c r="JC39" s="16"/>
+      <c r="GW39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ39" s="14"/>
+      <c r="HA39" s="15"/>
+      <c r="HB39" s="15"/>
+      <c r="HC39" s="15"/>
+      <c r="HD39" s="15"/>
+      <c r="HE39" s="15"/>
+      <c r="HF39" s="15"/>
+      <c r="HG39" s="15"/>
+      <c r="HH39" s="15"/>
+      <c r="HI39" s="15"/>
+      <c r="HJ39" s="15"/>
+      <c r="HK39" s="15"/>
+      <c r="HL39" s="15"/>
+      <c r="HM39" s="15"/>
+      <c r="HN39" s="15"/>
+      <c r="HO39" s="15"/>
+      <c r="HP39" s="15"/>
+      <c r="HQ39" s="15"/>
+      <c r="HR39" s="15"/>
+      <c r="HS39" s="15"/>
+      <c r="HT39" s="15"/>
+      <c r="HU39" s="15"/>
+      <c r="HV39" s="15"/>
+      <c r="HW39" s="15"/>
+      <c r="HX39" s="15"/>
+      <c r="HY39" s="15"/>
+      <c r="HZ39" s="15"/>
+      <c r="IA39" s="15"/>
+      <c r="IB39" s="15"/>
+      <c r="IC39" s="15"/>
+      <c r="ID39" s="15"/>
+      <c r="IE39" s="15"/>
+      <c r="IF39" s="15"/>
+      <c r="IG39" s="15"/>
+      <c r="IH39" s="15"/>
+      <c r="II39" s="15"/>
+      <c r="IJ39" s="15"/>
+      <c r="IK39" s="15"/>
+      <c r="IL39" s="15"/>
+      <c r="IM39" s="15"/>
+      <c r="IN39" s="15"/>
+      <c r="IO39" s="15"/>
+      <c r="IP39" s="15"/>
+      <c r="IQ39" s="15"/>
+      <c r="IR39" s="15"/>
+      <c r="IS39" s="15"/>
+      <c r="IT39" s="15"/>
+      <c r="IU39" s="15"/>
+      <c r="IV39" s="15"/>
+      <c r="IW39" s="15"/>
+      <c r="IX39" s="15"/>
+      <c r="IY39" s="15"/>
+      <c r="IZ39" s="15"/>
+      <c r="JA39" s="15"/>
+      <c r="JB39" s="15"/>
+      <c r="JC39" s="15"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
@@ -32420,107 +32432,107 @@
       <c r="GJ40" s="0" t="n">
         <v>2548</v>
       </c>
-      <c r="GK40" s="14" t="n">
+      <c r="GK40" s="13" t="n">
         <v>27.7</v>
       </c>
-      <c r="GL40" s="14" t="n">
+      <c r="GL40" s="13" t="n">
         <v>8.7</v>
       </c>
-      <c r="GM40" s="14" t="n">
+      <c r="GM40" s="13" t="n">
         <v>0.676</v>
       </c>
-      <c r="GN40" s="14" t="n">
+      <c r="GN40" s="13" t="n">
         <v>5.14</v>
       </c>
-      <c r="GO40" s="14" t="n">
+      <c r="GO40" s="13" t="n">
         <v>0.0809</v>
       </c>
-      <c r="GP40" s="14" t="n">
+      <c r="GP40" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GQ40" s="14" t="n">
+      <c r="GQ40" s="13" t="n">
         <v>6.87</v>
       </c>
-      <c r="GR40" s="14" t="n">
+      <c r="GR40" s="13" t="n">
         <v>0.764</v>
       </c>
-      <c r="GS40" s="14" t="n">
+      <c r="GS40" s="13" t="n">
         <v>0.16</v>
       </c>
-      <c r="GT40" s="14" t="n">
+      <c r="GT40" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GU40" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV40" s="14" t="n">
+      <c r="GU40" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV40" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GW40" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX40" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY40" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ40" s="15"/>
-      <c r="HA40" s="16"/>
-      <c r="HB40" s="16"/>
-      <c r="HC40" s="16"/>
-      <c r="HD40" s="16"/>
-      <c r="HE40" s="16"/>
-      <c r="HF40" s="16"/>
-      <c r="HG40" s="16"/>
-      <c r="HH40" s="16"/>
-      <c r="HI40" s="16"/>
-      <c r="HJ40" s="16"/>
-      <c r="HK40" s="16"/>
-      <c r="HL40" s="16"/>
-      <c r="HM40" s="16"/>
-      <c r="HN40" s="16"/>
-      <c r="HO40" s="16"/>
-      <c r="HP40" s="16"/>
-      <c r="HQ40" s="16"/>
-      <c r="HR40" s="16"/>
-      <c r="HS40" s="16"/>
-      <c r="HT40" s="16"/>
-      <c r="HU40" s="16"/>
-      <c r="HV40" s="16"/>
-      <c r="HW40" s="16"/>
-      <c r="HX40" s="16"/>
-      <c r="HY40" s="16"/>
-      <c r="HZ40" s="16"/>
-      <c r="IA40" s="16"/>
-      <c r="IB40" s="16"/>
-      <c r="IC40" s="16"/>
-      <c r="ID40" s="16"/>
-      <c r="IE40" s="16"/>
-      <c r="IF40" s="16"/>
-      <c r="IG40" s="16"/>
-      <c r="IH40" s="16"/>
-      <c r="II40" s="16"/>
-      <c r="IJ40" s="16"/>
-      <c r="IK40" s="16"/>
-      <c r="IL40" s="16"/>
-      <c r="IM40" s="16"/>
-      <c r="IN40" s="16"/>
-      <c r="IO40" s="16"/>
-      <c r="IP40" s="16"/>
-      <c r="IQ40" s="16"/>
-      <c r="IR40" s="16"/>
-      <c r="IS40" s="16"/>
-      <c r="IT40" s="16"/>
-      <c r="IU40" s="16"/>
-      <c r="IV40" s="16"/>
-      <c r="IW40" s="16"/>
-      <c r="IX40" s="16"/>
-      <c r="IY40" s="16"/>
-      <c r="IZ40" s="16"/>
-      <c r="JA40" s="16"/>
-      <c r="JB40" s="16"/>
-      <c r="JC40" s="16"/>
+      <c r="GW40" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX40" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY40" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ40" s="14"/>
+      <c r="HA40" s="15"/>
+      <c r="HB40" s="15"/>
+      <c r="HC40" s="15"/>
+      <c r="HD40" s="15"/>
+      <c r="HE40" s="15"/>
+      <c r="HF40" s="15"/>
+      <c r="HG40" s="15"/>
+      <c r="HH40" s="15"/>
+      <c r="HI40" s="15"/>
+      <c r="HJ40" s="15"/>
+      <c r="HK40" s="15"/>
+      <c r="HL40" s="15"/>
+      <c r="HM40" s="15"/>
+      <c r="HN40" s="15"/>
+      <c r="HO40" s="15"/>
+      <c r="HP40" s="15"/>
+      <c r="HQ40" s="15"/>
+      <c r="HR40" s="15"/>
+      <c r="HS40" s="15"/>
+      <c r="HT40" s="15"/>
+      <c r="HU40" s="15"/>
+      <c r="HV40" s="15"/>
+      <c r="HW40" s="15"/>
+      <c r="HX40" s="15"/>
+      <c r="HY40" s="15"/>
+      <c r="HZ40" s="15"/>
+      <c r="IA40" s="15"/>
+      <c r="IB40" s="15"/>
+      <c r="IC40" s="15"/>
+      <c r="ID40" s="15"/>
+      <c r="IE40" s="15"/>
+      <c r="IF40" s="15"/>
+      <c r="IG40" s="15"/>
+      <c r="IH40" s="15"/>
+      <c r="II40" s="15"/>
+      <c r="IJ40" s="15"/>
+      <c r="IK40" s="15"/>
+      <c r="IL40" s="15"/>
+      <c r="IM40" s="15"/>
+      <c r="IN40" s="15"/>
+      <c r="IO40" s="15"/>
+      <c r="IP40" s="15"/>
+      <c r="IQ40" s="15"/>
+      <c r="IR40" s="15"/>
+      <c r="IS40" s="15"/>
+      <c r="IT40" s="15"/>
+      <c r="IU40" s="15"/>
+      <c r="IV40" s="15"/>
+      <c r="IW40" s="15"/>
+      <c r="IX40" s="15"/>
+      <c r="IY40" s="15"/>
+      <c r="IZ40" s="15"/>
+      <c r="JA40" s="15"/>
+      <c r="JB40" s="15"/>
+      <c r="JC40" s="15"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -33096,107 +33108,107 @@
       <c r="GJ41" s="0" t="n">
         <v>2379</v>
       </c>
-      <c r="GK41" s="14" t="n">
+      <c r="GK41" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="GL41" s="14" t="n">
+      <c r="GL41" s="13" t="n">
         <v>1.28</v>
       </c>
-      <c r="GM41" s="14" t="n">
+      <c r="GM41" s="13" t="n">
         <v>0.125</v>
       </c>
-      <c r="GN41" s="14" t="n">
+      <c r="GN41" s="13" t="n">
         <v>1.45</v>
       </c>
-      <c r="GO41" s="14" t="n">
+      <c r="GO41" s="13" t="n">
         <v>0.0847</v>
       </c>
-      <c r="GP41" s="14" t="n">
+      <c r="GP41" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GQ41" s="14" t="n">
+      <c r="GQ41" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="GR41" s="14" t="n">
+      <c r="GR41" s="13" t="n">
         <v>1.23</v>
       </c>
-      <c r="GS41" s="14" t="n">
+      <c r="GS41" s="13" t="n">
         <v>0.12</v>
       </c>
-      <c r="GT41" s="14" t="n">
+      <c r="GT41" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GU41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV41" s="14" t="n">
+      <c r="GU41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV41" s="13" t="n">
         <v>0.0681</v>
       </c>
-      <c r="GW41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ41" s="15"/>
-      <c r="HA41" s="16"/>
-      <c r="HB41" s="16"/>
-      <c r="HC41" s="16"/>
-      <c r="HD41" s="16"/>
-      <c r="HE41" s="16"/>
-      <c r="HF41" s="16"/>
-      <c r="HG41" s="16"/>
-      <c r="HH41" s="16"/>
-      <c r="HI41" s="16"/>
-      <c r="HJ41" s="16"/>
-      <c r="HK41" s="16"/>
-      <c r="HL41" s="16"/>
-      <c r="HM41" s="16"/>
-      <c r="HN41" s="16"/>
-      <c r="HO41" s="16"/>
-      <c r="HP41" s="16"/>
-      <c r="HQ41" s="16"/>
-      <c r="HR41" s="16"/>
-      <c r="HS41" s="16"/>
-      <c r="HT41" s="16"/>
-      <c r="HU41" s="16"/>
-      <c r="HV41" s="16"/>
-      <c r="HW41" s="16"/>
-      <c r="HX41" s="16"/>
-      <c r="HY41" s="16"/>
-      <c r="HZ41" s="16"/>
-      <c r="IA41" s="16"/>
-      <c r="IB41" s="16"/>
-      <c r="IC41" s="16"/>
-      <c r="ID41" s="16"/>
-      <c r="IE41" s="16"/>
-      <c r="IF41" s="16"/>
-      <c r="IG41" s="16"/>
-      <c r="IH41" s="16"/>
-      <c r="II41" s="16"/>
-      <c r="IJ41" s="16"/>
-      <c r="IK41" s="16"/>
-      <c r="IL41" s="16"/>
-      <c r="IM41" s="16"/>
-      <c r="IN41" s="16"/>
-      <c r="IO41" s="16"/>
-      <c r="IP41" s="16"/>
-      <c r="IQ41" s="16"/>
-      <c r="IR41" s="16"/>
-      <c r="IS41" s="16"/>
-      <c r="IT41" s="16"/>
-      <c r="IU41" s="16"/>
-      <c r="IV41" s="16"/>
-      <c r="IW41" s="16"/>
-      <c r="IX41" s="16"/>
-      <c r="IY41" s="16"/>
-      <c r="IZ41" s="16"/>
-      <c r="JA41" s="16"/>
-      <c r="JB41" s="16"/>
-      <c r="JC41" s="16"/>
+      <c r="GW41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ41" s="14"/>
+      <c r="HA41" s="15"/>
+      <c r="HB41" s="15"/>
+      <c r="HC41" s="15"/>
+      <c r="HD41" s="15"/>
+      <c r="HE41" s="15"/>
+      <c r="HF41" s="15"/>
+      <c r="HG41" s="15"/>
+      <c r="HH41" s="15"/>
+      <c r="HI41" s="15"/>
+      <c r="HJ41" s="15"/>
+      <c r="HK41" s="15"/>
+      <c r="HL41" s="15"/>
+      <c r="HM41" s="15"/>
+      <c r="HN41" s="15"/>
+      <c r="HO41" s="15"/>
+      <c r="HP41" s="15"/>
+      <c r="HQ41" s="15"/>
+      <c r="HR41" s="15"/>
+      <c r="HS41" s="15"/>
+      <c r="HT41" s="15"/>
+      <c r="HU41" s="15"/>
+      <c r="HV41" s="15"/>
+      <c r="HW41" s="15"/>
+      <c r="HX41" s="15"/>
+      <c r="HY41" s="15"/>
+      <c r="HZ41" s="15"/>
+      <c r="IA41" s="15"/>
+      <c r="IB41" s="15"/>
+      <c r="IC41" s="15"/>
+      <c r="ID41" s="15"/>
+      <c r="IE41" s="15"/>
+      <c r="IF41" s="15"/>
+      <c r="IG41" s="15"/>
+      <c r="IH41" s="15"/>
+      <c r="II41" s="15"/>
+      <c r="IJ41" s="15"/>
+      <c r="IK41" s="15"/>
+      <c r="IL41" s="15"/>
+      <c r="IM41" s="15"/>
+      <c r="IN41" s="15"/>
+      <c r="IO41" s="15"/>
+      <c r="IP41" s="15"/>
+      <c r="IQ41" s="15"/>
+      <c r="IR41" s="15"/>
+      <c r="IS41" s="15"/>
+      <c r="IT41" s="15"/>
+      <c r="IU41" s="15"/>
+      <c r="IV41" s="15"/>
+      <c r="IW41" s="15"/>
+      <c r="IX41" s="15"/>
+      <c r="IY41" s="15"/>
+      <c r="IZ41" s="15"/>
+      <c r="JA41" s="15"/>
+      <c r="JB41" s="15"/>
+      <c r="JC41" s="15"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
@@ -33772,107 +33784,107 @@
       <c r="GJ42" s="0" t="n">
         <v>1190</v>
       </c>
-      <c r="GK42" s="14" t="n">
+      <c r="GK42" s="13" t="n">
         <v>0.0989</v>
       </c>
-      <c r="GL42" s="14" t="n">
+      <c r="GL42" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GM42" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN42" s="14" t="n">
+      <c r="GM42" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN42" s="13" t="n">
         <v>0.0368</v>
       </c>
-      <c r="GO42" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP42" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ42" s="14" t="n">
+      <c r="GO42" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP42" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ42" s="13" t="n">
         <v>0.0668</v>
       </c>
-      <c r="GR42" s="14" t="n">
+      <c r="GR42" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GS42" s="14" t="n">
+      <c r="GS42" s="13" t="n">
         <v>0.518</v>
       </c>
-      <c r="GT42" s="14" t="n">
+      <c r="GT42" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GU42" s="14" t="n">
+      <c r="GU42" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GV42" s="14" t="n">
+      <c r="GV42" s="13" t="n">
         <v>0.143</v>
       </c>
-      <c r="GW42" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX42" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY42" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ42" s="15"/>
-      <c r="HA42" s="16"/>
-      <c r="HB42" s="16"/>
-      <c r="HC42" s="16"/>
-      <c r="HD42" s="16"/>
-      <c r="HE42" s="16"/>
-      <c r="HF42" s="16"/>
-      <c r="HG42" s="16"/>
-      <c r="HH42" s="16"/>
-      <c r="HI42" s="16"/>
-      <c r="HJ42" s="16"/>
-      <c r="HK42" s="16"/>
-      <c r="HL42" s="16"/>
-      <c r="HM42" s="16"/>
-      <c r="HN42" s="16"/>
-      <c r="HO42" s="16"/>
-      <c r="HP42" s="16"/>
-      <c r="HQ42" s="16"/>
-      <c r="HR42" s="16"/>
-      <c r="HS42" s="16"/>
-      <c r="HT42" s="16"/>
-      <c r="HU42" s="16"/>
-      <c r="HV42" s="16"/>
-      <c r="HW42" s="16"/>
-      <c r="HX42" s="16"/>
-      <c r="HY42" s="16"/>
-      <c r="HZ42" s="16"/>
-      <c r="IA42" s="16"/>
-      <c r="IB42" s="16"/>
-      <c r="IC42" s="16"/>
-      <c r="ID42" s="16"/>
-      <c r="IE42" s="16"/>
-      <c r="IF42" s="16"/>
-      <c r="IG42" s="16"/>
-      <c r="IH42" s="16"/>
-      <c r="II42" s="16"/>
-      <c r="IJ42" s="16"/>
-      <c r="IK42" s="16"/>
-      <c r="IL42" s="16"/>
-      <c r="IM42" s="16"/>
-      <c r="IN42" s="16"/>
-      <c r="IO42" s="16"/>
-      <c r="IP42" s="16"/>
-      <c r="IQ42" s="16"/>
-      <c r="IR42" s="16"/>
-      <c r="IS42" s="16"/>
-      <c r="IT42" s="16"/>
-      <c r="IU42" s="16"/>
-      <c r="IV42" s="16"/>
-      <c r="IW42" s="16"/>
-      <c r="IX42" s="16"/>
-      <c r="IY42" s="16"/>
-      <c r="IZ42" s="16"/>
-      <c r="JA42" s="16"/>
-      <c r="JB42" s="16"/>
-      <c r="JC42" s="16"/>
+      <c r="GW42" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX42" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY42" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ42" s="14"/>
+      <c r="HA42" s="15"/>
+      <c r="HB42" s="15"/>
+      <c r="HC42" s="15"/>
+      <c r="HD42" s="15"/>
+      <c r="HE42" s="15"/>
+      <c r="HF42" s="15"/>
+      <c r="HG42" s="15"/>
+      <c r="HH42" s="15"/>
+      <c r="HI42" s="15"/>
+      <c r="HJ42" s="15"/>
+      <c r="HK42" s="15"/>
+      <c r="HL42" s="15"/>
+      <c r="HM42" s="15"/>
+      <c r="HN42" s="15"/>
+      <c r="HO42" s="15"/>
+      <c r="HP42" s="15"/>
+      <c r="HQ42" s="15"/>
+      <c r="HR42" s="15"/>
+      <c r="HS42" s="15"/>
+      <c r="HT42" s="15"/>
+      <c r="HU42" s="15"/>
+      <c r="HV42" s="15"/>
+      <c r="HW42" s="15"/>
+      <c r="HX42" s="15"/>
+      <c r="HY42" s="15"/>
+      <c r="HZ42" s="15"/>
+      <c r="IA42" s="15"/>
+      <c r="IB42" s="15"/>
+      <c r="IC42" s="15"/>
+      <c r="ID42" s="15"/>
+      <c r="IE42" s="15"/>
+      <c r="IF42" s="15"/>
+      <c r="IG42" s="15"/>
+      <c r="IH42" s="15"/>
+      <c r="II42" s="15"/>
+      <c r="IJ42" s="15"/>
+      <c r="IK42" s="15"/>
+      <c r="IL42" s="15"/>
+      <c r="IM42" s="15"/>
+      <c r="IN42" s="15"/>
+      <c r="IO42" s="15"/>
+      <c r="IP42" s="15"/>
+      <c r="IQ42" s="15"/>
+      <c r="IR42" s="15"/>
+      <c r="IS42" s="15"/>
+      <c r="IT42" s="15"/>
+      <c r="IU42" s="15"/>
+      <c r="IV42" s="15"/>
+      <c r="IW42" s="15"/>
+      <c r="IX42" s="15"/>
+      <c r="IY42" s="15"/>
+      <c r="IZ42" s="15"/>
+      <c r="JA42" s="15"/>
+      <c r="JB42" s="15"/>
+      <c r="JC42" s="15"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
@@ -34448,107 +34460,107 @@
       <c r="GJ43" s="0" t="n">
         <v>1301</v>
       </c>
-      <c r="GK43" s="14" t="n">
+      <c r="GK43" s="13" t="n">
         <v>11.8</v>
       </c>
-      <c r="GL43" s="14" t="n">
+      <c r="GL43" s="13" t="n">
         <v>1.75</v>
       </c>
-      <c r="GM43" s="14" t="n">
+      <c r="GM43" s="13" t="n">
         <v>0.257</v>
       </c>
-      <c r="GN43" s="14" t="n">
+      <c r="GN43" s="13" t="n">
         <v>2.93</v>
       </c>
-      <c r="GO43" s="14" t="n">
+      <c r="GO43" s="13" t="n">
         <v>0.0919</v>
       </c>
-      <c r="GP43" s="14" t="n">
+      <c r="GP43" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GQ43" s="14" t="n">
+      <c r="GQ43" s="13" t="n">
         <v>1.45</v>
       </c>
-      <c r="GR43" s="14" t="n">
+      <c r="GR43" s="13" t="n">
         <v>0.162</v>
       </c>
-      <c r="GS43" s="14" t="n">
+      <c r="GS43" s="13" t="n">
         <v>0.656</v>
       </c>
-      <c r="GT43" s="14" t="n">
+      <c r="GT43" s="13" t="n">
         <v>0.0647</v>
       </c>
-      <c r="GU43" s="14" t="n">
+      <c r="GU43" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GV43" s="14" t="n">
+      <c r="GV43" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GW43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ43" s="15"/>
-      <c r="HA43" s="16"/>
-      <c r="HB43" s="16"/>
-      <c r="HC43" s="16"/>
-      <c r="HD43" s="16"/>
-      <c r="HE43" s="16"/>
-      <c r="HF43" s="16"/>
-      <c r="HG43" s="16"/>
-      <c r="HH43" s="16"/>
-      <c r="HI43" s="16"/>
-      <c r="HJ43" s="16"/>
-      <c r="HK43" s="16"/>
-      <c r="HL43" s="16"/>
-      <c r="HM43" s="16"/>
-      <c r="HN43" s="16"/>
-      <c r="HO43" s="16"/>
-      <c r="HP43" s="16"/>
-      <c r="HQ43" s="16"/>
-      <c r="HR43" s="16"/>
-      <c r="HS43" s="16"/>
-      <c r="HT43" s="16"/>
-      <c r="HU43" s="16"/>
-      <c r="HV43" s="16"/>
-      <c r="HW43" s="16"/>
-      <c r="HX43" s="16"/>
-      <c r="HY43" s="16"/>
-      <c r="HZ43" s="16"/>
-      <c r="IA43" s="16"/>
-      <c r="IB43" s="16"/>
-      <c r="IC43" s="16"/>
-      <c r="ID43" s="16"/>
-      <c r="IE43" s="16"/>
-      <c r="IF43" s="16"/>
-      <c r="IG43" s="16"/>
-      <c r="IH43" s="16"/>
-      <c r="II43" s="16"/>
-      <c r="IJ43" s="16"/>
-      <c r="IK43" s="16"/>
-      <c r="IL43" s="16"/>
-      <c r="IM43" s="16"/>
-      <c r="IN43" s="16"/>
-      <c r="IO43" s="16"/>
-      <c r="IP43" s="16"/>
-      <c r="IQ43" s="16"/>
-      <c r="IR43" s="16"/>
-      <c r="IS43" s="16"/>
-      <c r="IT43" s="16"/>
-      <c r="IU43" s="16"/>
-      <c r="IV43" s="16"/>
-      <c r="IW43" s="16"/>
-      <c r="IX43" s="16"/>
-      <c r="IY43" s="16"/>
-      <c r="IZ43" s="16"/>
-      <c r="JA43" s="16"/>
-      <c r="JB43" s="16"/>
-      <c r="JC43" s="16"/>
+      <c r="GW43" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX43" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY43" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ43" s="14"/>
+      <c r="HA43" s="15"/>
+      <c r="HB43" s="15"/>
+      <c r="HC43" s="15"/>
+      <c r="HD43" s="15"/>
+      <c r="HE43" s="15"/>
+      <c r="HF43" s="15"/>
+      <c r="HG43" s="15"/>
+      <c r="HH43" s="15"/>
+      <c r="HI43" s="15"/>
+      <c r="HJ43" s="15"/>
+      <c r="HK43" s="15"/>
+      <c r="HL43" s="15"/>
+      <c r="HM43" s="15"/>
+      <c r="HN43" s="15"/>
+      <c r="HO43" s="15"/>
+      <c r="HP43" s="15"/>
+      <c r="HQ43" s="15"/>
+      <c r="HR43" s="15"/>
+      <c r="HS43" s="15"/>
+      <c r="HT43" s="15"/>
+      <c r="HU43" s="15"/>
+      <c r="HV43" s="15"/>
+      <c r="HW43" s="15"/>
+      <c r="HX43" s="15"/>
+      <c r="HY43" s="15"/>
+      <c r="HZ43" s="15"/>
+      <c r="IA43" s="15"/>
+      <c r="IB43" s="15"/>
+      <c r="IC43" s="15"/>
+      <c r="ID43" s="15"/>
+      <c r="IE43" s="15"/>
+      <c r="IF43" s="15"/>
+      <c r="IG43" s="15"/>
+      <c r="IH43" s="15"/>
+      <c r="II43" s="15"/>
+      <c r="IJ43" s="15"/>
+      <c r="IK43" s="15"/>
+      <c r="IL43" s="15"/>
+      <c r="IM43" s="15"/>
+      <c r="IN43" s="15"/>
+      <c r="IO43" s="15"/>
+      <c r="IP43" s="15"/>
+      <c r="IQ43" s="15"/>
+      <c r="IR43" s="15"/>
+      <c r="IS43" s="15"/>
+      <c r="IT43" s="15"/>
+      <c r="IU43" s="15"/>
+      <c r="IV43" s="15"/>
+      <c r="IW43" s="15"/>
+      <c r="IX43" s="15"/>
+      <c r="IY43" s="15"/>
+      <c r="IZ43" s="15"/>
+      <c r="JA43" s="15"/>
+      <c r="JB43" s="15"/>
+      <c r="JC43" s="15"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
@@ -35124,107 +35136,107 @@
       <c r="GJ44" s="0" t="n">
         <v>1248</v>
       </c>
-      <c r="GK44" s="14" t="n">
+      <c r="GK44" s="13" t="n">
         <v>16.1</v>
       </c>
-      <c r="GL44" s="14" t="n">
+      <c r="GL44" s="13" t="n">
         <v>0.636</v>
       </c>
-      <c r="GM44" s="14" t="n">
+      <c r="GM44" s="13" t="n">
         <v>0.232</v>
       </c>
-      <c r="GN44" s="14" t="n">
+      <c r="GN44" s="13" t="n">
         <v>6.8</v>
       </c>
-      <c r="GO44" s="14" t="n">
+      <c r="GO44" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GP44" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ44" s="14" t="n">
+      <c r="GP44" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ44" s="13" t="n">
         <v>1.21</v>
       </c>
-      <c r="GR44" s="14" t="n">
+      <c r="GR44" s="13" t="n">
         <v>0.0574</v>
       </c>
-      <c r="GS44" s="14" t="n">
+      <c r="GS44" s="13" t="n">
         <v>0.689</v>
       </c>
-      <c r="GT44" s="14" t="n">
+      <c r="GT44" s="13" t="n">
         <v>0.105</v>
       </c>
-      <c r="GU44" s="14" t="n">
+      <c r="GU44" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GV44" s="14" t="n">
+      <c r="GV44" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GW44" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX44" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY44" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ44" s="15"/>
-      <c r="HA44" s="16"/>
-      <c r="HB44" s="16"/>
-      <c r="HC44" s="16"/>
-      <c r="HD44" s="16"/>
-      <c r="HE44" s="16"/>
-      <c r="HF44" s="16"/>
-      <c r="HG44" s="16"/>
-      <c r="HH44" s="16"/>
-      <c r="HI44" s="16"/>
-      <c r="HJ44" s="16"/>
-      <c r="HK44" s="16"/>
-      <c r="HL44" s="16"/>
-      <c r="HM44" s="16"/>
-      <c r="HN44" s="16"/>
-      <c r="HO44" s="16"/>
-      <c r="HP44" s="16"/>
-      <c r="HQ44" s="16"/>
-      <c r="HR44" s="16"/>
-      <c r="HS44" s="16"/>
-      <c r="HT44" s="16"/>
-      <c r="HU44" s="16"/>
-      <c r="HV44" s="16"/>
-      <c r="HW44" s="16"/>
-      <c r="HX44" s="16"/>
-      <c r="HY44" s="16"/>
-      <c r="HZ44" s="16"/>
-      <c r="IA44" s="16"/>
-      <c r="IB44" s="16"/>
-      <c r="IC44" s="16"/>
-      <c r="ID44" s="16"/>
-      <c r="IE44" s="16"/>
-      <c r="IF44" s="16"/>
-      <c r="IG44" s="16"/>
-      <c r="IH44" s="16"/>
-      <c r="II44" s="16"/>
-      <c r="IJ44" s="16"/>
-      <c r="IK44" s="16"/>
-      <c r="IL44" s="16"/>
-      <c r="IM44" s="16"/>
-      <c r="IN44" s="16"/>
-      <c r="IO44" s="16"/>
-      <c r="IP44" s="16"/>
-      <c r="IQ44" s="16"/>
-      <c r="IR44" s="16"/>
-      <c r="IS44" s="16"/>
-      <c r="IT44" s="16"/>
-      <c r="IU44" s="16"/>
-      <c r="IV44" s="16"/>
-      <c r="IW44" s="16"/>
-      <c r="IX44" s="16"/>
-      <c r="IY44" s="16"/>
-      <c r="IZ44" s="16"/>
-      <c r="JA44" s="16"/>
-      <c r="JB44" s="16"/>
-      <c r="JC44" s="16"/>
+      <c r="GW44" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX44" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY44" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ44" s="14"/>
+      <c r="HA44" s="15"/>
+      <c r="HB44" s="15"/>
+      <c r="HC44" s="15"/>
+      <c r="HD44" s="15"/>
+      <c r="HE44" s="15"/>
+      <c r="HF44" s="15"/>
+      <c r="HG44" s="15"/>
+      <c r="HH44" s="15"/>
+      <c r="HI44" s="15"/>
+      <c r="HJ44" s="15"/>
+      <c r="HK44" s="15"/>
+      <c r="HL44" s="15"/>
+      <c r="HM44" s="15"/>
+      <c r="HN44" s="15"/>
+      <c r="HO44" s="15"/>
+      <c r="HP44" s="15"/>
+      <c r="HQ44" s="15"/>
+      <c r="HR44" s="15"/>
+      <c r="HS44" s="15"/>
+      <c r="HT44" s="15"/>
+      <c r="HU44" s="15"/>
+      <c r="HV44" s="15"/>
+      <c r="HW44" s="15"/>
+      <c r="HX44" s="15"/>
+      <c r="HY44" s="15"/>
+      <c r="HZ44" s="15"/>
+      <c r="IA44" s="15"/>
+      <c r="IB44" s="15"/>
+      <c r="IC44" s="15"/>
+      <c r="ID44" s="15"/>
+      <c r="IE44" s="15"/>
+      <c r="IF44" s="15"/>
+      <c r="IG44" s="15"/>
+      <c r="IH44" s="15"/>
+      <c r="II44" s="15"/>
+      <c r="IJ44" s="15"/>
+      <c r="IK44" s="15"/>
+      <c r="IL44" s="15"/>
+      <c r="IM44" s="15"/>
+      <c r="IN44" s="15"/>
+      <c r="IO44" s="15"/>
+      <c r="IP44" s="15"/>
+      <c r="IQ44" s="15"/>
+      <c r="IR44" s="15"/>
+      <c r="IS44" s="15"/>
+      <c r="IT44" s="15"/>
+      <c r="IU44" s="15"/>
+      <c r="IV44" s="15"/>
+      <c r="IW44" s="15"/>
+      <c r="IX44" s="15"/>
+      <c r="IY44" s="15"/>
+      <c r="IZ44" s="15"/>
+      <c r="JA44" s="15"/>
+      <c r="JB44" s="15"/>
+      <c r="JC44" s="15"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
@@ -35800,107 +35812,107 @@
       <c r="GJ45" s="0" t="n">
         <v>911</v>
       </c>
-      <c r="GK45" s="14" t="n">
+      <c r="GK45" s="13" t="n">
         <v>9.77</v>
       </c>
-      <c r="GL45" s="14" t="n">
+      <c r="GL45" s="13" t="n">
         <v>0.839</v>
       </c>
-      <c r="GM45" s="14" t="n">
+      <c r="GM45" s="13" t="n">
         <v>0.439</v>
       </c>
-      <c r="GN45" s="14" t="n">
+      <c r="GN45" s="13" t="n">
         <v>5.32</v>
       </c>
-      <c r="GO45" s="14" t="n">
+      <c r="GO45" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GP45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ45" s="14" t="n">
+      <c r="GP45" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ45" s="13" t="n">
         <v>1.56</v>
       </c>
-      <c r="GR45" s="14" t="n">
+      <c r="GR45" s="13" t="n">
         <v>0.149</v>
       </c>
-      <c r="GS45" s="14" t="n">
+      <c r="GS45" s="13" t="n">
         <v>0.461</v>
       </c>
-      <c r="GT45" s="14" t="n">
+      <c r="GT45" s="13" t="n">
         <v>0.11</v>
       </c>
-      <c r="GU45" s="14" t="n">
+      <c r="GU45" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GV45" s="14" t="n">
+      <c r="GV45" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GW45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ45" s="15"/>
-      <c r="HA45" s="16"/>
-      <c r="HB45" s="16"/>
-      <c r="HC45" s="16"/>
-      <c r="HD45" s="16"/>
-      <c r="HE45" s="16"/>
-      <c r="HF45" s="16"/>
-      <c r="HG45" s="16"/>
-      <c r="HH45" s="16"/>
-      <c r="HI45" s="16"/>
-      <c r="HJ45" s="16"/>
-      <c r="HK45" s="16"/>
-      <c r="HL45" s="16"/>
-      <c r="HM45" s="16"/>
-      <c r="HN45" s="16"/>
-      <c r="HO45" s="16"/>
-      <c r="HP45" s="16"/>
-      <c r="HQ45" s="16"/>
-      <c r="HR45" s="16"/>
-      <c r="HS45" s="16"/>
-      <c r="HT45" s="16"/>
-      <c r="HU45" s="16"/>
-      <c r="HV45" s="16"/>
-      <c r="HW45" s="16"/>
-      <c r="HX45" s="16"/>
-      <c r="HY45" s="16"/>
-      <c r="HZ45" s="16"/>
-      <c r="IA45" s="16"/>
-      <c r="IB45" s="16"/>
-      <c r="IC45" s="16"/>
-      <c r="ID45" s="16"/>
-      <c r="IE45" s="16"/>
-      <c r="IF45" s="16"/>
-      <c r="IG45" s="16"/>
-      <c r="IH45" s="16"/>
-      <c r="II45" s="16"/>
-      <c r="IJ45" s="16"/>
-      <c r="IK45" s="16"/>
-      <c r="IL45" s="16"/>
-      <c r="IM45" s="16"/>
-      <c r="IN45" s="16"/>
-      <c r="IO45" s="16"/>
-      <c r="IP45" s="16"/>
-      <c r="IQ45" s="16"/>
-      <c r="IR45" s="16"/>
-      <c r="IS45" s="16"/>
-      <c r="IT45" s="16"/>
-      <c r="IU45" s="16"/>
-      <c r="IV45" s="16"/>
-      <c r="IW45" s="16"/>
-      <c r="IX45" s="16"/>
-      <c r="IY45" s="16"/>
-      <c r="IZ45" s="16"/>
-      <c r="JA45" s="16"/>
-      <c r="JB45" s="16"/>
-      <c r="JC45" s="16"/>
+      <c r="GW45" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX45" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY45" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ45" s="14"/>
+      <c r="HA45" s="15"/>
+      <c r="HB45" s="15"/>
+      <c r="HC45" s="15"/>
+      <c r="HD45" s="15"/>
+      <c r="HE45" s="15"/>
+      <c r="HF45" s="15"/>
+      <c r="HG45" s="15"/>
+      <c r="HH45" s="15"/>
+      <c r="HI45" s="15"/>
+      <c r="HJ45" s="15"/>
+      <c r="HK45" s="15"/>
+      <c r="HL45" s="15"/>
+      <c r="HM45" s="15"/>
+      <c r="HN45" s="15"/>
+      <c r="HO45" s="15"/>
+      <c r="HP45" s="15"/>
+      <c r="HQ45" s="15"/>
+      <c r="HR45" s="15"/>
+      <c r="HS45" s="15"/>
+      <c r="HT45" s="15"/>
+      <c r="HU45" s="15"/>
+      <c r="HV45" s="15"/>
+      <c r="HW45" s="15"/>
+      <c r="HX45" s="15"/>
+      <c r="HY45" s="15"/>
+      <c r="HZ45" s="15"/>
+      <c r="IA45" s="15"/>
+      <c r="IB45" s="15"/>
+      <c r="IC45" s="15"/>
+      <c r="ID45" s="15"/>
+      <c r="IE45" s="15"/>
+      <c r="IF45" s="15"/>
+      <c r="IG45" s="15"/>
+      <c r="IH45" s="15"/>
+      <c r="II45" s="15"/>
+      <c r="IJ45" s="15"/>
+      <c r="IK45" s="15"/>
+      <c r="IL45" s="15"/>
+      <c r="IM45" s="15"/>
+      <c r="IN45" s="15"/>
+      <c r="IO45" s="15"/>
+      <c r="IP45" s="15"/>
+      <c r="IQ45" s="15"/>
+      <c r="IR45" s="15"/>
+      <c r="IS45" s="15"/>
+      <c r="IT45" s="15"/>
+      <c r="IU45" s="15"/>
+      <c r="IV45" s="15"/>
+      <c r="IW45" s="15"/>
+      <c r="IX45" s="15"/>
+      <c r="IY45" s="15"/>
+      <c r="IZ45" s="15"/>
+      <c r="JA45" s="15"/>
+      <c r="JB45" s="15"/>
+      <c r="JC45" s="15"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
@@ -36476,107 +36488,107 @@
       <c r="GJ46" s="0" t="n">
         <v>3371</v>
       </c>
-      <c r="GK46" s="14" t="n">
+      <c r="GK46" s="13" t="n">
         <v>6.85</v>
       </c>
-      <c r="GL46" s="14" t="n">
+      <c r="GL46" s="13" t="n">
         <v>0.262</v>
       </c>
-      <c r="GM46" s="14" t="n">
+      <c r="GM46" s="13" t="n">
         <v>0.126</v>
       </c>
-      <c r="GN46" s="14" t="n">
+      <c r="GN46" s="13" t="n">
         <v>6.28</v>
       </c>
-      <c r="GO46" s="14" t="n">
+      <c r="GO46" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GP46" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ46" s="14" t="n">
+      <c r="GP46" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ46" s="13" t="n">
         <v>0.525</v>
       </c>
-      <c r="GR46" s="14" t="n">
+      <c r="GR46" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GS46" s="14" t="n">
+      <c r="GS46" s="13" t="n">
         <v>0.0606</v>
       </c>
-      <c r="GT46" s="14" t="n">
+      <c r="GT46" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GU46" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV46" s="14" t="n">
+      <c r="GU46" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV46" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GW46" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX46" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY46" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ46" s="15"/>
-      <c r="HA46" s="16"/>
-      <c r="HB46" s="16"/>
-      <c r="HC46" s="16"/>
-      <c r="HD46" s="16"/>
-      <c r="HE46" s="16"/>
-      <c r="HF46" s="16"/>
-      <c r="HG46" s="16"/>
-      <c r="HH46" s="16"/>
-      <c r="HI46" s="16"/>
-      <c r="HJ46" s="16"/>
-      <c r="HK46" s="16"/>
-      <c r="HL46" s="16"/>
-      <c r="HM46" s="16"/>
-      <c r="HN46" s="16"/>
-      <c r="HO46" s="16"/>
-      <c r="HP46" s="16"/>
-      <c r="HQ46" s="16"/>
-      <c r="HR46" s="16"/>
-      <c r="HS46" s="16"/>
-      <c r="HT46" s="16"/>
-      <c r="HU46" s="16"/>
-      <c r="HV46" s="16"/>
-      <c r="HW46" s="16"/>
-      <c r="HX46" s="16"/>
-      <c r="HY46" s="16"/>
-      <c r="HZ46" s="16"/>
-      <c r="IA46" s="16"/>
-      <c r="IB46" s="16"/>
-      <c r="IC46" s="16"/>
-      <c r="ID46" s="16"/>
-      <c r="IE46" s="16"/>
-      <c r="IF46" s="16"/>
-      <c r="IG46" s="16"/>
-      <c r="IH46" s="16"/>
-      <c r="II46" s="16"/>
-      <c r="IJ46" s="16"/>
-      <c r="IK46" s="16"/>
-      <c r="IL46" s="16"/>
-      <c r="IM46" s="16"/>
-      <c r="IN46" s="16"/>
-      <c r="IO46" s="16"/>
-      <c r="IP46" s="16"/>
-      <c r="IQ46" s="16"/>
-      <c r="IR46" s="16"/>
-      <c r="IS46" s="16"/>
-      <c r="IT46" s="16"/>
-      <c r="IU46" s="16"/>
-      <c r="IV46" s="16"/>
-      <c r="IW46" s="16"/>
-      <c r="IX46" s="16"/>
-      <c r="IY46" s="16"/>
-      <c r="IZ46" s="16"/>
-      <c r="JA46" s="16"/>
-      <c r="JB46" s="16"/>
-      <c r="JC46" s="16"/>
+      <c r="GW46" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX46" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY46" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ46" s="14"/>
+      <c r="HA46" s="15"/>
+      <c r="HB46" s="15"/>
+      <c r="HC46" s="15"/>
+      <c r="HD46" s="15"/>
+      <c r="HE46" s="15"/>
+      <c r="HF46" s="15"/>
+      <c r="HG46" s="15"/>
+      <c r="HH46" s="15"/>
+      <c r="HI46" s="15"/>
+      <c r="HJ46" s="15"/>
+      <c r="HK46" s="15"/>
+      <c r="HL46" s="15"/>
+      <c r="HM46" s="15"/>
+      <c r="HN46" s="15"/>
+      <c r="HO46" s="15"/>
+      <c r="HP46" s="15"/>
+      <c r="HQ46" s="15"/>
+      <c r="HR46" s="15"/>
+      <c r="HS46" s="15"/>
+      <c r="HT46" s="15"/>
+      <c r="HU46" s="15"/>
+      <c r="HV46" s="15"/>
+      <c r="HW46" s="15"/>
+      <c r="HX46" s="15"/>
+      <c r="HY46" s="15"/>
+      <c r="HZ46" s="15"/>
+      <c r="IA46" s="15"/>
+      <c r="IB46" s="15"/>
+      <c r="IC46" s="15"/>
+      <c r="ID46" s="15"/>
+      <c r="IE46" s="15"/>
+      <c r="IF46" s="15"/>
+      <c r="IG46" s="15"/>
+      <c r="IH46" s="15"/>
+      <c r="II46" s="15"/>
+      <c r="IJ46" s="15"/>
+      <c r="IK46" s="15"/>
+      <c r="IL46" s="15"/>
+      <c r="IM46" s="15"/>
+      <c r="IN46" s="15"/>
+      <c r="IO46" s="15"/>
+      <c r="IP46" s="15"/>
+      <c r="IQ46" s="15"/>
+      <c r="IR46" s="15"/>
+      <c r="IS46" s="15"/>
+      <c r="IT46" s="15"/>
+      <c r="IU46" s="15"/>
+      <c r="IV46" s="15"/>
+      <c r="IW46" s="15"/>
+      <c r="IX46" s="15"/>
+      <c r="IY46" s="15"/>
+      <c r="IZ46" s="15"/>
+      <c r="JA46" s="15"/>
+      <c r="JB46" s="15"/>
+      <c r="JC46" s="15"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
@@ -37152,107 +37164,107 @@
       <c r="GJ47" s="0" t="n">
         <v>3812</v>
       </c>
-      <c r="GK47" s="14" t="n">
+      <c r="GK47" s="13" t="n">
         <v>6.65</v>
       </c>
-      <c r="GL47" s="14" t="n">
+      <c r="GL47" s="13" t="n">
         <v>0.713</v>
       </c>
-      <c r="GM47" s="14" t="n">
+      <c r="GM47" s="13" t="n">
         <v>0.584</v>
       </c>
-      <c r="GN47" s="14" t="n">
+      <c r="GN47" s="13" t="n">
         <v>9.56</v>
       </c>
-      <c r="GO47" s="14" t="n">
+      <c r="GO47" s="13" t="n">
         <v>0.0644</v>
       </c>
-      <c r="GP47" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ47" s="14" t="n">
+      <c r="GP47" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ47" s="13" t="n">
         <v>0.756</v>
       </c>
-      <c r="GR47" s="14" t="n">
+      <c r="GR47" s="13" t="n">
         <v>0.085</v>
       </c>
-      <c r="GS47" s="14" t="n">
+      <c r="GS47" s="13" t="n">
         <v>0.0518</v>
       </c>
-      <c r="GT47" s="14" t="n">
+      <c r="GT47" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GU47" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV47" s="14" t="n">
+      <c r="GU47" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV47" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GW47" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX47" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY47" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ47" s="15"/>
-      <c r="HA47" s="16"/>
-      <c r="HB47" s="16"/>
-      <c r="HC47" s="16"/>
-      <c r="HD47" s="16"/>
-      <c r="HE47" s="16"/>
-      <c r="HF47" s="16"/>
-      <c r="HG47" s="16"/>
-      <c r="HH47" s="16"/>
-      <c r="HI47" s="16"/>
-      <c r="HJ47" s="16"/>
-      <c r="HK47" s="16"/>
-      <c r="HL47" s="16"/>
-      <c r="HM47" s="16"/>
-      <c r="HN47" s="16"/>
-      <c r="HO47" s="16"/>
-      <c r="HP47" s="16"/>
-      <c r="HQ47" s="16"/>
-      <c r="HR47" s="16"/>
-      <c r="HS47" s="16"/>
-      <c r="HT47" s="16"/>
-      <c r="HU47" s="16"/>
-      <c r="HV47" s="16"/>
-      <c r="HW47" s="16"/>
-      <c r="HX47" s="16"/>
-      <c r="HY47" s="16"/>
-      <c r="HZ47" s="16"/>
-      <c r="IA47" s="16"/>
-      <c r="IB47" s="16"/>
-      <c r="IC47" s="16"/>
-      <c r="ID47" s="16"/>
-      <c r="IE47" s="16"/>
-      <c r="IF47" s="16"/>
-      <c r="IG47" s="16"/>
-      <c r="IH47" s="16"/>
-      <c r="II47" s="16"/>
-      <c r="IJ47" s="16"/>
-      <c r="IK47" s="16"/>
-      <c r="IL47" s="16"/>
-      <c r="IM47" s="16"/>
-      <c r="IN47" s="16"/>
-      <c r="IO47" s="16"/>
-      <c r="IP47" s="16"/>
-      <c r="IQ47" s="16"/>
-      <c r="IR47" s="16"/>
-      <c r="IS47" s="16"/>
-      <c r="IT47" s="16"/>
-      <c r="IU47" s="16"/>
-      <c r="IV47" s="16"/>
-      <c r="IW47" s="16"/>
-      <c r="IX47" s="16"/>
-      <c r="IY47" s="16"/>
-      <c r="IZ47" s="16"/>
-      <c r="JA47" s="16"/>
-      <c r="JB47" s="16"/>
-      <c r="JC47" s="16"/>
+      <c r="GW47" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX47" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY47" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ47" s="14"/>
+      <c r="HA47" s="15"/>
+      <c r="HB47" s="15"/>
+      <c r="HC47" s="15"/>
+      <c r="HD47" s="15"/>
+      <c r="HE47" s="15"/>
+      <c r="HF47" s="15"/>
+      <c r="HG47" s="15"/>
+      <c r="HH47" s="15"/>
+      <c r="HI47" s="15"/>
+      <c r="HJ47" s="15"/>
+      <c r="HK47" s="15"/>
+      <c r="HL47" s="15"/>
+      <c r="HM47" s="15"/>
+      <c r="HN47" s="15"/>
+      <c r="HO47" s="15"/>
+      <c r="HP47" s="15"/>
+      <c r="HQ47" s="15"/>
+      <c r="HR47" s="15"/>
+      <c r="HS47" s="15"/>
+      <c r="HT47" s="15"/>
+      <c r="HU47" s="15"/>
+      <c r="HV47" s="15"/>
+      <c r="HW47" s="15"/>
+      <c r="HX47" s="15"/>
+      <c r="HY47" s="15"/>
+      <c r="HZ47" s="15"/>
+      <c r="IA47" s="15"/>
+      <c r="IB47" s="15"/>
+      <c r="IC47" s="15"/>
+      <c r="ID47" s="15"/>
+      <c r="IE47" s="15"/>
+      <c r="IF47" s="15"/>
+      <c r="IG47" s="15"/>
+      <c r="IH47" s="15"/>
+      <c r="II47" s="15"/>
+      <c r="IJ47" s="15"/>
+      <c r="IK47" s="15"/>
+      <c r="IL47" s="15"/>
+      <c r="IM47" s="15"/>
+      <c r="IN47" s="15"/>
+      <c r="IO47" s="15"/>
+      <c r="IP47" s="15"/>
+      <c r="IQ47" s="15"/>
+      <c r="IR47" s="15"/>
+      <c r="IS47" s="15"/>
+      <c r="IT47" s="15"/>
+      <c r="IU47" s="15"/>
+      <c r="IV47" s="15"/>
+      <c r="IW47" s="15"/>
+      <c r="IX47" s="15"/>
+      <c r="IY47" s="15"/>
+      <c r="IZ47" s="15"/>
+      <c r="JA47" s="15"/>
+      <c r="JB47" s="15"/>
+      <c r="JC47" s="15"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
@@ -37831,107 +37843,107 @@
       <c r="GJ48" s="0" t="n">
         <v>3816</v>
       </c>
-      <c r="GK48" s="14" t="n">
+      <c r="GK48" s="13" t="n">
         <v>16.4</v>
       </c>
-      <c r="GL48" s="14" t="n">
+      <c r="GL48" s="13" t="n">
         <v>2.41</v>
       </c>
-      <c r="GM48" s="14" t="n">
+      <c r="GM48" s="13" t="n">
         <v>0.742</v>
       </c>
-      <c r="GN48" s="14" t="n">
+      <c r="GN48" s="13" t="n">
         <v>5.36</v>
       </c>
-      <c r="GO48" s="14" t="n">
+      <c r="GO48" s="13" t="n">
         <v>0.0607</v>
       </c>
-      <c r="GP48" s="14" t="n">
+      <c r="GP48" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GQ48" s="14" t="n">
+      <c r="GQ48" s="13" t="n">
         <v>1.49</v>
       </c>
-      <c r="GR48" s="14" t="n">
+      <c r="GR48" s="13" t="n">
         <v>0.246</v>
       </c>
-      <c r="GS48" s="14" t="n">
+      <c r="GS48" s="13" t="n">
         <v>1.25</v>
       </c>
-      <c r="GT48" s="14" t="n">
+      <c r="GT48" s="13" t="n">
         <v>0.114</v>
       </c>
-      <c r="GU48" s="14" t="n">
+      <c r="GU48" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GV48" s="14" t="n">
+      <c r="GV48" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GW48" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX48" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY48" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ48" s="15"/>
-      <c r="HA48" s="16"/>
-      <c r="HB48" s="16"/>
-      <c r="HC48" s="16"/>
-      <c r="HD48" s="16"/>
-      <c r="HE48" s="16"/>
-      <c r="HF48" s="16"/>
-      <c r="HG48" s="16"/>
-      <c r="HH48" s="16"/>
-      <c r="HI48" s="16"/>
-      <c r="HJ48" s="16"/>
-      <c r="HK48" s="16"/>
-      <c r="HL48" s="16"/>
-      <c r="HM48" s="16"/>
-      <c r="HN48" s="16"/>
-      <c r="HO48" s="16"/>
-      <c r="HP48" s="16"/>
-      <c r="HQ48" s="16"/>
-      <c r="HR48" s="16"/>
-      <c r="HS48" s="16"/>
-      <c r="HT48" s="16"/>
-      <c r="HU48" s="16"/>
-      <c r="HV48" s="16"/>
-      <c r="HW48" s="16"/>
-      <c r="HX48" s="16"/>
-      <c r="HY48" s="16"/>
-      <c r="HZ48" s="16"/>
-      <c r="IA48" s="16"/>
-      <c r="IB48" s="16"/>
-      <c r="IC48" s="16"/>
-      <c r="ID48" s="16"/>
-      <c r="IE48" s="16"/>
-      <c r="IF48" s="16"/>
-      <c r="IG48" s="16"/>
-      <c r="IH48" s="16"/>
-      <c r="II48" s="16"/>
-      <c r="IJ48" s="16"/>
-      <c r="IK48" s="16"/>
-      <c r="IL48" s="16"/>
-      <c r="IM48" s="16"/>
-      <c r="IN48" s="16"/>
-      <c r="IO48" s="16"/>
-      <c r="IP48" s="16"/>
-      <c r="IQ48" s="16"/>
-      <c r="IR48" s="16"/>
-      <c r="IS48" s="16"/>
-      <c r="IT48" s="16"/>
-      <c r="IU48" s="16"/>
-      <c r="IV48" s="16"/>
-      <c r="IW48" s="16"/>
-      <c r="IX48" s="16"/>
-      <c r="IY48" s="16"/>
-      <c r="IZ48" s="16"/>
-      <c r="JA48" s="16"/>
-      <c r="JB48" s="16"/>
-      <c r="JC48" s="16"/>
+      <c r="GW48" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX48" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY48" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ48" s="14"/>
+      <c r="HA48" s="15"/>
+      <c r="HB48" s="15"/>
+      <c r="HC48" s="15"/>
+      <c r="HD48" s="15"/>
+      <c r="HE48" s="15"/>
+      <c r="HF48" s="15"/>
+      <c r="HG48" s="15"/>
+      <c r="HH48" s="15"/>
+      <c r="HI48" s="15"/>
+      <c r="HJ48" s="15"/>
+      <c r="HK48" s="15"/>
+      <c r="HL48" s="15"/>
+      <c r="HM48" s="15"/>
+      <c r="HN48" s="15"/>
+      <c r="HO48" s="15"/>
+      <c r="HP48" s="15"/>
+      <c r="HQ48" s="15"/>
+      <c r="HR48" s="15"/>
+      <c r="HS48" s="15"/>
+      <c r="HT48" s="15"/>
+      <c r="HU48" s="15"/>
+      <c r="HV48" s="15"/>
+      <c r="HW48" s="15"/>
+      <c r="HX48" s="15"/>
+      <c r="HY48" s="15"/>
+      <c r="HZ48" s="15"/>
+      <c r="IA48" s="15"/>
+      <c r="IB48" s="15"/>
+      <c r="IC48" s="15"/>
+      <c r="ID48" s="15"/>
+      <c r="IE48" s="15"/>
+      <c r="IF48" s="15"/>
+      <c r="IG48" s="15"/>
+      <c r="IH48" s="15"/>
+      <c r="II48" s="15"/>
+      <c r="IJ48" s="15"/>
+      <c r="IK48" s="15"/>
+      <c r="IL48" s="15"/>
+      <c r="IM48" s="15"/>
+      <c r="IN48" s="15"/>
+      <c r="IO48" s="15"/>
+      <c r="IP48" s="15"/>
+      <c r="IQ48" s="15"/>
+      <c r="IR48" s="15"/>
+      <c r="IS48" s="15"/>
+      <c r="IT48" s="15"/>
+      <c r="IU48" s="15"/>
+      <c r="IV48" s="15"/>
+      <c r="IW48" s="15"/>
+      <c r="IX48" s="15"/>
+      <c r="IY48" s="15"/>
+      <c r="IZ48" s="15"/>
+      <c r="JA48" s="15"/>
+      <c r="JB48" s="15"/>
+      <c r="JC48" s="15"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
@@ -38507,107 +38519,107 @@
       <c r="GJ49" s="0" t="n">
         <v>4730</v>
       </c>
-      <c r="GK49" s="14" t="n">
+      <c r="GK49" s="13" t="n">
         <v>34.8</v>
       </c>
-      <c r="GL49" s="14" t="n">
+      <c r="GL49" s="13" t="n">
         <v>3.92</v>
       </c>
-      <c r="GM49" s="14" t="n">
+      <c r="GM49" s="13" t="n">
         <v>0.631</v>
       </c>
-      <c r="GN49" s="14" t="n">
+      <c r="GN49" s="13" t="n">
         <v>9.23</v>
       </c>
-      <c r="GO49" s="14" t="n">
+      <c r="GO49" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GP49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ49" s="14" t="n">
+      <c r="GP49" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ49" s="13" t="n">
         <v>1.27</v>
       </c>
-      <c r="GR49" s="14" t="n">
+      <c r="GR49" s="13" t="n">
         <v>0.114</v>
       </c>
-      <c r="GS49" s="14" t="n">
+      <c r="GS49" s="13" t="n">
         <v>0.137</v>
       </c>
-      <c r="GT49" s="14" t="n">
+      <c r="GT49" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GU49" s="14" t="n">
+      <c r="GU49" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GV49" s="14" t="n">
+      <c r="GV49" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GW49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ49" s="15"/>
-      <c r="HA49" s="16"/>
-      <c r="HB49" s="16"/>
-      <c r="HC49" s="16"/>
-      <c r="HD49" s="16"/>
-      <c r="HE49" s="16"/>
-      <c r="HF49" s="16"/>
-      <c r="HG49" s="16"/>
-      <c r="HH49" s="16"/>
-      <c r="HI49" s="16"/>
-      <c r="HJ49" s="16"/>
-      <c r="HK49" s="16"/>
-      <c r="HL49" s="16"/>
-      <c r="HM49" s="16"/>
-      <c r="HN49" s="16"/>
-      <c r="HO49" s="16"/>
-      <c r="HP49" s="16"/>
-      <c r="HQ49" s="16"/>
-      <c r="HR49" s="16"/>
-      <c r="HS49" s="16"/>
-      <c r="HT49" s="16"/>
-      <c r="HU49" s="16"/>
-      <c r="HV49" s="16"/>
-      <c r="HW49" s="16"/>
-      <c r="HX49" s="16"/>
-      <c r="HY49" s="16"/>
-      <c r="HZ49" s="16"/>
-      <c r="IA49" s="16"/>
-      <c r="IB49" s="16"/>
-      <c r="IC49" s="16"/>
-      <c r="ID49" s="16"/>
-      <c r="IE49" s="16"/>
-      <c r="IF49" s="16"/>
-      <c r="IG49" s="16"/>
-      <c r="IH49" s="16"/>
-      <c r="II49" s="16"/>
-      <c r="IJ49" s="16"/>
-      <c r="IK49" s="16"/>
-      <c r="IL49" s="16"/>
-      <c r="IM49" s="16"/>
-      <c r="IN49" s="16"/>
-      <c r="IO49" s="16"/>
-      <c r="IP49" s="16"/>
-      <c r="IQ49" s="16"/>
-      <c r="IR49" s="16"/>
-      <c r="IS49" s="16"/>
-      <c r="IT49" s="16"/>
-      <c r="IU49" s="16"/>
-      <c r="IV49" s="16"/>
-      <c r="IW49" s="16"/>
-      <c r="IX49" s="16"/>
-      <c r="IY49" s="16"/>
-      <c r="IZ49" s="16"/>
-      <c r="JA49" s="16"/>
-      <c r="JB49" s="16"/>
-      <c r="JC49" s="16"/>
+      <c r="GW49" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX49" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY49" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ49" s="14"/>
+      <c r="HA49" s="15"/>
+      <c r="HB49" s="15"/>
+      <c r="HC49" s="15"/>
+      <c r="HD49" s="15"/>
+      <c r="HE49" s="15"/>
+      <c r="HF49" s="15"/>
+      <c r="HG49" s="15"/>
+      <c r="HH49" s="15"/>
+      <c r="HI49" s="15"/>
+      <c r="HJ49" s="15"/>
+      <c r="HK49" s="15"/>
+      <c r="HL49" s="15"/>
+      <c r="HM49" s="15"/>
+      <c r="HN49" s="15"/>
+      <c r="HO49" s="15"/>
+      <c r="HP49" s="15"/>
+      <c r="HQ49" s="15"/>
+      <c r="HR49" s="15"/>
+      <c r="HS49" s="15"/>
+      <c r="HT49" s="15"/>
+      <c r="HU49" s="15"/>
+      <c r="HV49" s="15"/>
+      <c r="HW49" s="15"/>
+      <c r="HX49" s="15"/>
+      <c r="HY49" s="15"/>
+      <c r="HZ49" s="15"/>
+      <c r="IA49" s="15"/>
+      <c r="IB49" s="15"/>
+      <c r="IC49" s="15"/>
+      <c r="ID49" s="15"/>
+      <c r="IE49" s="15"/>
+      <c r="IF49" s="15"/>
+      <c r="IG49" s="15"/>
+      <c r="IH49" s="15"/>
+      <c r="II49" s="15"/>
+      <c r="IJ49" s="15"/>
+      <c r="IK49" s="15"/>
+      <c r="IL49" s="15"/>
+      <c r="IM49" s="15"/>
+      <c r="IN49" s="15"/>
+      <c r="IO49" s="15"/>
+      <c r="IP49" s="15"/>
+      <c r="IQ49" s="15"/>
+      <c r="IR49" s="15"/>
+      <c r="IS49" s="15"/>
+      <c r="IT49" s="15"/>
+      <c r="IU49" s="15"/>
+      <c r="IV49" s="15"/>
+      <c r="IW49" s="15"/>
+      <c r="IX49" s="15"/>
+      <c r="IY49" s="15"/>
+      <c r="IZ49" s="15"/>
+      <c r="JA49" s="15"/>
+      <c r="JB49" s="15"/>
+      <c r="JC49" s="15"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
@@ -39186,107 +39198,107 @@
       <c r="GJ50" s="0" t="n">
         <v>5444</v>
       </c>
-      <c r="GK50" s="14" t="n">
+      <c r="GK50" s="13" t="n">
         <v>24.7</v>
       </c>
-      <c r="GL50" s="14" t="n">
+      <c r="GL50" s="13" t="n">
         <v>3.06</v>
       </c>
-      <c r="GM50" s="14" t="n">
+      <c r="GM50" s="13" t="n">
         <v>0.779</v>
       </c>
-      <c r="GN50" s="14" t="n">
+      <c r="GN50" s="13" t="n">
         <v>8.85</v>
       </c>
-      <c r="GO50" s="14" t="n">
+      <c r="GO50" s="13" t="n">
         <v>0.0989</v>
       </c>
-      <c r="GP50" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ50" s="14" t="n">
+      <c r="GP50" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ50" s="13" t="n">
         <v>1.51</v>
       </c>
-      <c r="GR50" s="14" t="n">
+      <c r="GR50" s="13" t="n">
         <v>0.138</v>
       </c>
-      <c r="GS50" s="14" t="n">
+      <c r="GS50" s="13" t="n">
         <v>0.12</v>
       </c>
-      <c r="GT50" s="14" t="n">
+      <c r="GT50" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GU50" s="14" t="n">
+      <c r="GU50" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GV50" s="14" t="n">
+      <c r="GV50" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GW50" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX50" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY50" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ50" s="15"/>
-      <c r="HA50" s="16"/>
-      <c r="HB50" s="16"/>
-      <c r="HC50" s="16"/>
-      <c r="HD50" s="16"/>
-      <c r="HE50" s="16"/>
-      <c r="HF50" s="16"/>
-      <c r="HG50" s="16"/>
-      <c r="HH50" s="16"/>
-      <c r="HI50" s="16"/>
-      <c r="HJ50" s="16"/>
-      <c r="HK50" s="16"/>
-      <c r="HL50" s="16"/>
-      <c r="HM50" s="16"/>
-      <c r="HN50" s="16"/>
-      <c r="HO50" s="16"/>
-      <c r="HP50" s="16"/>
-      <c r="HQ50" s="16"/>
-      <c r="HR50" s="16"/>
-      <c r="HS50" s="16"/>
-      <c r="HT50" s="16"/>
-      <c r="HU50" s="16"/>
-      <c r="HV50" s="16"/>
-      <c r="HW50" s="16"/>
-      <c r="HX50" s="16"/>
-      <c r="HY50" s="16"/>
-      <c r="HZ50" s="16"/>
-      <c r="IA50" s="16"/>
-      <c r="IB50" s="16"/>
-      <c r="IC50" s="16"/>
-      <c r="ID50" s="16"/>
-      <c r="IE50" s="16"/>
-      <c r="IF50" s="16"/>
-      <c r="IG50" s="16"/>
-      <c r="IH50" s="16"/>
-      <c r="II50" s="16"/>
-      <c r="IJ50" s="16"/>
-      <c r="IK50" s="16"/>
-      <c r="IL50" s="16"/>
-      <c r="IM50" s="16"/>
-      <c r="IN50" s="16"/>
-      <c r="IO50" s="16"/>
-      <c r="IP50" s="16"/>
-      <c r="IQ50" s="16"/>
-      <c r="IR50" s="16"/>
-      <c r="IS50" s="16"/>
-      <c r="IT50" s="16"/>
-      <c r="IU50" s="16"/>
-      <c r="IV50" s="16"/>
-      <c r="IW50" s="16"/>
-      <c r="IX50" s="16"/>
-      <c r="IY50" s="16"/>
-      <c r="IZ50" s="16"/>
-      <c r="JA50" s="16"/>
-      <c r="JB50" s="16"/>
-      <c r="JC50" s="16"/>
+      <c r="GW50" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX50" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY50" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ50" s="14"/>
+      <c r="HA50" s="15"/>
+      <c r="HB50" s="15"/>
+      <c r="HC50" s="15"/>
+      <c r="HD50" s="15"/>
+      <c r="HE50" s="15"/>
+      <c r="HF50" s="15"/>
+      <c r="HG50" s="15"/>
+      <c r="HH50" s="15"/>
+      <c r="HI50" s="15"/>
+      <c r="HJ50" s="15"/>
+      <c r="HK50" s="15"/>
+      <c r="HL50" s="15"/>
+      <c r="HM50" s="15"/>
+      <c r="HN50" s="15"/>
+      <c r="HO50" s="15"/>
+      <c r="HP50" s="15"/>
+      <c r="HQ50" s="15"/>
+      <c r="HR50" s="15"/>
+      <c r="HS50" s="15"/>
+      <c r="HT50" s="15"/>
+      <c r="HU50" s="15"/>
+      <c r="HV50" s="15"/>
+      <c r="HW50" s="15"/>
+      <c r="HX50" s="15"/>
+      <c r="HY50" s="15"/>
+      <c r="HZ50" s="15"/>
+      <c r="IA50" s="15"/>
+      <c r="IB50" s="15"/>
+      <c r="IC50" s="15"/>
+      <c r="ID50" s="15"/>
+      <c r="IE50" s="15"/>
+      <c r="IF50" s="15"/>
+      <c r="IG50" s="15"/>
+      <c r="IH50" s="15"/>
+      <c r="II50" s="15"/>
+      <c r="IJ50" s="15"/>
+      <c r="IK50" s="15"/>
+      <c r="IL50" s="15"/>
+      <c r="IM50" s="15"/>
+      <c r="IN50" s="15"/>
+      <c r="IO50" s="15"/>
+      <c r="IP50" s="15"/>
+      <c r="IQ50" s="15"/>
+      <c r="IR50" s="15"/>
+      <c r="IS50" s="15"/>
+      <c r="IT50" s="15"/>
+      <c r="IU50" s="15"/>
+      <c r="IV50" s="15"/>
+      <c r="IW50" s="15"/>
+      <c r="IX50" s="15"/>
+      <c r="IY50" s="15"/>
+      <c r="IZ50" s="15"/>
+      <c r="JA50" s="15"/>
+      <c r="JB50" s="15"/>
+      <c r="JC50" s="15"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
@@ -39862,107 +39874,107 @@
       <c r="GJ51" s="0" t="n">
         <v>4113</v>
       </c>
-      <c r="GK51" s="14" t="n">
+      <c r="GK51" s="13" t="n">
         <v>29.6</v>
       </c>
-      <c r="GL51" s="14" t="n">
+      <c r="GL51" s="13" t="n">
         <v>1.85</v>
       </c>
-      <c r="GM51" s="14" t="n">
+      <c r="GM51" s="13" t="n">
         <v>0.383</v>
       </c>
-      <c r="GN51" s="14" t="n">
+      <c r="GN51" s="13" t="n">
         <v>7.81</v>
       </c>
-      <c r="GO51" s="14" t="n">
+      <c r="GO51" s="13" t="n">
         <v>0.112</v>
       </c>
-      <c r="GP51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ51" s="14" t="n">
+      <c r="GP51" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ51" s="13" t="n">
         <v>2.2</v>
       </c>
-      <c r="GR51" s="14" t="n">
+      <c r="GR51" s="13" t="n">
         <v>0.12</v>
       </c>
-      <c r="GS51" s="14" t="n">
+      <c r="GS51" s="13" t="n">
         <v>0.586</v>
       </c>
-      <c r="GT51" s="14" t="n">
+      <c r="GT51" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GU51" s="14" t="n">
+      <c r="GU51" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GV51" s="14" t="n">
+      <c r="GV51" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GW51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ51" s="15"/>
-      <c r="HA51" s="16"/>
-      <c r="HB51" s="16"/>
-      <c r="HC51" s="16"/>
-      <c r="HD51" s="16"/>
-      <c r="HE51" s="16"/>
-      <c r="HF51" s="16"/>
-      <c r="HG51" s="16"/>
-      <c r="HH51" s="16"/>
-      <c r="HI51" s="16"/>
-      <c r="HJ51" s="16"/>
-      <c r="HK51" s="16"/>
-      <c r="HL51" s="16"/>
-      <c r="HM51" s="16"/>
-      <c r="HN51" s="16"/>
-      <c r="HO51" s="16"/>
-      <c r="HP51" s="16"/>
-      <c r="HQ51" s="16"/>
-      <c r="HR51" s="16"/>
-      <c r="HS51" s="16"/>
-      <c r="HT51" s="16"/>
-      <c r="HU51" s="16"/>
-      <c r="HV51" s="16"/>
-      <c r="HW51" s="16"/>
-      <c r="HX51" s="16"/>
-      <c r="HY51" s="16"/>
-      <c r="HZ51" s="16"/>
-      <c r="IA51" s="16"/>
-      <c r="IB51" s="16"/>
-      <c r="IC51" s="16"/>
-      <c r="ID51" s="16"/>
-      <c r="IE51" s="16"/>
-      <c r="IF51" s="16"/>
-      <c r="IG51" s="16"/>
-      <c r="IH51" s="16"/>
-      <c r="II51" s="16"/>
-      <c r="IJ51" s="16"/>
-      <c r="IK51" s="16"/>
-      <c r="IL51" s="16"/>
-      <c r="IM51" s="16"/>
-      <c r="IN51" s="16"/>
-      <c r="IO51" s="16"/>
-      <c r="IP51" s="16"/>
-      <c r="IQ51" s="16"/>
-      <c r="IR51" s="16"/>
-      <c r="IS51" s="16"/>
-      <c r="IT51" s="16"/>
-      <c r="IU51" s="16"/>
-      <c r="IV51" s="16"/>
-      <c r="IW51" s="16"/>
-      <c r="IX51" s="16"/>
-      <c r="IY51" s="16"/>
-      <c r="IZ51" s="16"/>
-      <c r="JA51" s="16"/>
-      <c r="JB51" s="16"/>
-      <c r="JC51" s="16"/>
+      <c r="GW51" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX51" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY51" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ51" s="14"/>
+      <c r="HA51" s="15"/>
+      <c r="HB51" s="15"/>
+      <c r="HC51" s="15"/>
+      <c r="HD51" s="15"/>
+      <c r="HE51" s="15"/>
+      <c r="HF51" s="15"/>
+      <c r="HG51" s="15"/>
+      <c r="HH51" s="15"/>
+      <c r="HI51" s="15"/>
+      <c r="HJ51" s="15"/>
+      <c r="HK51" s="15"/>
+      <c r="HL51" s="15"/>
+      <c r="HM51" s="15"/>
+      <c r="HN51" s="15"/>
+      <c r="HO51" s="15"/>
+      <c r="HP51" s="15"/>
+      <c r="HQ51" s="15"/>
+      <c r="HR51" s="15"/>
+      <c r="HS51" s="15"/>
+      <c r="HT51" s="15"/>
+      <c r="HU51" s="15"/>
+      <c r="HV51" s="15"/>
+      <c r="HW51" s="15"/>
+      <c r="HX51" s="15"/>
+      <c r="HY51" s="15"/>
+      <c r="HZ51" s="15"/>
+      <c r="IA51" s="15"/>
+      <c r="IB51" s="15"/>
+      <c r="IC51" s="15"/>
+      <c r="ID51" s="15"/>
+      <c r="IE51" s="15"/>
+      <c r="IF51" s="15"/>
+      <c r="IG51" s="15"/>
+      <c r="IH51" s="15"/>
+      <c r="II51" s="15"/>
+      <c r="IJ51" s="15"/>
+      <c r="IK51" s="15"/>
+      <c r="IL51" s="15"/>
+      <c r="IM51" s="15"/>
+      <c r="IN51" s="15"/>
+      <c r="IO51" s="15"/>
+      <c r="IP51" s="15"/>
+      <c r="IQ51" s="15"/>
+      <c r="IR51" s="15"/>
+      <c r="IS51" s="15"/>
+      <c r="IT51" s="15"/>
+      <c r="IU51" s="15"/>
+      <c r="IV51" s="15"/>
+      <c r="IW51" s="15"/>
+      <c r="IX51" s="15"/>
+      <c r="IY51" s="15"/>
+      <c r="IZ51" s="15"/>
+      <c r="JA51" s="15"/>
+      <c r="JB51" s="15"/>
+      <c r="JC51" s="15"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
@@ -40538,107 +40550,107 @@
       <c r="GJ52" s="0" t="n">
         <v>5295</v>
       </c>
-      <c r="GK52" s="14" t="n">
+      <c r="GK52" s="13" t="n">
         <v>27.8</v>
       </c>
-      <c r="GL52" s="14" t="n">
+      <c r="GL52" s="13" t="n">
         <v>4.67</v>
       </c>
-      <c r="GM52" s="14" t="n">
+      <c r="GM52" s="13" t="n">
         <v>0.432</v>
       </c>
-      <c r="GN52" s="14" t="n">
+      <c r="GN52" s="13" t="n">
         <v>6.52</v>
       </c>
-      <c r="GO52" s="14" t="n">
+      <c r="GO52" s="13" t="n">
         <v>0.176</v>
       </c>
-      <c r="GP52" s="14" t="n">
+      <c r="GP52" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GQ52" s="14" t="n">
+      <c r="GQ52" s="13" t="n">
         <v>4.82</v>
       </c>
-      <c r="GR52" s="14" t="n">
+      <c r="GR52" s="13" t="n">
         <v>0.282</v>
       </c>
-      <c r="GS52" s="14" t="n">
+      <c r="GS52" s="13" t="n">
         <v>0.119</v>
       </c>
-      <c r="GT52" s="14" t="n">
+      <c r="GT52" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GU52" s="14" t="n">
+      <c r="GU52" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GV52" s="14" t="n">
+      <c r="GV52" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GW52" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX52" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY52" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ52" s="15"/>
-      <c r="HA52" s="16"/>
-      <c r="HB52" s="16"/>
-      <c r="HC52" s="16"/>
-      <c r="HD52" s="16"/>
-      <c r="HE52" s="16"/>
-      <c r="HF52" s="16"/>
-      <c r="HG52" s="16"/>
-      <c r="HH52" s="16"/>
-      <c r="HI52" s="16"/>
-      <c r="HJ52" s="16"/>
-      <c r="HK52" s="16"/>
-      <c r="HL52" s="16"/>
-      <c r="HM52" s="16"/>
-      <c r="HN52" s="16"/>
-      <c r="HO52" s="16"/>
-      <c r="HP52" s="16"/>
-      <c r="HQ52" s="16"/>
-      <c r="HR52" s="16"/>
-      <c r="HS52" s="16"/>
-      <c r="HT52" s="16"/>
-      <c r="HU52" s="16"/>
-      <c r="HV52" s="16"/>
-      <c r="HW52" s="16"/>
-      <c r="HX52" s="16"/>
-      <c r="HY52" s="16"/>
-      <c r="HZ52" s="16"/>
-      <c r="IA52" s="16"/>
-      <c r="IB52" s="16"/>
-      <c r="IC52" s="16"/>
-      <c r="ID52" s="16"/>
-      <c r="IE52" s="16"/>
-      <c r="IF52" s="16"/>
-      <c r="IG52" s="16"/>
-      <c r="IH52" s="16"/>
-      <c r="II52" s="16"/>
-      <c r="IJ52" s="16"/>
-      <c r="IK52" s="16"/>
-      <c r="IL52" s="16"/>
-      <c r="IM52" s="16"/>
-      <c r="IN52" s="16"/>
-      <c r="IO52" s="16"/>
-      <c r="IP52" s="16"/>
-      <c r="IQ52" s="16"/>
-      <c r="IR52" s="16"/>
-      <c r="IS52" s="16"/>
-      <c r="IT52" s="16"/>
-      <c r="IU52" s="16"/>
-      <c r="IV52" s="16"/>
-      <c r="IW52" s="16"/>
-      <c r="IX52" s="16"/>
-      <c r="IY52" s="16"/>
-      <c r="IZ52" s="16"/>
-      <c r="JA52" s="16"/>
-      <c r="JB52" s="16"/>
-      <c r="JC52" s="16"/>
+      <c r="GW52" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX52" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY52" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ52" s="14"/>
+      <c r="HA52" s="15"/>
+      <c r="HB52" s="15"/>
+      <c r="HC52" s="15"/>
+      <c r="HD52" s="15"/>
+      <c r="HE52" s="15"/>
+      <c r="HF52" s="15"/>
+      <c r="HG52" s="15"/>
+      <c r="HH52" s="15"/>
+      <c r="HI52" s="15"/>
+      <c r="HJ52" s="15"/>
+      <c r="HK52" s="15"/>
+      <c r="HL52" s="15"/>
+      <c r="HM52" s="15"/>
+      <c r="HN52" s="15"/>
+      <c r="HO52" s="15"/>
+      <c r="HP52" s="15"/>
+      <c r="HQ52" s="15"/>
+      <c r="HR52" s="15"/>
+      <c r="HS52" s="15"/>
+      <c r="HT52" s="15"/>
+      <c r="HU52" s="15"/>
+      <c r="HV52" s="15"/>
+      <c r="HW52" s="15"/>
+      <c r="HX52" s="15"/>
+      <c r="HY52" s="15"/>
+      <c r="HZ52" s="15"/>
+      <c r="IA52" s="15"/>
+      <c r="IB52" s="15"/>
+      <c r="IC52" s="15"/>
+      <c r="ID52" s="15"/>
+      <c r="IE52" s="15"/>
+      <c r="IF52" s="15"/>
+      <c r="IG52" s="15"/>
+      <c r="IH52" s="15"/>
+      <c r="II52" s="15"/>
+      <c r="IJ52" s="15"/>
+      <c r="IK52" s="15"/>
+      <c r="IL52" s="15"/>
+      <c r="IM52" s="15"/>
+      <c r="IN52" s="15"/>
+      <c r="IO52" s="15"/>
+      <c r="IP52" s="15"/>
+      <c r="IQ52" s="15"/>
+      <c r="IR52" s="15"/>
+      <c r="IS52" s="15"/>
+      <c r="IT52" s="15"/>
+      <c r="IU52" s="15"/>
+      <c r="IV52" s="15"/>
+      <c r="IW52" s="15"/>
+      <c r="IX52" s="15"/>
+      <c r="IY52" s="15"/>
+      <c r="IZ52" s="15"/>
+      <c r="JA52" s="15"/>
+      <c r="JB52" s="15"/>
+      <c r="JC52" s="15"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
@@ -41214,77 +41226,77 @@
       <c r="GJ53" s="0" t="n">
         <v>3418</v>
       </c>
-      <c r="GK53" s="14"/>
-      <c r="GL53" s="14"/>
-      <c r="GM53" s="14"/>
-      <c r="GN53" s="14"/>
-      <c r="GO53" s="14"/>
-      <c r="GP53" s="14"/>
-      <c r="GQ53" s="14"/>
-      <c r="GR53" s="14"/>
-      <c r="GS53" s="14"/>
-      <c r="GT53" s="14"/>
-      <c r="GU53" s="14"/>
-      <c r="GV53" s="14"/>
-      <c r="GW53" s="14"/>
-      <c r="GX53" s="14"/>
-      <c r="GY53" s="14"/>
-      <c r="GZ53" s="15"/>
-      <c r="HA53" s="16"/>
-      <c r="HB53" s="16"/>
-      <c r="HC53" s="16"/>
-      <c r="HD53" s="16"/>
-      <c r="HE53" s="16"/>
-      <c r="HF53" s="16"/>
-      <c r="HG53" s="16"/>
-      <c r="HH53" s="16"/>
-      <c r="HI53" s="16"/>
-      <c r="HJ53" s="16"/>
-      <c r="HK53" s="16"/>
-      <c r="HL53" s="16"/>
-      <c r="HM53" s="16"/>
-      <c r="HN53" s="16"/>
-      <c r="HO53" s="16"/>
-      <c r="HP53" s="16"/>
-      <c r="HQ53" s="16"/>
-      <c r="HR53" s="16"/>
-      <c r="HS53" s="16"/>
-      <c r="HT53" s="16"/>
-      <c r="HU53" s="16"/>
-      <c r="HV53" s="16"/>
-      <c r="HW53" s="16"/>
-      <c r="HX53" s="16"/>
-      <c r="HY53" s="16"/>
-      <c r="HZ53" s="16"/>
-      <c r="IA53" s="16"/>
-      <c r="IB53" s="16"/>
-      <c r="IC53" s="16"/>
-      <c r="ID53" s="16"/>
-      <c r="IE53" s="16"/>
-      <c r="IF53" s="16"/>
-      <c r="IG53" s="16"/>
-      <c r="IH53" s="16"/>
-      <c r="II53" s="16"/>
-      <c r="IJ53" s="16"/>
-      <c r="IK53" s="16"/>
-      <c r="IL53" s="16"/>
-      <c r="IM53" s="16"/>
-      <c r="IN53" s="16"/>
-      <c r="IO53" s="16"/>
-      <c r="IP53" s="16"/>
-      <c r="IQ53" s="16"/>
-      <c r="IR53" s="16"/>
-      <c r="IS53" s="16"/>
-      <c r="IT53" s="16"/>
-      <c r="IU53" s="16"/>
-      <c r="IV53" s="16"/>
-      <c r="IW53" s="16"/>
-      <c r="IX53" s="16"/>
-      <c r="IY53" s="16"/>
-      <c r="IZ53" s="16"/>
-      <c r="JA53" s="16"/>
-      <c r="JB53" s="16"/>
-      <c r="JC53" s="16"/>
+      <c r="GK53" s="13"/>
+      <c r="GL53" s="13"/>
+      <c r="GM53" s="13"/>
+      <c r="GN53" s="13"/>
+      <c r="GO53" s="13"/>
+      <c r="GP53" s="13"/>
+      <c r="GQ53" s="13"/>
+      <c r="GR53" s="13"/>
+      <c r="GS53" s="13"/>
+      <c r="GT53" s="13"/>
+      <c r="GU53" s="13"/>
+      <c r="GV53" s="13"/>
+      <c r="GW53" s="13"/>
+      <c r="GX53" s="13"/>
+      <c r="GY53" s="13"/>
+      <c r="GZ53" s="14"/>
+      <c r="HA53" s="15"/>
+      <c r="HB53" s="15"/>
+      <c r="HC53" s="15"/>
+      <c r="HD53" s="15"/>
+      <c r="HE53" s="15"/>
+      <c r="HF53" s="15"/>
+      <c r="HG53" s="15"/>
+      <c r="HH53" s="15"/>
+      <c r="HI53" s="15"/>
+      <c r="HJ53" s="15"/>
+      <c r="HK53" s="15"/>
+      <c r="HL53" s="15"/>
+      <c r="HM53" s="15"/>
+      <c r="HN53" s="15"/>
+      <c r="HO53" s="15"/>
+      <c r="HP53" s="15"/>
+      <c r="HQ53" s="15"/>
+      <c r="HR53" s="15"/>
+      <c r="HS53" s="15"/>
+      <c r="HT53" s="15"/>
+      <c r="HU53" s="15"/>
+      <c r="HV53" s="15"/>
+      <c r="HW53" s="15"/>
+      <c r="HX53" s="15"/>
+      <c r="HY53" s="15"/>
+      <c r="HZ53" s="15"/>
+      <c r="IA53" s="15"/>
+      <c r="IB53" s="15"/>
+      <c r="IC53" s="15"/>
+      <c r="ID53" s="15"/>
+      <c r="IE53" s="15"/>
+      <c r="IF53" s="15"/>
+      <c r="IG53" s="15"/>
+      <c r="IH53" s="15"/>
+      <c r="II53" s="15"/>
+      <c r="IJ53" s="15"/>
+      <c r="IK53" s="15"/>
+      <c r="IL53" s="15"/>
+      <c r="IM53" s="15"/>
+      <c r="IN53" s="15"/>
+      <c r="IO53" s="15"/>
+      <c r="IP53" s="15"/>
+      <c r="IQ53" s="15"/>
+      <c r="IR53" s="15"/>
+      <c r="IS53" s="15"/>
+      <c r="IT53" s="15"/>
+      <c r="IU53" s="15"/>
+      <c r="IV53" s="15"/>
+      <c r="IW53" s="15"/>
+      <c r="IX53" s="15"/>
+      <c r="IY53" s="15"/>
+      <c r="IZ53" s="15"/>
+      <c r="JA53" s="15"/>
+      <c r="JB53" s="15"/>
+      <c r="JC53" s="15"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
@@ -41863,107 +41875,107 @@
       <c r="GJ54" s="0" t="n">
         <v>4094</v>
       </c>
-      <c r="GK54" s="14" t="n">
+      <c r="GK54" s="13" t="n">
         <v>34.9</v>
       </c>
-      <c r="GL54" s="14" t="n">
+      <c r="GL54" s="13" t="n">
         <v>15.3</v>
       </c>
-      <c r="GM54" s="14" t="n">
+      <c r="GM54" s="13" t="n">
         <v>2.52</v>
       </c>
-      <c r="GN54" s="14" t="n">
+      <c r="GN54" s="13" t="n">
         <v>6.74</v>
       </c>
-      <c r="GO54" s="14" t="n">
+      <c r="GO54" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GP54" s="14" t="n">
+      <c r="GP54" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GQ54" s="14" t="n">
+      <c r="GQ54" s="13" t="n">
         <v>2.11</v>
       </c>
-      <c r="GR54" s="14" t="n">
+      <c r="GR54" s="13" t="n">
         <v>0.798</v>
       </c>
-      <c r="GS54" s="14" t="n">
+      <c r="GS54" s="13" t="n">
         <v>4.91</v>
       </c>
-      <c r="GT54" s="14" t="n">
+      <c r="GT54" s="13" t="n">
         <v>0.175</v>
       </c>
-      <c r="GU54" s="14" t="n">
+      <c r="GU54" s="13" t="n">
         <v>0.0793</v>
       </c>
-      <c r="GV54" s="14" t="n">
+      <c r="GV54" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GW54" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX54" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY54" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ54" s="15"/>
-      <c r="HA54" s="16"/>
-      <c r="HB54" s="16"/>
-      <c r="HC54" s="16"/>
-      <c r="HD54" s="16"/>
-      <c r="HE54" s="16"/>
-      <c r="HF54" s="16"/>
-      <c r="HG54" s="16"/>
-      <c r="HH54" s="16"/>
-      <c r="HI54" s="16"/>
-      <c r="HJ54" s="16"/>
-      <c r="HK54" s="16"/>
-      <c r="HL54" s="16"/>
-      <c r="HM54" s="16"/>
-      <c r="HN54" s="16"/>
-      <c r="HO54" s="16"/>
-      <c r="HP54" s="16"/>
-      <c r="HQ54" s="16"/>
-      <c r="HR54" s="16"/>
-      <c r="HS54" s="16"/>
-      <c r="HT54" s="16"/>
-      <c r="HU54" s="16"/>
-      <c r="HV54" s="16"/>
-      <c r="HW54" s="16"/>
-      <c r="HX54" s="16"/>
-      <c r="HY54" s="16"/>
-      <c r="HZ54" s="16"/>
-      <c r="IA54" s="16"/>
-      <c r="IB54" s="16"/>
-      <c r="IC54" s="16"/>
-      <c r="ID54" s="16"/>
-      <c r="IE54" s="16"/>
-      <c r="IF54" s="16"/>
-      <c r="IG54" s="16"/>
-      <c r="IH54" s="16"/>
-      <c r="II54" s="16"/>
-      <c r="IJ54" s="16"/>
-      <c r="IK54" s="16"/>
-      <c r="IL54" s="16"/>
-      <c r="IM54" s="16"/>
-      <c r="IN54" s="16"/>
-      <c r="IO54" s="16"/>
-      <c r="IP54" s="16"/>
-      <c r="IQ54" s="16"/>
-      <c r="IR54" s="16"/>
-      <c r="IS54" s="16"/>
-      <c r="IT54" s="16"/>
-      <c r="IU54" s="16"/>
-      <c r="IV54" s="16"/>
-      <c r="IW54" s="16"/>
-      <c r="IX54" s="16"/>
-      <c r="IY54" s="16"/>
-      <c r="IZ54" s="16"/>
-      <c r="JA54" s="16"/>
-      <c r="JB54" s="16"/>
-      <c r="JC54" s="16"/>
+      <c r="GW54" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX54" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY54" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ54" s="14"/>
+      <c r="HA54" s="15"/>
+      <c r="HB54" s="15"/>
+      <c r="HC54" s="15"/>
+      <c r="HD54" s="15"/>
+      <c r="HE54" s="15"/>
+      <c r="HF54" s="15"/>
+      <c r="HG54" s="15"/>
+      <c r="HH54" s="15"/>
+      <c r="HI54" s="15"/>
+      <c r="HJ54" s="15"/>
+      <c r="HK54" s="15"/>
+      <c r="HL54" s="15"/>
+      <c r="HM54" s="15"/>
+      <c r="HN54" s="15"/>
+      <c r="HO54" s="15"/>
+      <c r="HP54" s="15"/>
+      <c r="HQ54" s="15"/>
+      <c r="HR54" s="15"/>
+      <c r="HS54" s="15"/>
+      <c r="HT54" s="15"/>
+      <c r="HU54" s="15"/>
+      <c r="HV54" s="15"/>
+      <c r="HW54" s="15"/>
+      <c r="HX54" s="15"/>
+      <c r="HY54" s="15"/>
+      <c r="HZ54" s="15"/>
+      <c r="IA54" s="15"/>
+      <c r="IB54" s="15"/>
+      <c r="IC54" s="15"/>
+      <c r="ID54" s="15"/>
+      <c r="IE54" s="15"/>
+      <c r="IF54" s="15"/>
+      <c r="IG54" s="15"/>
+      <c r="IH54" s="15"/>
+      <c r="II54" s="15"/>
+      <c r="IJ54" s="15"/>
+      <c r="IK54" s="15"/>
+      <c r="IL54" s="15"/>
+      <c r="IM54" s="15"/>
+      <c r="IN54" s="15"/>
+      <c r="IO54" s="15"/>
+      <c r="IP54" s="15"/>
+      <c r="IQ54" s="15"/>
+      <c r="IR54" s="15"/>
+      <c r="IS54" s="15"/>
+      <c r="IT54" s="15"/>
+      <c r="IU54" s="15"/>
+      <c r="IV54" s="15"/>
+      <c r="IW54" s="15"/>
+      <c r="IX54" s="15"/>
+      <c r="IY54" s="15"/>
+      <c r="IZ54" s="15"/>
+      <c r="JA54" s="15"/>
+      <c r="JB54" s="15"/>
+      <c r="JC54" s="15"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
@@ -42539,107 +42551,107 @@
       <c r="GJ55" s="0" t="n">
         <v>3923</v>
       </c>
-      <c r="GK55" s="14" t="n">
+      <c r="GK55" s="13" t="n">
         <v>37.2</v>
       </c>
-      <c r="GL55" s="14" t="n">
+      <c r="GL55" s="13" t="n">
         <v>7.04</v>
       </c>
-      <c r="GM55" s="14" t="n">
+      <c r="GM55" s="13" t="n">
         <v>1.45</v>
       </c>
-      <c r="GN55" s="14" t="n">
+      <c r="GN55" s="13" t="n">
         <v>9.37</v>
       </c>
-      <c r="GO55" s="14" t="n">
+      <c r="GO55" s="13" t="n">
         <v>0.194</v>
       </c>
-      <c r="GP55" s="14" t="n">
+      <c r="GP55" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GQ55" s="14" t="n">
+      <c r="GQ55" s="13" t="n">
         <v>18.7</v>
       </c>
-      <c r="GR55" s="14" t="n">
+      <c r="GR55" s="13" t="n">
         <v>2.92</v>
       </c>
-      <c r="GS55" s="14" t="n">
+      <c r="GS55" s="13" t="n">
         <v>1.1</v>
       </c>
-      <c r="GT55" s="14" t="n">
+      <c r="GT55" s="13" t="n">
         <v>0.155</v>
       </c>
-      <c r="GU55" s="14" t="n">
+      <c r="GU55" s="13" t="n">
         <v>0.0962</v>
       </c>
-      <c r="GV55" s="14" t="n">
+      <c r="GV55" s="13" t="n">
         <v>0.213</v>
       </c>
-      <c r="GW55" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX55" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY55" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ55" s="15"/>
-      <c r="HA55" s="16"/>
-      <c r="HB55" s="16"/>
-      <c r="HC55" s="16"/>
-      <c r="HD55" s="16"/>
-      <c r="HE55" s="16"/>
-      <c r="HF55" s="16"/>
-      <c r="HG55" s="16"/>
-      <c r="HH55" s="16"/>
-      <c r="HI55" s="16"/>
-      <c r="HJ55" s="16"/>
-      <c r="HK55" s="16"/>
-      <c r="HL55" s="16"/>
-      <c r="HM55" s="16"/>
-      <c r="HN55" s="16"/>
-      <c r="HO55" s="16"/>
-      <c r="HP55" s="16"/>
-      <c r="HQ55" s="16"/>
-      <c r="HR55" s="16"/>
-      <c r="HS55" s="16"/>
-      <c r="HT55" s="16"/>
-      <c r="HU55" s="16"/>
-      <c r="HV55" s="16"/>
-      <c r="HW55" s="16"/>
-      <c r="HX55" s="16"/>
-      <c r="HY55" s="16"/>
-      <c r="HZ55" s="16"/>
-      <c r="IA55" s="16"/>
-      <c r="IB55" s="16"/>
-      <c r="IC55" s="16"/>
-      <c r="ID55" s="16"/>
-      <c r="IE55" s="16"/>
-      <c r="IF55" s="16"/>
-      <c r="IG55" s="16"/>
-      <c r="IH55" s="16"/>
-      <c r="II55" s="16"/>
-      <c r="IJ55" s="16"/>
-      <c r="IK55" s="16"/>
-      <c r="IL55" s="16"/>
-      <c r="IM55" s="16"/>
-      <c r="IN55" s="16"/>
-      <c r="IO55" s="16"/>
-      <c r="IP55" s="16"/>
-      <c r="IQ55" s="16"/>
-      <c r="IR55" s="16"/>
-      <c r="IS55" s="16"/>
-      <c r="IT55" s="16"/>
-      <c r="IU55" s="16"/>
-      <c r="IV55" s="16"/>
-      <c r="IW55" s="16"/>
-      <c r="IX55" s="16"/>
-      <c r="IY55" s="16"/>
-      <c r="IZ55" s="16"/>
-      <c r="JA55" s="16"/>
-      <c r="JB55" s="16"/>
-      <c r="JC55" s="16"/>
+      <c r="GW55" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX55" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY55" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ55" s="14"/>
+      <c r="HA55" s="15"/>
+      <c r="HB55" s="15"/>
+      <c r="HC55" s="15"/>
+      <c r="HD55" s="15"/>
+      <c r="HE55" s="15"/>
+      <c r="HF55" s="15"/>
+      <c r="HG55" s="15"/>
+      <c r="HH55" s="15"/>
+      <c r="HI55" s="15"/>
+      <c r="HJ55" s="15"/>
+      <c r="HK55" s="15"/>
+      <c r="HL55" s="15"/>
+      <c r="HM55" s="15"/>
+      <c r="HN55" s="15"/>
+      <c r="HO55" s="15"/>
+      <c r="HP55" s="15"/>
+      <c r="HQ55" s="15"/>
+      <c r="HR55" s="15"/>
+      <c r="HS55" s="15"/>
+      <c r="HT55" s="15"/>
+      <c r="HU55" s="15"/>
+      <c r="HV55" s="15"/>
+      <c r="HW55" s="15"/>
+      <c r="HX55" s="15"/>
+      <c r="HY55" s="15"/>
+      <c r="HZ55" s="15"/>
+      <c r="IA55" s="15"/>
+      <c r="IB55" s="15"/>
+      <c r="IC55" s="15"/>
+      <c r="ID55" s="15"/>
+      <c r="IE55" s="15"/>
+      <c r="IF55" s="15"/>
+      <c r="IG55" s="15"/>
+      <c r="IH55" s="15"/>
+      <c r="II55" s="15"/>
+      <c r="IJ55" s="15"/>
+      <c r="IK55" s="15"/>
+      <c r="IL55" s="15"/>
+      <c r="IM55" s="15"/>
+      <c r="IN55" s="15"/>
+      <c r="IO55" s="15"/>
+      <c r="IP55" s="15"/>
+      <c r="IQ55" s="15"/>
+      <c r="IR55" s="15"/>
+      <c r="IS55" s="15"/>
+      <c r="IT55" s="15"/>
+      <c r="IU55" s="15"/>
+      <c r="IV55" s="15"/>
+      <c r="IW55" s="15"/>
+      <c r="IX55" s="15"/>
+      <c r="IY55" s="15"/>
+      <c r="IZ55" s="15"/>
+      <c r="JA55" s="15"/>
+      <c r="JB55" s="15"/>
+      <c r="JC55" s="15"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
@@ -43215,107 +43227,107 @@
       <c r="GJ56" s="0" t="n">
         <v>4075</v>
       </c>
-      <c r="GK56" s="14" t="n">
+      <c r="GK56" s="13" t="n">
         <v>55.6</v>
       </c>
-      <c r="GL56" s="14" t="n">
+      <c r="GL56" s="13" t="n">
         <v>1.72</v>
       </c>
-      <c r="GM56" s="14" t="n">
+      <c r="GM56" s="13" t="n">
         <v>0.112</v>
       </c>
-      <c r="GN56" s="14" t="n">
+      <c r="GN56" s="13" t="n">
         <v>5.77</v>
       </c>
-      <c r="GO56" s="14" t="n">
+      <c r="GO56" s="13" t="n">
         <v>0.0979</v>
       </c>
-      <c r="GP56" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ56" s="14" t="n">
+      <c r="GP56" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ56" s="13" t="n">
         <v>10.9</v>
       </c>
-      <c r="GR56" s="14" t="n">
+      <c r="GR56" s="13" t="n">
         <v>0.206</v>
       </c>
-      <c r="GS56" s="14" t="n">
+      <c r="GS56" s="13" t="n">
         <v>3.41</v>
       </c>
-      <c r="GT56" s="14" t="n">
+      <c r="GT56" s="13" t="n">
         <v>0.112</v>
       </c>
-      <c r="GU56" s="14" t="n">
+      <c r="GU56" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GV56" s="14" t="n">
+      <c r="GV56" s="13" t="n">
         <v>0.128</v>
       </c>
-      <c r="GW56" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX56" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY56" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ56" s="15"/>
-      <c r="HA56" s="16"/>
-      <c r="HB56" s="16"/>
-      <c r="HC56" s="16"/>
-      <c r="HD56" s="16"/>
-      <c r="HE56" s="16"/>
-      <c r="HF56" s="16"/>
-      <c r="HG56" s="16"/>
-      <c r="HH56" s="16"/>
-      <c r="HI56" s="16"/>
-      <c r="HJ56" s="16"/>
-      <c r="HK56" s="16"/>
-      <c r="HL56" s="16"/>
-      <c r="HM56" s="16"/>
-      <c r="HN56" s="16"/>
-      <c r="HO56" s="16"/>
-      <c r="HP56" s="16"/>
-      <c r="HQ56" s="16"/>
-      <c r="HR56" s="16"/>
-      <c r="HS56" s="16"/>
-      <c r="HT56" s="16"/>
-      <c r="HU56" s="16"/>
-      <c r="HV56" s="16"/>
-      <c r="HW56" s="16"/>
-      <c r="HX56" s="16"/>
-      <c r="HY56" s="16"/>
-      <c r="HZ56" s="16"/>
-      <c r="IA56" s="16"/>
-      <c r="IB56" s="16"/>
-      <c r="IC56" s="16"/>
-      <c r="ID56" s="16"/>
-      <c r="IE56" s="16"/>
-      <c r="IF56" s="16"/>
-      <c r="IG56" s="16"/>
-      <c r="IH56" s="16"/>
-      <c r="II56" s="16"/>
-      <c r="IJ56" s="16"/>
-      <c r="IK56" s="16"/>
-      <c r="IL56" s="16"/>
-      <c r="IM56" s="16"/>
-      <c r="IN56" s="16"/>
-      <c r="IO56" s="16"/>
-      <c r="IP56" s="16"/>
-      <c r="IQ56" s="16"/>
-      <c r="IR56" s="16"/>
-      <c r="IS56" s="16"/>
-      <c r="IT56" s="16"/>
-      <c r="IU56" s="16"/>
-      <c r="IV56" s="16"/>
-      <c r="IW56" s="16"/>
-      <c r="IX56" s="16"/>
-      <c r="IY56" s="16"/>
-      <c r="IZ56" s="16"/>
-      <c r="JA56" s="16"/>
-      <c r="JB56" s="16"/>
-      <c r="JC56" s="16"/>
+      <c r="GW56" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX56" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY56" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ56" s="14"/>
+      <c r="HA56" s="15"/>
+      <c r="HB56" s="15"/>
+      <c r="HC56" s="15"/>
+      <c r="HD56" s="15"/>
+      <c r="HE56" s="15"/>
+      <c r="HF56" s="15"/>
+      <c r="HG56" s="15"/>
+      <c r="HH56" s="15"/>
+      <c r="HI56" s="15"/>
+      <c r="HJ56" s="15"/>
+      <c r="HK56" s="15"/>
+      <c r="HL56" s="15"/>
+      <c r="HM56" s="15"/>
+      <c r="HN56" s="15"/>
+      <c r="HO56" s="15"/>
+      <c r="HP56" s="15"/>
+      <c r="HQ56" s="15"/>
+      <c r="HR56" s="15"/>
+      <c r="HS56" s="15"/>
+      <c r="HT56" s="15"/>
+      <c r="HU56" s="15"/>
+      <c r="HV56" s="15"/>
+      <c r="HW56" s="15"/>
+      <c r="HX56" s="15"/>
+      <c r="HY56" s="15"/>
+      <c r="HZ56" s="15"/>
+      <c r="IA56" s="15"/>
+      <c r="IB56" s="15"/>
+      <c r="IC56" s="15"/>
+      <c r="ID56" s="15"/>
+      <c r="IE56" s="15"/>
+      <c r="IF56" s="15"/>
+      <c r="IG56" s="15"/>
+      <c r="IH56" s="15"/>
+      <c r="II56" s="15"/>
+      <c r="IJ56" s="15"/>
+      <c r="IK56" s="15"/>
+      <c r="IL56" s="15"/>
+      <c r="IM56" s="15"/>
+      <c r="IN56" s="15"/>
+      <c r="IO56" s="15"/>
+      <c r="IP56" s="15"/>
+      <c r="IQ56" s="15"/>
+      <c r="IR56" s="15"/>
+      <c r="IS56" s="15"/>
+      <c r="IT56" s="15"/>
+      <c r="IU56" s="15"/>
+      <c r="IV56" s="15"/>
+      <c r="IW56" s="15"/>
+      <c r="IX56" s="15"/>
+      <c r="IY56" s="15"/>
+      <c r="IZ56" s="15"/>
+      <c r="JA56" s="15"/>
+      <c r="JB56" s="15"/>
+      <c r="JC56" s="15"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
@@ -43891,107 +43903,107 @@
       <c r="GJ57" s="0" t="n">
         <v>3600</v>
       </c>
-      <c r="GK57" s="14" t="n">
+      <c r="GK57" s="13" t="n">
         <v>40.5</v>
       </c>
-      <c r="GL57" s="14" t="n">
+      <c r="GL57" s="13" t="n">
         <v>0.772</v>
       </c>
-      <c r="GM57" s="14" t="n">
+      <c r="GM57" s="13" t="n">
         <v>0.0746</v>
       </c>
-      <c r="GN57" s="14" t="n">
+      <c r="GN57" s="13" t="n">
         <v>5.76</v>
       </c>
-      <c r="GO57" s="14" t="n">
+      <c r="GO57" s="13" t="n">
         <v>0.0837</v>
       </c>
-      <c r="GP57" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ57" s="14" t="n">
+      <c r="GP57" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ57" s="13" t="n">
         <v>6.99</v>
       </c>
-      <c r="GR57" s="14" t="n">
+      <c r="GR57" s="13" t="n">
         <v>0.112</v>
       </c>
-      <c r="GS57" s="14" t="n">
+      <c r="GS57" s="13" t="n">
         <v>0.459</v>
       </c>
-      <c r="GT57" s="14" t="n">
+      <c r="GT57" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GU57" s="14" t="n">
+      <c r="GU57" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GV57" s="14" t="n">
+      <c r="GV57" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GW57" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX57" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY57" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ57" s="15"/>
-      <c r="HA57" s="16"/>
-      <c r="HB57" s="16"/>
-      <c r="HC57" s="16"/>
-      <c r="HD57" s="16"/>
-      <c r="HE57" s="16"/>
-      <c r="HF57" s="16"/>
-      <c r="HG57" s="16"/>
-      <c r="HH57" s="16"/>
-      <c r="HI57" s="16"/>
-      <c r="HJ57" s="16"/>
-      <c r="HK57" s="16"/>
-      <c r="HL57" s="16"/>
-      <c r="HM57" s="16"/>
-      <c r="HN57" s="16"/>
-      <c r="HO57" s="16"/>
-      <c r="HP57" s="16"/>
-      <c r="HQ57" s="16"/>
-      <c r="HR57" s="16"/>
-      <c r="HS57" s="16"/>
-      <c r="HT57" s="16"/>
-      <c r="HU57" s="16"/>
-      <c r="HV57" s="16"/>
-      <c r="HW57" s="16"/>
-      <c r="HX57" s="16"/>
-      <c r="HY57" s="16"/>
-      <c r="HZ57" s="16"/>
-      <c r="IA57" s="16"/>
-      <c r="IB57" s="16"/>
-      <c r="IC57" s="16"/>
-      <c r="ID57" s="16"/>
-      <c r="IE57" s="16"/>
-      <c r="IF57" s="16"/>
-      <c r="IG57" s="16"/>
-      <c r="IH57" s="16"/>
-      <c r="II57" s="16"/>
-      <c r="IJ57" s="16"/>
-      <c r="IK57" s="16"/>
-      <c r="IL57" s="16"/>
-      <c r="IM57" s="16"/>
-      <c r="IN57" s="16"/>
-      <c r="IO57" s="16"/>
-      <c r="IP57" s="16"/>
-      <c r="IQ57" s="16"/>
-      <c r="IR57" s="16"/>
-      <c r="IS57" s="16"/>
-      <c r="IT57" s="16"/>
-      <c r="IU57" s="16"/>
-      <c r="IV57" s="16"/>
-      <c r="IW57" s="16"/>
-      <c r="IX57" s="16"/>
-      <c r="IY57" s="16"/>
-      <c r="IZ57" s="16"/>
-      <c r="JA57" s="16"/>
-      <c r="JB57" s="16"/>
-      <c r="JC57" s="16"/>
+      <c r="GW57" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX57" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY57" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ57" s="14"/>
+      <c r="HA57" s="15"/>
+      <c r="HB57" s="15"/>
+      <c r="HC57" s="15"/>
+      <c r="HD57" s="15"/>
+      <c r="HE57" s="15"/>
+      <c r="HF57" s="15"/>
+      <c r="HG57" s="15"/>
+      <c r="HH57" s="15"/>
+      <c r="HI57" s="15"/>
+      <c r="HJ57" s="15"/>
+      <c r="HK57" s="15"/>
+      <c r="HL57" s="15"/>
+      <c r="HM57" s="15"/>
+      <c r="HN57" s="15"/>
+      <c r="HO57" s="15"/>
+      <c r="HP57" s="15"/>
+      <c r="HQ57" s="15"/>
+      <c r="HR57" s="15"/>
+      <c r="HS57" s="15"/>
+      <c r="HT57" s="15"/>
+      <c r="HU57" s="15"/>
+      <c r="HV57" s="15"/>
+      <c r="HW57" s="15"/>
+      <c r="HX57" s="15"/>
+      <c r="HY57" s="15"/>
+      <c r="HZ57" s="15"/>
+      <c r="IA57" s="15"/>
+      <c r="IB57" s="15"/>
+      <c r="IC57" s="15"/>
+      <c r="ID57" s="15"/>
+      <c r="IE57" s="15"/>
+      <c r="IF57" s="15"/>
+      <c r="IG57" s="15"/>
+      <c r="IH57" s="15"/>
+      <c r="II57" s="15"/>
+      <c r="IJ57" s="15"/>
+      <c r="IK57" s="15"/>
+      <c r="IL57" s="15"/>
+      <c r="IM57" s="15"/>
+      <c r="IN57" s="15"/>
+      <c r="IO57" s="15"/>
+      <c r="IP57" s="15"/>
+      <c r="IQ57" s="15"/>
+      <c r="IR57" s="15"/>
+      <c r="IS57" s="15"/>
+      <c r="IT57" s="15"/>
+      <c r="IU57" s="15"/>
+      <c r="IV57" s="15"/>
+      <c r="IW57" s="15"/>
+      <c r="IX57" s="15"/>
+      <c r="IY57" s="15"/>
+      <c r="IZ57" s="15"/>
+      <c r="JA57" s="15"/>
+      <c r="JB57" s="15"/>
+      <c r="JC57" s="15"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
@@ -44567,107 +44579,107 @@
       <c r="GJ58" s="0" t="n">
         <v>3389</v>
       </c>
-      <c r="GK58" s="14" t="n">
+      <c r="GK58" s="13" t="n">
         <v>38.9</v>
       </c>
-      <c r="GL58" s="14" t="n">
+      <c r="GL58" s="13" t="n">
         <v>0.501</v>
       </c>
-      <c r="GM58" s="14" t="n">
+      <c r="GM58" s="13" t="n">
         <v>0.0788</v>
       </c>
-      <c r="GN58" s="14" t="n">
+      <c r="GN58" s="13" t="n">
         <v>8.51</v>
       </c>
-      <c r="GO58" s="14" t="n">
+      <c r="GO58" s="13" t="n">
         <v>0.0745</v>
       </c>
-      <c r="GP58" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ58" s="14" t="n">
+      <c r="GP58" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ58" s="13" t="n">
         <v>4.13</v>
       </c>
-      <c r="GR58" s="14" t="n">
+      <c r="GR58" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GS58" s="14" t="n">
+      <c r="GS58" s="13" t="n">
         <v>0.452</v>
       </c>
-      <c r="GT58" s="14" t="n">
+      <c r="GT58" s="13" t="n">
         <v>0.0512</v>
       </c>
-      <c r="GU58" s="14" t="n">
+      <c r="GU58" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GV58" s="14" t="n">
+      <c r="GV58" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GW58" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX58" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY58" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ58" s="15"/>
-      <c r="HA58" s="16"/>
-      <c r="HB58" s="16"/>
-      <c r="HC58" s="16"/>
-      <c r="HD58" s="16"/>
-      <c r="HE58" s="16"/>
-      <c r="HF58" s="16"/>
-      <c r="HG58" s="16"/>
-      <c r="HH58" s="16"/>
-      <c r="HI58" s="16"/>
-      <c r="HJ58" s="16"/>
-      <c r="HK58" s="16"/>
-      <c r="HL58" s="16"/>
-      <c r="HM58" s="16"/>
-      <c r="HN58" s="16"/>
-      <c r="HO58" s="16"/>
-      <c r="HP58" s="16"/>
-      <c r="HQ58" s="16"/>
-      <c r="HR58" s="16"/>
-      <c r="HS58" s="16"/>
-      <c r="HT58" s="16"/>
-      <c r="HU58" s="16"/>
-      <c r="HV58" s="16"/>
-      <c r="HW58" s="16"/>
-      <c r="HX58" s="16"/>
-      <c r="HY58" s="16"/>
-      <c r="HZ58" s="16"/>
-      <c r="IA58" s="16"/>
-      <c r="IB58" s="16"/>
-      <c r="IC58" s="16"/>
-      <c r="ID58" s="16"/>
-      <c r="IE58" s="16"/>
-      <c r="IF58" s="16"/>
-      <c r="IG58" s="16"/>
-      <c r="IH58" s="16"/>
-      <c r="II58" s="16"/>
-      <c r="IJ58" s="16"/>
-      <c r="IK58" s="16"/>
-      <c r="IL58" s="16"/>
-      <c r="IM58" s="16"/>
-      <c r="IN58" s="16"/>
-      <c r="IO58" s="16"/>
-      <c r="IP58" s="16"/>
-      <c r="IQ58" s="16"/>
-      <c r="IR58" s="16"/>
-      <c r="IS58" s="16"/>
-      <c r="IT58" s="16"/>
-      <c r="IU58" s="16"/>
-      <c r="IV58" s="16"/>
-      <c r="IW58" s="16"/>
-      <c r="IX58" s="16"/>
-      <c r="IY58" s="16"/>
-      <c r="IZ58" s="16"/>
-      <c r="JA58" s="16"/>
-      <c r="JB58" s="16"/>
-      <c r="JC58" s="16"/>
+      <c r="GW58" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX58" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY58" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ58" s="14"/>
+      <c r="HA58" s="15"/>
+      <c r="HB58" s="15"/>
+      <c r="HC58" s="15"/>
+      <c r="HD58" s="15"/>
+      <c r="HE58" s="15"/>
+      <c r="HF58" s="15"/>
+      <c r="HG58" s="15"/>
+      <c r="HH58" s="15"/>
+      <c r="HI58" s="15"/>
+      <c r="HJ58" s="15"/>
+      <c r="HK58" s="15"/>
+      <c r="HL58" s="15"/>
+      <c r="HM58" s="15"/>
+      <c r="HN58" s="15"/>
+      <c r="HO58" s="15"/>
+      <c r="HP58" s="15"/>
+      <c r="HQ58" s="15"/>
+      <c r="HR58" s="15"/>
+      <c r="HS58" s="15"/>
+      <c r="HT58" s="15"/>
+      <c r="HU58" s="15"/>
+      <c r="HV58" s="15"/>
+      <c r="HW58" s="15"/>
+      <c r="HX58" s="15"/>
+      <c r="HY58" s="15"/>
+      <c r="HZ58" s="15"/>
+      <c r="IA58" s="15"/>
+      <c r="IB58" s="15"/>
+      <c r="IC58" s="15"/>
+      <c r="ID58" s="15"/>
+      <c r="IE58" s="15"/>
+      <c r="IF58" s="15"/>
+      <c r="IG58" s="15"/>
+      <c r="IH58" s="15"/>
+      <c r="II58" s="15"/>
+      <c r="IJ58" s="15"/>
+      <c r="IK58" s="15"/>
+      <c r="IL58" s="15"/>
+      <c r="IM58" s="15"/>
+      <c r="IN58" s="15"/>
+      <c r="IO58" s="15"/>
+      <c r="IP58" s="15"/>
+      <c r="IQ58" s="15"/>
+      <c r="IR58" s="15"/>
+      <c r="IS58" s="15"/>
+      <c r="IT58" s="15"/>
+      <c r="IU58" s="15"/>
+      <c r="IV58" s="15"/>
+      <c r="IW58" s="15"/>
+      <c r="IX58" s="15"/>
+      <c r="IY58" s="15"/>
+      <c r="IZ58" s="15"/>
+      <c r="JA58" s="15"/>
+      <c r="JB58" s="15"/>
+      <c r="JC58" s="15"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
@@ -45243,107 +45255,107 @@
       <c r="GJ59" s="0" t="n">
         <v>5989</v>
       </c>
-      <c r="GK59" s="14" t="n">
+      <c r="GK59" s="13" t="n">
         <v>64.7</v>
       </c>
-      <c r="GL59" s="14" t="n">
+      <c r="GL59" s="13" t="n">
         <v>1.27</v>
       </c>
-      <c r="GM59" s="14" t="n">
+      <c r="GM59" s="13" t="n">
         <v>0.0895</v>
       </c>
-      <c r="GN59" s="14" t="n">
+      <c r="GN59" s="13" t="n">
         <v>11.2</v>
       </c>
-      <c r="GO59" s="14" t="n">
+      <c r="GO59" s="13" t="n">
         <v>0.0823</v>
       </c>
-      <c r="GP59" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ59" s="14" t="n">
+      <c r="GP59" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ59" s="13" t="n">
         <v>5.88</v>
       </c>
-      <c r="GR59" s="14" t="n">
+      <c r="GR59" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GS59" s="14" t="n">
+      <c r="GS59" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GT59" s="14" t="n">
+      <c r="GT59" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GU59" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV59" s="14" t="n">
+      <c r="GU59" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV59" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GW59" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX59" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY59" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ59" s="15"/>
-      <c r="HA59" s="16"/>
-      <c r="HB59" s="16"/>
-      <c r="HC59" s="16"/>
-      <c r="HD59" s="16"/>
-      <c r="HE59" s="16"/>
-      <c r="HF59" s="16"/>
-      <c r="HG59" s="16"/>
-      <c r="HH59" s="16"/>
-      <c r="HI59" s="16"/>
-      <c r="HJ59" s="16"/>
-      <c r="HK59" s="16"/>
-      <c r="HL59" s="16"/>
-      <c r="HM59" s="16"/>
-      <c r="HN59" s="16"/>
-      <c r="HO59" s="16"/>
-      <c r="HP59" s="16"/>
-      <c r="HQ59" s="16"/>
-      <c r="HR59" s="16"/>
-      <c r="HS59" s="16"/>
-      <c r="HT59" s="16"/>
-      <c r="HU59" s="16"/>
-      <c r="HV59" s="16"/>
-      <c r="HW59" s="16"/>
-      <c r="HX59" s="16"/>
-      <c r="HY59" s="16"/>
-      <c r="HZ59" s="16"/>
-      <c r="IA59" s="16"/>
-      <c r="IB59" s="16"/>
-      <c r="IC59" s="16"/>
-      <c r="ID59" s="16"/>
-      <c r="IE59" s="16"/>
-      <c r="IF59" s="16"/>
-      <c r="IG59" s="16"/>
-      <c r="IH59" s="16"/>
-      <c r="II59" s="16"/>
-      <c r="IJ59" s="16"/>
-      <c r="IK59" s="16"/>
-      <c r="IL59" s="16"/>
-      <c r="IM59" s="16"/>
-      <c r="IN59" s="16"/>
-      <c r="IO59" s="16"/>
-      <c r="IP59" s="16"/>
-      <c r="IQ59" s="16"/>
-      <c r="IR59" s="16"/>
-      <c r="IS59" s="16"/>
-      <c r="IT59" s="16"/>
-      <c r="IU59" s="16"/>
-      <c r="IV59" s="16"/>
-      <c r="IW59" s="16"/>
-      <c r="IX59" s="16"/>
-      <c r="IY59" s="16"/>
-      <c r="IZ59" s="16"/>
-      <c r="JA59" s="16"/>
-      <c r="JB59" s="16"/>
-      <c r="JC59" s="16"/>
+      <c r="GW59" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX59" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY59" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ59" s="14"/>
+      <c r="HA59" s="15"/>
+      <c r="HB59" s="15"/>
+      <c r="HC59" s="15"/>
+      <c r="HD59" s="15"/>
+      <c r="HE59" s="15"/>
+      <c r="HF59" s="15"/>
+      <c r="HG59" s="15"/>
+      <c r="HH59" s="15"/>
+      <c r="HI59" s="15"/>
+      <c r="HJ59" s="15"/>
+      <c r="HK59" s="15"/>
+      <c r="HL59" s="15"/>
+      <c r="HM59" s="15"/>
+      <c r="HN59" s="15"/>
+      <c r="HO59" s="15"/>
+      <c r="HP59" s="15"/>
+      <c r="HQ59" s="15"/>
+      <c r="HR59" s="15"/>
+      <c r="HS59" s="15"/>
+      <c r="HT59" s="15"/>
+      <c r="HU59" s="15"/>
+      <c r="HV59" s="15"/>
+      <c r="HW59" s="15"/>
+      <c r="HX59" s="15"/>
+      <c r="HY59" s="15"/>
+      <c r="HZ59" s="15"/>
+      <c r="IA59" s="15"/>
+      <c r="IB59" s="15"/>
+      <c r="IC59" s="15"/>
+      <c r="ID59" s="15"/>
+      <c r="IE59" s="15"/>
+      <c r="IF59" s="15"/>
+      <c r="IG59" s="15"/>
+      <c r="IH59" s="15"/>
+      <c r="II59" s="15"/>
+      <c r="IJ59" s="15"/>
+      <c r="IK59" s="15"/>
+      <c r="IL59" s="15"/>
+      <c r="IM59" s="15"/>
+      <c r="IN59" s="15"/>
+      <c r="IO59" s="15"/>
+      <c r="IP59" s="15"/>
+      <c r="IQ59" s="15"/>
+      <c r="IR59" s="15"/>
+      <c r="IS59" s="15"/>
+      <c r="IT59" s="15"/>
+      <c r="IU59" s="15"/>
+      <c r="IV59" s="15"/>
+      <c r="IW59" s="15"/>
+      <c r="IX59" s="15"/>
+      <c r="IY59" s="15"/>
+      <c r="IZ59" s="15"/>
+      <c r="JA59" s="15"/>
+      <c r="JB59" s="15"/>
+      <c r="JC59" s="15"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
@@ -45919,107 +45931,107 @@
       <c r="GJ60" s="0" t="n">
         <v>4865</v>
       </c>
-      <c r="GK60" s="14" t="n">
+      <c r="GK60" s="13" t="n">
         <v>64.7</v>
       </c>
-      <c r="GL60" s="14" t="n">
+      <c r="GL60" s="13" t="n">
         <v>2.91</v>
       </c>
-      <c r="GM60" s="14" t="n">
+      <c r="GM60" s="13" t="n">
         <v>0.178</v>
       </c>
-      <c r="GN60" s="14" t="n">
+      <c r="GN60" s="13" t="n">
         <v>14.7</v>
       </c>
-      <c r="GO60" s="14" t="n">
+      <c r="GO60" s="13" t="n">
         <v>0.159</v>
       </c>
-      <c r="GP60" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ60" s="14" t="n">
+      <c r="GP60" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ60" s="13" t="n">
         <v>4.27</v>
       </c>
-      <c r="GR60" s="14" t="n">
+      <c r="GR60" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GS60" s="14" t="n">
+      <c r="GS60" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GT60" s="14" t="n">
+      <c r="GT60" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GU60" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV60" s="14" t="n">
+      <c r="GU60" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV60" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GW60" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX60" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY60" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ60" s="15"/>
-      <c r="HA60" s="16"/>
-      <c r="HB60" s="16"/>
-      <c r="HC60" s="16"/>
-      <c r="HD60" s="16"/>
-      <c r="HE60" s="16"/>
-      <c r="HF60" s="16"/>
-      <c r="HG60" s="16"/>
-      <c r="HH60" s="16"/>
-      <c r="HI60" s="16"/>
-      <c r="HJ60" s="16"/>
-      <c r="HK60" s="16"/>
-      <c r="HL60" s="16"/>
-      <c r="HM60" s="16"/>
-      <c r="HN60" s="16"/>
-      <c r="HO60" s="16"/>
-      <c r="HP60" s="16"/>
-      <c r="HQ60" s="16"/>
-      <c r="HR60" s="16"/>
-      <c r="HS60" s="16"/>
-      <c r="HT60" s="16"/>
-      <c r="HU60" s="16"/>
-      <c r="HV60" s="16"/>
-      <c r="HW60" s="16"/>
-      <c r="HX60" s="16"/>
-      <c r="HY60" s="16"/>
-      <c r="HZ60" s="16"/>
-      <c r="IA60" s="16"/>
-      <c r="IB60" s="16"/>
-      <c r="IC60" s="16"/>
-      <c r="ID60" s="16"/>
-      <c r="IE60" s="16"/>
-      <c r="IF60" s="16"/>
-      <c r="IG60" s="16"/>
-      <c r="IH60" s="16"/>
-      <c r="II60" s="16"/>
-      <c r="IJ60" s="16"/>
-      <c r="IK60" s="16"/>
-      <c r="IL60" s="16"/>
-      <c r="IM60" s="16"/>
-      <c r="IN60" s="16"/>
-      <c r="IO60" s="16"/>
-      <c r="IP60" s="16"/>
-      <c r="IQ60" s="16"/>
-      <c r="IR60" s="16"/>
-      <c r="IS60" s="16"/>
-      <c r="IT60" s="16"/>
-      <c r="IU60" s="16"/>
-      <c r="IV60" s="16"/>
-      <c r="IW60" s="16"/>
-      <c r="IX60" s="16"/>
-      <c r="IY60" s="16"/>
-      <c r="IZ60" s="16"/>
-      <c r="JA60" s="16"/>
-      <c r="JB60" s="16"/>
-      <c r="JC60" s="16"/>
+      <c r="GW60" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX60" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY60" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ60" s="14"/>
+      <c r="HA60" s="15"/>
+      <c r="HB60" s="15"/>
+      <c r="HC60" s="15"/>
+      <c r="HD60" s="15"/>
+      <c r="HE60" s="15"/>
+      <c r="HF60" s="15"/>
+      <c r="HG60" s="15"/>
+      <c r="HH60" s="15"/>
+      <c r="HI60" s="15"/>
+      <c r="HJ60" s="15"/>
+      <c r="HK60" s="15"/>
+      <c r="HL60" s="15"/>
+      <c r="HM60" s="15"/>
+      <c r="HN60" s="15"/>
+      <c r="HO60" s="15"/>
+      <c r="HP60" s="15"/>
+      <c r="HQ60" s="15"/>
+      <c r="HR60" s="15"/>
+      <c r="HS60" s="15"/>
+      <c r="HT60" s="15"/>
+      <c r="HU60" s="15"/>
+      <c r="HV60" s="15"/>
+      <c r="HW60" s="15"/>
+      <c r="HX60" s="15"/>
+      <c r="HY60" s="15"/>
+      <c r="HZ60" s="15"/>
+      <c r="IA60" s="15"/>
+      <c r="IB60" s="15"/>
+      <c r="IC60" s="15"/>
+      <c r="ID60" s="15"/>
+      <c r="IE60" s="15"/>
+      <c r="IF60" s="15"/>
+      <c r="IG60" s="15"/>
+      <c r="IH60" s="15"/>
+      <c r="II60" s="15"/>
+      <c r="IJ60" s="15"/>
+      <c r="IK60" s="15"/>
+      <c r="IL60" s="15"/>
+      <c r="IM60" s="15"/>
+      <c r="IN60" s="15"/>
+      <c r="IO60" s="15"/>
+      <c r="IP60" s="15"/>
+      <c r="IQ60" s="15"/>
+      <c r="IR60" s="15"/>
+      <c r="IS60" s="15"/>
+      <c r="IT60" s="15"/>
+      <c r="IU60" s="15"/>
+      <c r="IV60" s="15"/>
+      <c r="IW60" s="15"/>
+      <c r="IX60" s="15"/>
+      <c r="IY60" s="15"/>
+      <c r="IZ60" s="15"/>
+      <c r="JA60" s="15"/>
+      <c r="JB60" s="15"/>
+      <c r="JC60" s="15"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
@@ -46595,107 +46607,107 @@
       <c r="GJ61" s="0" t="n">
         <v>4124</v>
       </c>
-      <c r="GK61" s="14" t="n">
+      <c r="GK61" s="13" t="n">
         <v>41</v>
       </c>
-      <c r="GL61" s="14" t="n">
+      <c r="GL61" s="13" t="n">
         <v>4.52</v>
       </c>
-      <c r="GM61" s="14" t="n">
+      <c r="GM61" s="13" t="n">
         <v>0.205</v>
       </c>
-      <c r="GN61" s="14" t="n">
+      <c r="GN61" s="13" t="n">
         <v>10.2</v>
       </c>
-      <c r="GO61" s="14" t="n">
+      <c r="GO61" s="13" t="n">
         <v>0.125</v>
       </c>
-      <c r="GP61" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ61" s="14" t="n">
+      <c r="GP61" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ61" s="13" t="n">
         <v>1.99</v>
       </c>
-      <c r="GR61" s="14" t="n">
+      <c r="GR61" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GS61" s="14" t="n">
+      <c r="GS61" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GT61" s="14" t="n">
+      <c r="GT61" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GU61" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV61" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW61" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX61" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY61" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ61" s="15"/>
-      <c r="HA61" s="16"/>
-      <c r="HB61" s="16"/>
-      <c r="HC61" s="16"/>
-      <c r="HD61" s="16"/>
-      <c r="HE61" s="16"/>
-      <c r="HF61" s="16"/>
-      <c r="HG61" s="16"/>
-      <c r="HH61" s="16"/>
-      <c r="HI61" s="16"/>
-      <c r="HJ61" s="16"/>
-      <c r="HK61" s="16"/>
-      <c r="HL61" s="16"/>
-      <c r="HM61" s="16"/>
-      <c r="HN61" s="16"/>
-      <c r="HO61" s="16"/>
-      <c r="HP61" s="16"/>
-      <c r="HQ61" s="16"/>
-      <c r="HR61" s="16"/>
-      <c r="HS61" s="16"/>
-      <c r="HT61" s="16"/>
-      <c r="HU61" s="16"/>
-      <c r="HV61" s="16"/>
-      <c r="HW61" s="16"/>
-      <c r="HX61" s="16"/>
-      <c r="HY61" s="16"/>
-      <c r="HZ61" s="16"/>
-      <c r="IA61" s="16"/>
-      <c r="IB61" s="16"/>
-      <c r="IC61" s="16"/>
-      <c r="ID61" s="16"/>
-      <c r="IE61" s="16"/>
-      <c r="IF61" s="16"/>
-      <c r="IG61" s="16"/>
-      <c r="IH61" s="16"/>
-      <c r="II61" s="16"/>
-      <c r="IJ61" s="16"/>
-      <c r="IK61" s="16"/>
-      <c r="IL61" s="16"/>
-      <c r="IM61" s="16"/>
-      <c r="IN61" s="16"/>
-      <c r="IO61" s="16"/>
-      <c r="IP61" s="16"/>
-      <c r="IQ61" s="16"/>
-      <c r="IR61" s="16"/>
-      <c r="IS61" s="16"/>
-      <c r="IT61" s="16"/>
-      <c r="IU61" s="16"/>
-      <c r="IV61" s="16"/>
-      <c r="IW61" s="16"/>
-      <c r="IX61" s="16"/>
-      <c r="IY61" s="16"/>
-      <c r="IZ61" s="16"/>
-      <c r="JA61" s="16"/>
-      <c r="JB61" s="16"/>
-      <c r="JC61" s="16"/>
+      <c r="GU61" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV61" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW61" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX61" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY61" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ61" s="14"/>
+      <c r="HA61" s="15"/>
+      <c r="HB61" s="15"/>
+      <c r="HC61" s="15"/>
+      <c r="HD61" s="15"/>
+      <c r="HE61" s="15"/>
+      <c r="HF61" s="15"/>
+      <c r="HG61" s="15"/>
+      <c r="HH61" s="15"/>
+      <c r="HI61" s="15"/>
+      <c r="HJ61" s="15"/>
+      <c r="HK61" s="15"/>
+      <c r="HL61" s="15"/>
+      <c r="HM61" s="15"/>
+      <c r="HN61" s="15"/>
+      <c r="HO61" s="15"/>
+      <c r="HP61" s="15"/>
+      <c r="HQ61" s="15"/>
+      <c r="HR61" s="15"/>
+      <c r="HS61" s="15"/>
+      <c r="HT61" s="15"/>
+      <c r="HU61" s="15"/>
+      <c r="HV61" s="15"/>
+      <c r="HW61" s="15"/>
+      <c r="HX61" s="15"/>
+      <c r="HY61" s="15"/>
+      <c r="HZ61" s="15"/>
+      <c r="IA61" s="15"/>
+      <c r="IB61" s="15"/>
+      <c r="IC61" s="15"/>
+      <c r="ID61" s="15"/>
+      <c r="IE61" s="15"/>
+      <c r="IF61" s="15"/>
+      <c r="IG61" s="15"/>
+      <c r="IH61" s="15"/>
+      <c r="II61" s="15"/>
+      <c r="IJ61" s="15"/>
+      <c r="IK61" s="15"/>
+      <c r="IL61" s="15"/>
+      <c r="IM61" s="15"/>
+      <c r="IN61" s="15"/>
+      <c r="IO61" s="15"/>
+      <c r="IP61" s="15"/>
+      <c r="IQ61" s="15"/>
+      <c r="IR61" s="15"/>
+      <c r="IS61" s="15"/>
+      <c r="IT61" s="15"/>
+      <c r="IU61" s="15"/>
+      <c r="IV61" s="15"/>
+      <c r="IW61" s="15"/>
+      <c r="IX61" s="15"/>
+      <c r="IY61" s="15"/>
+      <c r="IZ61" s="15"/>
+      <c r="JA61" s="15"/>
+      <c r="JB61" s="15"/>
+      <c r="JC61" s="15"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
@@ -47271,107 +47283,107 @@
       <c r="GJ62" s="0" t="n">
         <v>5450</v>
       </c>
-      <c r="GK62" s="14" t="n">
+      <c r="GK62" s="13" t="n">
         <v>42.4</v>
       </c>
-      <c r="GL62" s="14" t="n">
+      <c r="GL62" s="13" t="n">
         <v>1.01</v>
       </c>
-      <c r="GM62" s="14" t="n">
+      <c r="GM62" s="13" t="n">
         <v>0.0634</v>
       </c>
-      <c r="GN62" s="14" t="n">
+      <c r="GN62" s="13" t="n">
         <v>5.75</v>
       </c>
-      <c r="GO62" s="14" t="n">
+      <c r="GO62" s="13" t="n">
         <v>0.0896</v>
       </c>
-      <c r="GP62" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ62" s="14" t="n">
+      <c r="GP62" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ62" s="13" t="n">
         <v>5.29</v>
       </c>
-      <c r="GR62" s="14" t="n">
+      <c r="GR62" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GS62" s="14" t="n">
+      <c r="GS62" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GT62" s="14" t="n">
+      <c r="GT62" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GU62" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV62" s="14" t="n">
+      <c r="GU62" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV62" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GW62" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX62" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY62" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ62" s="15"/>
-      <c r="HA62" s="16"/>
-      <c r="HB62" s="16"/>
-      <c r="HC62" s="16"/>
-      <c r="HD62" s="16"/>
-      <c r="HE62" s="16"/>
-      <c r="HF62" s="16"/>
-      <c r="HG62" s="16"/>
-      <c r="HH62" s="16"/>
-      <c r="HI62" s="16"/>
-      <c r="HJ62" s="16"/>
-      <c r="HK62" s="16"/>
-      <c r="HL62" s="16"/>
-      <c r="HM62" s="16"/>
-      <c r="HN62" s="16"/>
-      <c r="HO62" s="16"/>
-      <c r="HP62" s="16"/>
-      <c r="HQ62" s="16"/>
-      <c r="HR62" s="16"/>
-      <c r="HS62" s="16"/>
-      <c r="HT62" s="16"/>
-      <c r="HU62" s="16"/>
-      <c r="HV62" s="16"/>
-      <c r="HW62" s="16"/>
-      <c r="HX62" s="16"/>
-      <c r="HY62" s="16"/>
-      <c r="HZ62" s="16"/>
-      <c r="IA62" s="16"/>
-      <c r="IB62" s="16"/>
-      <c r="IC62" s="16"/>
-      <c r="ID62" s="16"/>
-      <c r="IE62" s="16"/>
-      <c r="IF62" s="16"/>
-      <c r="IG62" s="16"/>
-      <c r="IH62" s="16"/>
-      <c r="II62" s="16"/>
-      <c r="IJ62" s="16"/>
-      <c r="IK62" s="16"/>
-      <c r="IL62" s="16"/>
-      <c r="IM62" s="16"/>
-      <c r="IN62" s="16"/>
-      <c r="IO62" s="16"/>
-      <c r="IP62" s="16"/>
-      <c r="IQ62" s="16"/>
-      <c r="IR62" s="16"/>
-      <c r="IS62" s="16"/>
-      <c r="IT62" s="16"/>
-      <c r="IU62" s="16"/>
-      <c r="IV62" s="16"/>
-      <c r="IW62" s="16"/>
-      <c r="IX62" s="16"/>
-      <c r="IY62" s="16"/>
-      <c r="IZ62" s="16"/>
-      <c r="JA62" s="16"/>
-      <c r="JB62" s="16"/>
-      <c r="JC62" s="16"/>
+      <c r="GW62" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX62" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY62" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ62" s="14"/>
+      <c r="HA62" s="15"/>
+      <c r="HB62" s="15"/>
+      <c r="HC62" s="15"/>
+      <c r="HD62" s="15"/>
+      <c r="HE62" s="15"/>
+      <c r="HF62" s="15"/>
+      <c r="HG62" s="15"/>
+      <c r="HH62" s="15"/>
+      <c r="HI62" s="15"/>
+      <c r="HJ62" s="15"/>
+      <c r="HK62" s="15"/>
+      <c r="HL62" s="15"/>
+      <c r="HM62" s="15"/>
+      <c r="HN62" s="15"/>
+      <c r="HO62" s="15"/>
+      <c r="HP62" s="15"/>
+      <c r="HQ62" s="15"/>
+      <c r="HR62" s="15"/>
+      <c r="HS62" s="15"/>
+      <c r="HT62" s="15"/>
+      <c r="HU62" s="15"/>
+      <c r="HV62" s="15"/>
+      <c r="HW62" s="15"/>
+      <c r="HX62" s="15"/>
+      <c r="HY62" s="15"/>
+      <c r="HZ62" s="15"/>
+      <c r="IA62" s="15"/>
+      <c r="IB62" s="15"/>
+      <c r="IC62" s="15"/>
+      <c r="ID62" s="15"/>
+      <c r="IE62" s="15"/>
+      <c r="IF62" s="15"/>
+      <c r="IG62" s="15"/>
+      <c r="IH62" s="15"/>
+      <c r="II62" s="15"/>
+      <c r="IJ62" s="15"/>
+      <c r="IK62" s="15"/>
+      <c r="IL62" s="15"/>
+      <c r="IM62" s="15"/>
+      <c r="IN62" s="15"/>
+      <c r="IO62" s="15"/>
+      <c r="IP62" s="15"/>
+      <c r="IQ62" s="15"/>
+      <c r="IR62" s="15"/>
+      <c r="IS62" s="15"/>
+      <c r="IT62" s="15"/>
+      <c r="IU62" s="15"/>
+      <c r="IV62" s="15"/>
+      <c r="IW62" s="15"/>
+      <c r="IX62" s="15"/>
+      <c r="IY62" s="15"/>
+      <c r="IZ62" s="15"/>
+      <c r="JA62" s="15"/>
+      <c r="JB62" s="15"/>
+      <c r="JC62" s="15"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
@@ -47386,107 +47398,107 @@
       <c r="D63" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="GK63" s="14" t="n">
+      <c r="GK63" s="13" t="n">
         <v>7.39</v>
       </c>
-      <c r="GL63" s="14" t="n">
+      <c r="GL63" s="13" t="n">
         <v>0.2</v>
       </c>
-      <c r="GM63" s="14" t="n">
+      <c r="GM63" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GN63" s="14" t="n">
+      <c r="GN63" s="13" t="n">
         <v>1.56</v>
       </c>
-      <c r="GO63" s="14" t="n">
+      <c r="GO63" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GP63" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ63" s="14" t="n">
+      <c r="GP63" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ63" s="13" t="n">
         <v>1.03</v>
       </c>
-      <c r="GR63" s="14" t="n">
+      <c r="GR63" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GS63" s="14" t="n">
+      <c r="GS63" s="13" t="n">
         <v>0.324</v>
       </c>
-      <c r="GT63" s="14" t="n">
+      <c r="GT63" s="13" t="n">
         <v>0.0941</v>
       </c>
-      <c r="GU63" s="14" t="n">
+      <c r="GU63" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GV63" s="14" t="n">
+      <c r="GV63" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GW63" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX63" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY63" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ63" s="15"/>
-      <c r="HA63" s="16"/>
-      <c r="HB63" s="16"/>
-      <c r="HC63" s="16"/>
-      <c r="HD63" s="16"/>
-      <c r="HE63" s="16"/>
-      <c r="HF63" s="16"/>
-      <c r="HG63" s="16"/>
-      <c r="HH63" s="16"/>
-      <c r="HI63" s="16"/>
-      <c r="HJ63" s="16"/>
-      <c r="HK63" s="16"/>
-      <c r="HL63" s="16"/>
-      <c r="HM63" s="16"/>
-      <c r="HN63" s="16"/>
-      <c r="HO63" s="16"/>
-      <c r="HP63" s="16"/>
-      <c r="HQ63" s="16"/>
-      <c r="HR63" s="16"/>
-      <c r="HS63" s="16"/>
-      <c r="HT63" s="16"/>
-      <c r="HU63" s="16"/>
-      <c r="HV63" s="16"/>
-      <c r="HW63" s="16"/>
-      <c r="HX63" s="16"/>
-      <c r="HY63" s="16"/>
-      <c r="HZ63" s="16"/>
-      <c r="IA63" s="16"/>
-      <c r="IB63" s="16"/>
-      <c r="IC63" s="16"/>
-      <c r="ID63" s="16"/>
-      <c r="IE63" s="16"/>
-      <c r="IF63" s="16"/>
-      <c r="IG63" s="16"/>
-      <c r="IH63" s="16"/>
-      <c r="II63" s="16"/>
-      <c r="IJ63" s="16"/>
-      <c r="IK63" s="16"/>
-      <c r="IL63" s="16"/>
-      <c r="IM63" s="16"/>
-      <c r="IN63" s="16"/>
-      <c r="IO63" s="16"/>
-      <c r="IP63" s="16"/>
-      <c r="IQ63" s="16"/>
-      <c r="IR63" s="16"/>
-      <c r="IS63" s="16"/>
-      <c r="IT63" s="16"/>
-      <c r="IU63" s="16"/>
-      <c r="IV63" s="16"/>
-      <c r="IW63" s="16"/>
-      <c r="IX63" s="16"/>
-      <c r="IY63" s="16"/>
-      <c r="IZ63" s="16"/>
-      <c r="JA63" s="16"/>
-      <c r="JB63" s="16"/>
-      <c r="JC63" s="16"/>
+      <c r="GW63" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX63" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY63" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ63" s="14"/>
+      <c r="HA63" s="15"/>
+      <c r="HB63" s="15"/>
+      <c r="HC63" s="15"/>
+      <c r="HD63" s="15"/>
+      <c r="HE63" s="15"/>
+      <c r="HF63" s="15"/>
+      <c r="HG63" s="15"/>
+      <c r="HH63" s="15"/>
+      <c r="HI63" s="15"/>
+      <c r="HJ63" s="15"/>
+      <c r="HK63" s="15"/>
+      <c r="HL63" s="15"/>
+      <c r="HM63" s="15"/>
+      <c r="HN63" s="15"/>
+      <c r="HO63" s="15"/>
+      <c r="HP63" s="15"/>
+      <c r="HQ63" s="15"/>
+      <c r="HR63" s="15"/>
+      <c r="HS63" s="15"/>
+      <c r="HT63" s="15"/>
+      <c r="HU63" s="15"/>
+      <c r="HV63" s="15"/>
+      <c r="HW63" s="15"/>
+      <c r="HX63" s="15"/>
+      <c r="HY63" s="15"/>
+      <c r="HZ63" s="15"/>
+      <c r="IA63" s="15"/>
+      <c r="IB63" s="15"/>
+      <c r="IC63" s="15"/>
+      <c r="ID63" s="15"/>
+      <c r="IE63" s="15"/>
+      <c r="IF63" s="15"/>
+      <c r="IG63" s="15"/>
+      <c r="IH63" s="15"/>
+      <c r="II63" s="15"/>
+      <c r="IJ63" s="15"/>
+      <c r="IK63" s="15"/>
+      <c r="IL63" s="15"/>
+      <c r="IM63" s="15"/>
+      <c r="IN63" s="15"/>
+      <c r="IO63" s="15"/>
+      <c r="IP63" s="15"/>
+      <c r="IQ63" s="15"/>
+      <c r="IR63" s="15"/>
+      <c r="IS63" s="15"/>
+      <c r="IT63" s="15"/>
+      <c r="IU63" s="15"/>
+      <c r="IV63" s="15"/>
+      <c r="IW63" s="15"/>
+      <c r="IX63" s="15"/>
+      <c r="IY63" s="15"/>
+      <c r="IZ63" s="15"/>
+      <c r="JA63" s="15"/>
+      <c r="JB63" s="15"/>
+      <c r="JC63" s="15"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
@@ -48062,107 +48074,107 @@
       <c r="GJ64" s="0" t="n">
         <v>1161</v>
       </c>
-      <c r="GK64" s="14" t="n">
+      <c r="GK64" s="13" t="n">
         <v>10.8</v>
       </c>
-      <c r="GL64" s="14" t="n">
+      <c r="GL64" s="13" t="n">
         <v>0.57</v>
       </c>
-      <c r="GM64" s="14" t="n">
+      <c r="GM64" s="13" t="n">
         <v>0.145</v>
       </c>
-      <c r="GN64" s="14" t="n">
+      <c r="GN64" s="13" t="n">
         <v>3.12</v>
       </c>
-      <c r="GO64" s="14" t="n">
+      <c r="GO64" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GP64" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ64" s="14" t="n">
+      <c r="GP64" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ64" s="13" t="n">
         <v>1.45</v>
       </c>
-      <c r="GR64" s="14" t="n">
+      <c r="GR64" s="13" t="n">
         <v>0.0751</v>
       </c>
-      <c r="GS64" s="14" t="n">
+      <c r="GS64" s="13" t="n">
         <v>0.543</v>
       </c>
-      <c r="GT64" s="14" t="n">
+      <c r="GT64" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GU64" s="14" t="n">
+      <c r="GU64" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GV64" s="14" t="n">
+      <c r="GV64" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GW64" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX64" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY64" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ64" s="15"/>
-      <c r="HA64" s="16"/>
-      <c r="HB64" s="16"/>
-      <c r="HC64" s="16"/>
-      <c r="HD64" s="16"/>
-      <c r="HE64" s="16"/>
-      <c r="HF64" s="16"/>
-      <c r="HG64" s="16"/>
-      <c r="HH64" s="16"/>
-      <c r="HI64" s="16"/>
-      <c r="HJ64" s="16"/>
-      <c r="HK64" s="16"/>
-      <c r="HL64" s="16"/>
-      <c r="HM64" s="16"/>
-      <c r="HN64" s="16"/>
-      <c r="HO64" s="16"/>
-      <c r="HP64" s="16"/>
-      <c r="HQ64" s="16"/>
-      <c r="HR64" s="16"/>
-      <c r="HS64" s="16"/>
-      <c r="HT64" s="16"/>
-      <c r="HU64" s="16"/>
-      <c r="HV64" s="16"/>
-      <c r="HW64" s="16"/>
-      <c r="HX64" s="16"/>
-      <c r="HY64" s="16"/>
-      <c r="HZ64" s="16"/>
-      <c r="IA64" s="16"/>
-      <c r="IB64" s="16"/>
-      <c r="IC64" s="16"/>
-      <c r="ID64" s="16"/>
-      <c r="IE64" s="16"/>
-      <c r="IF64" s="16"/>
-      <c r="IG64" s="16"/>
-      <c r="IH64" s="16"/>
-      <c r="II64" s="16"/>
-      <c r="IJ64" s="16"/>
-      <c r="IK64" s="16"/>
-      <c r="IL64" s="16"/>
-      <c r="IM64" s="16"/>
-      <c r="IN64" s="16"/>
-      <c r="IO64" s="16"/>
-      <c r="IP64" s="16"/>
-      <c r="IQ64" s="16"/>
-      <c r="IR64" s="16"/>
-      <c r="IS64" s="16"/>
-      <c r="IT64" s="16"/>
-      <c r="IU64" s="16"/>
-      <c r="IV64" s="16"/>
-      <c r="IW64" s="16"/>
-      <c r="IX64" s="16"/>
-      <c r="IY64" s="16"/>
-      <c r="IZ64" s="16"/>
-      <c r="JA64" s="16"/>
-      <c r="JB64" s="16"/>
-      <c r="JC64" s="16"/>
+      <c r="GW64" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX64" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY64" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ64" s="14"/>
+      <c r="HA64" s="15"/>
+      <c r="HB64" s="15"/>
+      <c r="HC64" s="15"/>
+      <c r="HD64" s="15"/>
+      <c r="HE64" s="15"/>
+      <c r="HF64" s="15"/>
+      <c r="HG64" s="15"/>
+      <c r="HH64" s="15"/>
+      <c r="HI64" s="15"/>
+      <c r="HJ64" s="15"/>
+      <c r="HK64" s="15"/>
+      <c r="HL64" s="15"/>
+      <c r="HM64" s="15"/>
+      <c r="HN64" s="15"/>
+      <c r="HO64" s="15"/>
+      <c r="HP64" s="15"/>
+      <c r="HQ64" s="15"/>
+      <c r="HR64" s="15"/>
+      <c r="HS64" s="15"/>
+      <c r="HT64" s="15"/>
+      <c r="HU64" s="15"/>
+      <c r="HV64" s="15"/>
+      <c r="HW64" s="15"/>
+      <c r="HX64" s="15"/>
+      <c r="HY64" s="15"/>
+      <c r="HZ64" s="15"/>
+      <c r="IA64" s="15"/>
+      <c r="IB64" s="15"/>
+      <c r="IC64" s="15"/>
+      <c r="ID64" s="15"/>
+      <c r="IE64" s="15"/>
+      <c r="IF64" s="15"/>
+      <c r="IG64" s="15"/>
+      <c r="IH64" s="15"/>
+      <c r="II64" s="15"/>
+      <c r="IJ64" s="15"/>
+      <c r="IK64" s="15"/>
+      <c r="IL64" s="15"/>
+      <c r="IM64" s="15"/>
+      <c r="IN64" s="15"/>
+      <c r="IO64" s="15"/>
+      <c r="IP64" s="15"/>
+      <c r="IQ64" s="15"/>
+      <c r="IR64" s="15"/>
+      <c r="IS64" s="15"/>
+      <c r="IT64" s="15"/>
+      <c r="IU64" s="15"/>
+      <c r="IV64" s="15"/>
+      <c r="IW64" s="15"/>
+      <c r="IX64" s="15"/>
+      <c r="IY64" s="15"/>
+      <c r="IZ64" s="15"/>
+      <c r="JA64" s="15"/>
+      <c r="JB64" s="15"/>
+      <c r="JC64" s="15"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
@@ -48741,107 +48753,107 @@
       <c r="GJ65" s="0" t="n">
         <v>3214</v>
       </c>
-      <c r="GK65" s="14" t="n">
+      <c r="GK65" s="13" t="n">
         <v>35.1</v>
       </c>
-      <c r="GL65" s="14" t="n">
+      <c r="GL65" s="13" t="n">
         <v>35.4</v>
       </c>
-      <c r="GM65" s="14" t="n">
+      <c r="GM65" s="13" t="n">
         <v>2.05</v>
       </c>
-      <c r="GN65" s="14" t="n">
+      <c r="GN65" s="13" t="n">
         <v>2.77</v>
       </c>
-      <c r="GO65" s="14" t="n">
+      <c r="GO65" s="13" t="n">
         <v>0.0907</v>
       </c>
-      <c r="GP65" s="14" t="n">
+      <c r="GP65" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GQ65" s="14" t="n">
+      <c r="GQ65" s="13" t="n">
         <v>3.73</v>
       </c>
-      <c r="GR65" s="14" t="n">
+      <c r="GR65" s="13" t="n">
         <v>3.27</v>
       </c>
-      <c r="GS65" s="14" t="n">
+      <c r="GS65" s="13" t="n">
         <v>2.27</v>
       </c>
-      <c r="GT65" s="14" t="n">
+      <c r="GT65" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GU65" s="14" t="n">
+      <c r="GU65" s="13" t="n">
         <v>0.058</v>
       </c>
-      <c r="GV65" s="14" t="n">
+      <c r="GV65" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GW65" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX65" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY65" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ65" s="15"/>
-      <c r="HA65" s="16"/>
-      <c r="HB65" s="16"/>
-      <c r="HC65" s="16"/>
-      <c r="HD65" s="16"/>
-      <c r="HE65" s="16"/>
-      <c r="HF65" s="16"/>
-      <c r="HG65" s="16"/>
-      <c r="HH65" s="16"/>
-      <c r="HI65" s="16"/>
-      <c r="HJ65" s="16"/>
-      <c r="HK65" s="16"/>
-      <c r="HL65" s="16"/>
-      <c r="HM65" s="16"/>
-      <c r="HN65" s="16"/>
-      <c r="HO65" s="16"/>
-      <c r="HP65" s="16"/>
-      <c r="HQ65" s="16"/>
-      <c r="HR65" s="16"/>
-      <c r="HS65" s="16"/>
-      <c r="HT65" s="16"/>
-      <c r="HU65" s="16"/>
-      <c r="HV65" s="16"/>
-      <c r="HW65" s="16"/>
-      <c r="HX65" s="16"/>
-      <c r="HY65" s="16"/>
-      <c r="HZ65" s="16"/>
-      <c r="IA65" s="16"/>
-      <c r="IB65" s="16"/>
-      <c r="IC65" s="16"/>
-      <c r="ID65" s="16"/>
-      <c r="IE65" s="16"/>
-      <c r="IF65" s="16"/>
-      <c r="IG65" s="16"/>
-      <c r="IH65" s="16"/>
-      <c r="II65" s="16"/>
-      <c r="IJ65" s="16"/>
-      <c r="IK65" s="16"/>
-      <c r="IL65" s="16"/>
-      <c r="IM65" s="16"/>
-      <c r="IN65" s="16"/>
-      <c r="IO65" s="16"/>
-      <c r="IP65" s="16"/>
-      <c r="IQ65" s="16"/>
-      <c r="IR65" s="16"/>
-      <c r="IS65" s="16"/>
-      <c r="IT65" s="16"/>
-      <c r="IU65" s="16"/>
-      <c r="IV65" s="16"/>
-      <c r="IW65" s="16"/>
-      <c r="IX65" s="16"/>
-      <c r="IY65" s="16"/>
-      <c r="IZ65" s="16"/>
-      <c r="JA65" s="16"/>
-      <c r="JB65" s="16"/>
-      <c r="JC65" s="16"/>
+      <c r="GW65" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX65" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY65" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ65" s="14"/>
+      <c r="HA65" s="15"/>
+      <c r="HB65" s="15"/>
+      <c r="HC65" s="15"/>
+      <c r="HD65" s="15"/>
+      <c r="HE65" s="15"/>
+      <c r="HF65" s="15"/>
+      <c r="HG65" s="15"/>
+      <c r="HH65" s="15"/>
+      <c r="HI65" s="15"/>
+      <c r="HJ65" s="15"/>
+      <c r="HK65" s="15"/>
+      <c r="HL65" s="15"/>
+      <c r="HM65" s="15"/>
+      <c r="HN65" s="15"/>
+      <c r="HO65" s="15"/>
+      <c r="HP65" s="15"/>
+      <c r="HQ65" s="15"/>
+      <c r="HR65" s="15"/>
+      <c r="HS65" s="15"/>
+      <c r="HT65" s="15"/>
+      <c r="HU65" s="15"/>
+      <c r="HV65" s="15"/>
+      <c r="HW65" s="15"/>
+      <c r="HX65" s="15"/>
+      <c r="HY65" s="15"/>
+      <c r="HZ65" s="15"/>
+      <c r="IA65" s="15"/>
+      <c r="IB65" s="15"/>
+      <c r="IC65" s="15"/>
+      <c r="ID65" s="15"/>
+      <c r="IE65" s="15"/>
+      <c r="IF65" s="15"/>
+      <c r="IG65" s="15"/>
+      <c r="IH65" s="15"/>
+      <c r="II65" s="15"/>
+      <c r="IJ65" s="15"/>
+      <c r="IK65" s="15"/>
+      <c r="IL65" s="15"/>
+      <c r="IM65" s="15"/>
+      <c r="IN65" s="15"/>
+      <c r="IO65" s="15"/>
+      <c r="IP65" s="15"/>
+      <c r="IQ65" s="15"/>
+      <c r="IR65" s="15"/>
+      <c r="IS65" s="15"/>
+      <c r="IT65" s="15"/>
+      <c r="IU65" s="15"/>
+      <c r="IV65" s="15"/>
+      <c r="IW65" s="15"/>
+      <c r="IX65" s="15"/>
+      <c r="IY65" s="15"/>
+      <c r="IZ65" s="15"/>
+      <c r="JA65" s="15"/>
+      <c r="JB65" s="15"/>
+      <c r="JC65" s="15"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
@@ -49417,372 +49429,372 @@
       <c r="GJ66" s="0" t="n">
         <v>3066</v>
       </c>
-      <c r="GK66" s="14" t="n">
+      <c r="GK66" s="13" t="n">
         <v>22</v>
       </c>
-      <c r="GL66" s="14" t="n">
+      <c r="GL66" s="13" t="n">
         <v>1.15</v>
       </c>
-      <c r="GM66" s="14" t="n">
+      <c r="GM66" s="13" t="n">
         <v>0.084</v>
       </c>
-      <c r="GN66" s="14" t="n">
+      <c r="GN66" s="13" t="n">
         <v>3.11</v>
       </c>
-      <c r="GO66" s="14" t="n">
+      <c r="GO66" s="13" t="n">
         <v>0.12</v>
       </c>
-      <c r="GP66" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ66" s="14" t="n">
+      <c r="GP66" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ66" s="13" t="n">
         <v>2.61</v>
       </c>
-      <c r="GR66" s="14" t="n">
+      <c r="GR66" s="13" t="n">
         <v>0.0773</v>
       </c>
-      <c r="GS66" s="14" t="n">
+      <c r="GS66" s="13" t="n">
         <v>0.191</v>
       </c>
-      <c r="GT66" s="14" t="n">
+      <c r="GT66" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GU66" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV66" s="14" t="n">
+      <c r="GU66" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV66" s="13" t="n">
         <v>0.05</v>
       </c>
-      <c r="GW66" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX66" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY66" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ66" s="15"/>
-      <c r="HA66" s="16"/>
-      <c r="HB66" s="16"/>
-      <c r="HC66" s="16"/>
-      <c r="HD66" s="16"/>
-      <c r="HE66" s="16"/>
-      <c r="HF66" s="16"/>
-      <c r="HG66" s="16"/>
-      <c r="HH66" s="16"/>
-      <c r="HI66" s="16"/>
-      <c r="HJ66" s="16"/>
-      <c r="HK66" s="16"/>
-      <c r="HL66" s="16"/>
-      <c r="HM66" s="16"/>
-      <c r="HN66" s="16"/>
-      <c r="HO66" s="16"/>
-      <c r="HP66" s="16"/>
-      <c r="HQ66" s="16"/>
-      <c r="HR66" s="16"/>
-      <c r="HS66" s="16"/>
-      <c r="HT66" s="16"/>
-      <c r="HU66" s="16"/>
-      <c r="HV66" s="16"/>
-      <c r="HW66" s="16"/>
-      <c r="HX66" s="16"/>
-      <c r="HY66" s="16"/>
-      <c r="HZ66" s="16"/>
-      <c r="IA66" s="16"/>
-      <c r="IB66" s="16"/>
-      <c r="IC66" s="16"/>
-      <c r="ID66" s="16"/>
-      <c r="IE66" s="16"/>
-      <c r="IF66" s="16"/>
-      <c r="IG66" s="16"/>
-      <c r="IH66" s="16"/>
-      <c r="II66" s="16"/>
-      <c r="IJ66" s="16"/>
-      <c r="IK66" s="16"/>
-      <c r="IL66" s="16"/>
-      <c r="IM66" s="16"/>
-      <c r="IN66" s="16"/>
-      <c r="IO66" s="16"/>
-      <c r="IP66" s="16"/>
-      <c r="IQ66" s="16"/>
-      <c r="IR66" s="16"/>
-      <c r="IS66" s="16"/>
-      <c r="IT66" s="16"/>
-      <c r="IU66" s="16"/>
-      <c r="IV66" s="16"/>
-      <c r="IW66" s="16"/>
-      <c r="IX66" s="16"/>
-      <c r="IY66" s="16"/>
-      <c r="IZ66" s="16"/>
-      <c r="JA66" s="16"/>
-      <c r="JB66" s="16"/>
-      <c r="JC66" s="16"/>
+      <c r="GW66" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX66" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY66" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ66" s="14"/>
+      <c r="HA66" s="15"/>
+      <c r="HB66" s="15"/>
+      <c r="HC66" s="15"/>
+      <c r="HD66" s="15"/>
+      <c r="HE66" s="15"/>
+      <c r="HF66" s="15"/>
+      <c r="HG66" s="15"/>
+      <c r="HH66" s="15"/>
+      <c r="HI66" s="15"/>
+      <c r="HJ66" s="15"/>
+      <c r="HK66" s="15"/>
+      <c r="HL66" s="15"/>
+      <c r="HM66" s="15"/>
+      <c r="HN66" s="15"/>
+      <c r="HO66" s="15"/>
+      <c r="HP66" s="15"/>
+      <c r="HQ66" s="15"/>
+      <c r="HR66" s="15"/>
+      <c r="HS66" s="15"/>
+      <c r="HT66" s="15"/>
+      <c r="HU66" s="15"/>
+      <c r="HV66" s="15"/>
+      <c r="HW66" s="15"/>
+      <c r="HX66" s="15"/>
+      <c r="HY66" s="15"/>
+      <c r="HZ66" s="15"/>
+      <c r="IA66" s="15"/>
+      <c r="IB66" s="15"/>
+      <c r="IC66" s="15"/>
+      <c r="ID66" s="15"/>
+      <c r="IE66" s="15"/>
+      <c r="IF66" s="15"/>
+      <c r="IG66" s="15"/>
+      <c r="IH66" s="15"/>
+      <c r="II66" s="15"/>
+      <c r="IJ66" s="15"/>
+      <c r="IK66" s="15"/>
+      <c r="IL66" s="15"/>
+      <c r="IM66" s="15"/>
+      <c r="IN66" s="15"/>
+      <c r="IO66" s="15"/>
+      <c r="IP66" s="15"/>
+      <c r="IQ66" s="15"/>
+      <c r="IR66" s="15"/>
+      <c r="IS66" s="15"/>
+      <c r="IT66" s="15"/>
+      <c r="IU66" s="15"/>
+      <c r="IV66" s="15"/>
+      <c r="IW66" s="15"/>
+      <c r="IX66" s="15"/>
+      <c r="IY66" s="15"/>
+      <c r="IZ66" s="15"/>
+      <c r="JA66" s="15"/>
+      <c r="JB66" s="15"/>
+      <c r="JC66" s="15"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
-      <c r="N67" s="11"/>
-      <c r="O67" s="11"/>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="11"/>
-      <c r="R67" s="11"/>
-      <c r="S67" s="11"/>
-      <c r="T67" s="11"/>
-      <c r="U67" s="11"/>
-      <c r="V67" s="11"/>
-      <c r="W67" s="11"/>
-      <c r="X67" s="11"/>
-      <c r="Y67" s="11"/>
-      <c r="Z67" s="11"/>
-      <c r="AA67" s="11"/>
-      <c r="AB67" s="11"/>
-      <c r="AC67" s="11"/>
-      <c r="AD67" s="11"/>
-      <c r="AE67" s="11"/>
-      <c r="AF67" s="11"/>
-      <c r="AG67" s="11"/>
-      <c r="AH67" s="11"/>
-      <c r="AI67" s="11"/>
-      <c r="AJ67" s="11"/>
-      <c r="AK67" s="11"/>
-      <c r="AL67" s="11"/>
-      <c r="AM67" s="11"/>
-      <c r="AN67" s="11"/>
-      <c r="AO67" s="11"/>
-      <c r="AP67" s="11"/>
-      <c r="AQ67" s="11"/>
-      <c r="AR67" s="11"/>
-      <c r="AS67" s="11"/>
-      <c r="AT67" s="11"/>
-      <c r="AU67" s="11"/>
-      <c r="AV67" s="11"/>
-      <c r="AW67" s="11"/>
-      <c r="AX67" s="11"/>
-      <c r="AY67" s="11"/>
-      <c r="AZ67" s="11"/>
-      <c r="BA67" s="11"/>
-      <c r="BB67" s="11"/>
-      <c r="BC67" s="11"/>
-      <c r="BD67" s="11"/>
-      <c r="BE67" s="11"/>
-      <c r="BF67" s="11"/>
-      <c r="BG67" s="11"/>
-      <c r="BH67" s="11"/>
-      <c r="BI67" s="11"/>
-      <c r="BJ67" s="11"/>
-      <c r="BK67" s="11"/>
-      <c r="BL67" s="11"/>
-      <c r="BM67" s="11"/>
-      <c r="BN67" s="11"/>
-      <c r="BO67" s="11"/>
-      <c r="BP67" s="11"/>
-      <c r="BQ67" s="11"/>
-      <c r="BR67" s="11"/>
-      <c r="BS67" s="11"/>
-      <c r="BT67" s="11"/>
-      <c r="BU67" s="11"/>
-      <c r="BV67" s="11"/>
-      <c r="BW67" s="11"/>
-      <c r="BX67" s="11"/>
-      <c r="BY67" s="11"/>
-      <c r="BZ67" s="11"/>
-      <c r="CA67" s="11"/>
-      <c r="CB67" s="11"/>
-      <c r="CC67" s="11"/>
-      <c r="CD67" s="11"/>
-      <c r="CE67" s="11"/>
-      <c r="CF67" s="11"/>
-      <c r="CG67" s="11"/>
-      <c r="CH67" s="11"/>
-      <c r="CI67" s="11"/>
-      <c r="CJ67" s="11"/>
-      <c r="CK67" s="11"/>
-      <c r="CL67" s="11"/>
-      <c r="CM67" s="11"/>
-      <c r="CN67" s="11"/>
-      <c r="CO67" s="11"/>
-      <c r="CP67" s="11"/>
-      <c r="CQ67" s="11"/>
-      <c r="CR67" s="11"/>
-      <c r="CS67" s="11"/>
-      <c r="CT67" s="11"/>
-      <c r="CU67" s="11"/>
-      <c r="CV67" s="11"/>
-      <c r="CW67" s="11"/>
-      <c r="CX67" s="11"/>
-      <c r="CY67" s="11"/>
-      <c r="CZ67" s="11"/>
-      <c r="DA67" s="11"/>
-      <c r="DB67" s="11"/>
-      <c r="DC67" s="11"/>
-      <c r="DD67" s="11"/>
-      <c r="DE67" s="11"/>
-      <c r="DF67" s="11"/>
-      <c r="DG67" s="11"/>
-      <c r="DH67" s="11"/>
-      <c r="DI67" s="11"/>
-      <c r="DJ67" s="11"/>
-      <c r="DK67" s="11"/>
-      <c r="DL67" s="11"/>
-      <c r="DM67" s="11"/>
-      <c r="DN67" s="11"/>
-      <c r="DO67" s="11"/>
-      <c r="DP67" s="11"/>
-      <c r="DQ67" s="11"/>
-      <c r="DR67" s="11"/>
-      <c r="DS67" s="11"/>
-      <c r="DT67" s="11"/>
-      <c r="DU67" s="11"/>
-      <c r="DV67" s="11"/>
-      <c r="DW67" s="11"/>
-      <c r="DX67" s="11"/>
-      <c r="DY67" s="11"/>
-      <c r="DZ67" s="11"/>
-      <c r="EA67" s="11"/>
-      <c r="EB67" s="11"/>
-      <c r="EC67" s="11"/>
-      <c r="ED67" s="11"/>
-      <c r="EE67" s="11"/>
-      <c r="EF67" s="11"/>
-      <c r="EG67" s="11"/>
-      <c r="EH67" s="11"/>
-      <c r="EI67" s="11"/>
-      <c r="EJ67" s="11"/>
-      <c r="EK67" s="11"/>
-      <c r="EL67" s="11"/>
-      <c r="EM67" s="11"/>
-      <c r="EN67" s="11"/>
-      <c r="EO67" s="11"/>
-      <c r="EP67" s="11"/>
-      <c r="EQ67" s="11"/>
-      <c r="ER67" s="11"/>
-      <c r="ES67" s="11"/>
-      <c r="ET67" s="11"/>
-      <c r="EU67" s="11"/>
-      <c r="EV67" s="11"/>
-      <c r="EW67" s="11"/>
-      <c r="EX67" s="11"/>
-      <c r="EY67" s="11"/>
-      <c r="EZ67" s="11"/>
-      <c r="FA67" s="11"/>
-      <c r="FB67" s="11"/>
-      <c r="FC67" s="11"/>
-      <c r="FD67" s="11"/>
-      <c r="FE67" s="11"/>
-      <c r="FF67" s="11"/>
-      <c r="FG67" s="11"/>
-      <c r="FH67" s="11"/>
-      <c r="FI67" s="11"/>
-      <c r="FJ67" s="11"/>
-      <c r="FK67" s="11"/>
-      <c r="FL67" s="11"/>
-      <c r="FM67" s="11"/>
-      <c r="FN67" s="11"/>
-      <c r="FO67" s="11"/>
-      <c r="FP67" s="11"/>
-      <c r="FQ67" s="11"/>
-      <c r="FR67" s="11"/>
-      <c r="FS67" s="11"/>
-      <c r="FT67" s="11"/>
-      <c r="FU67" s="11"/>
-      <c r="FV67" s="11"/>
-      <c r="FW67" s="11"/>
-      <c r="FX67" s="11"/>
-      <c r="FY67" s="11"/>
-      <c r="FZ67" s="11"/>
-      <c r="GA67" s="11"/>
-      <c r="GB67" s="11"/>
-      <c r="GC67" s="11"/>
-      <c r="GD67" s="11"/>
-      <c r="GE67" s="11"/>
-      <c r="GF67" s="11"/>
-      <c r="GG67" s="11"/>
-      <c r="GH67" s="11"/>
-      <c r="GI67" s="11"/>
-      <c r="GJ67" s="11"/>
-      <c r="GK67" s="12"/>
-      <c r="GL67" s="12"/>
-      <c r="GM67" s="12"/>
-      <c r="GN67" s="12"/>
-      <c r="GO67" s="12"/>
-      <c r="GP67" s="12"/>
-      <c r="GQ67" s="12"/>
-      <c r="GR67" s="12"/>
-      <c r="GS67" s="12"/>
-      <c r="GT67" s="12"/>
-      <c r="GU67" s="12"/>
-      <c r="GV67" s="12"/>
-      <c r="GW67" s="12"/>
-      <c r="GX67" s="12"/>
-      <c r="GY67" s="12"/>
-      <c r="GZ67" s="12"/>
-      <c r="HA67" s="11"/>
-      <c r="HB67" s="11"/>
-      <c r="HC67" s="11"/>
-      <c r="HD67" s="11"/>
-      <c r="HE67" s="11"/>
-      <c r="HF67" s="11"/>
-      <c r="HG67" s="11"/>
-      <c r="HH67" s="11"/>
-      <c r="HI67" s="11"/>
-      <c r="HJ67" s="11"/>
-      <c r="HK67" s="11"/>
-      <c r="HL67" s="11"/>
-      <c r="HM67" s="11"/>
-      <c r="HN67" s="11"/>
-      <c r="HO67" s="11"/>
-      <c r="HP67" s="11"/>
-      <c r="HQ67" s="11"/>
-      <c r="HR67" s="11"/>
-      <c r="HS67" s="11"/>
-      <c r="HT67" s="11"/>
-      <c r="HU67" s="11"/>
-      <c r="HV67" s="11"/>
-      <c r="HW67" s="13"/>
-      <c r="HX67" s="11"/>
-      <c r="HY67" s="11"/>
-      <c r="HZ67" s="11"/>
-      <c r="IA67" s="11"/>
-      <c r="IB67" s="11"/>
-      <c r="IC67" s="11"/>
-      <c r="ID67" s="11"/>
-      <c r="IE67" s="11"/>
-      <c r="IF67" s="11"/>
-      <c r="IG67" s="11"/>
-      <c r="IH67" s="11"/>
-      <c r="II67" s="11"/>
-      <c r="IJ67" s="11"/>
-      <c r="IK67" s="11"/>
-      <c r="IL67" s="11"/>
-      <c r="IM67" s="11"/>
-      <c r="IN67" s="11"/>
-      <c r="IO67" s="11"/>
-      <c r="IP67" s="11"/>
-      <c r="IQ67" s="11"/>
-      <c r="IR67" s="11"/>
-      <c r="IS67" s="11"/>
-      <c r="IT67" s="11"/>
-      <c r="IU67" s="11"/>
-      <c r="IV67" s="11"/>
-      <c r="IW67" s="11"/>
-      <c r="IX67" s="11"/>
-      <c r="IY67" s="11"/>
-      <c r="IZ67" s="11"/>
-      <c r="JA67" s="11"/>
-      <c r="JB67" s="11"/>
-      <c r="JC67" s="11"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
+      <c r="W67" s="10"/>
+      <c r="X67" s="10"/>
+      <c r="Y67" s="10"/>
+      <c r="Z67" s="10"/>
+      <c r="AA67" s="10"/>
+      <c r="AB67" s="10"/>
+      <c r="AC67" s="10"/>
+      <c r="AD67" s="10"/>
+      <c r="AE67" s="10"/>
+      <c r="AF67" s="10"/>
+      <c r="AG67" s="10"/>
+      <c r="AH67" s="10"/>
+      <c r="AI67" s="10"/>
+      <c r="AJ67" s="10"/>
+      <c r="AK67" s="10"/>
+      <c r="AL67" s="10"/>
+      <c r="AM67" s="10"/>
+      <c r="AN67" s="10"/>
+      <c r="AO67" s="10"/>
+      <c r="AP67" s="10"/>
+      <c r="AQ67" s="10"/>
+      <c r="AR67" s="10"/>
+      <c r="AS67" s="10"/>
+      <c r="AT67" s="10"/>
+      <c r="AU67" s="10"/>
+      <c r="AV67" s="10"/>
+      <c r="AW67" s="10"/>
+      <c r="AX67" s="10"/>
+      <c r="AY67" s="10"/>
+      <c r="AZ67" s="10"/>
+      <c r="BA67" s="10"/>
+      <c r="BB67" s="10"/>
+      <c r="BC67" s="10"/>
+      <c r="BD67" s="10"/>
+      <c r="BE67" s="10"/>
+      <c r="BF67" s="10"/>
+      <c r="BG67" s="10"/>
+      <c r="BH67" s="10"/>
+      <c r="BI67" s="10"/>
+      <c r="BJ67" s="10"/>
+      <c r="BK67" s="10"/>
+      <c r="BL67" s="10"/>
+      <c r="BM67" s="10"/>
+      <c r="BN67" s="10"/>
+      <c r="BO67" s="10"/>
+      <c r="BP67" s="10"/>
+      <c r="BQ67" s="10"/>
+      <c r="BR67" s="10"/>
+      <c r="BS67" s="10"/>
+      <c r="BT67" s="10"/>
+      <c r="BU67" s="10"/>
+      <c r="BV67" s="10"/>
+      <c r="BW67" s="10"/>
+      <c r="BX67" s="10"/>
+      <c r="BY67" s="10"/>
+      <c r="BZ67" s="10"/>
+      <c r="CA67" s="10"/>
+      <c r="CB67" s="10"/>
+      <c r="CC67" s="10"/>
+      <c r="CD67" s="10"/>
+      <c r="CE67" s="10"/>
+      <c r="CF67" s="10"/>
+      <c r="CG67" s="10"/>
+      <c r="CH67" s="10"/>
+      <c r="CI67" s="10"/>
+      <c r="CJ67" s="10"/>
+      <c r="CK67" s="10"/>
+      <c r="CL67" s="10"/>
+      <c r="CM67" s="10"/>
+      <c r="CN67" s="10"/>
+      <c r="CO67" s="10"/>
+      <c r="CP67" s="10"/>
+      <c r="CQ67" s="10"/>
+      <c r="CR67" s="10"/>
+      <c r="CS67" s="10"/>
+      <c r="CT67" s="10"/>
+      <c r="CU67" s="10"/>
+      <c r="CV67" s="10"/>
+      <c r="CW67" s="10"/>
+      <c r="CX67" s="10"/>
+      <c r="CY67" s="10"/>
+      <c r="CZ67" s="10"/>
+      <c r="DA67" s="10"/>
+      <c r="DB67" s="10"/>
+      <c r="DC67" s="10"/>
+      <c r="DD67" s="10"/>
+      <c r="DE67" s="10"/>
+      <c r="DF67" s="10"/>
+      <c r="DG67" s="10"/>
+      <c r="DH67" s="10"/>
+      <c r="DI67" s="10"/>
+      <c r="DJ67" s="10"/>
+      <c r="DK67" s="10"/>
+      <c r="DL67" s="10"/>
+      <c r="DM67" s="10"/>
+      <c r="DN67" s="10"/>
+      <c r="DO67" s="10"/>
+      <c r="DP67" s="10"/>
+      <c r="DQ67" s="10"/>
+      <c r="DR67" s="10"/>
+      <c r="DS67" s="10"/>
+      <c r="DT67" s="10"/>
+      <c r="DU67" s="10"/>
+      <c r="DV67" s="10"/>
+      <c r="DW67" s="10"/>
+      <c r="DX67" s="10"/>
+      <c r="DY67" s="10"/>
+      <c r="DZ67" s="10"/>
+      <c r="EA67" s="10"/>
+      <c r="EB67" s="10"/>
+      <c r="EC67" s="10"/>
+      <c r="ED67" s="10"/>
+      <c r="EE67" s="10"/>
+      <c r="EF67" s="10"/>
+      <c r="EG67" s="10"/>
+      <c r="EH67" s="10"/>
+      <c r="EI67" s="10"/>
+      <c r="EJ67" s="10"/>
+      <c r="EK67" s="10"/>
+      <c r="EL67" s="10"/>
+      <c r="EM67" s="10"/>
+      <c r="EN67" s="10"/>
+      <c r="EO67" s="10"/>
+      <c r="EP67" s="10"/>
+      <c r="EQ67" s="10"/>
+      <c r="ER67" s="10"/>
+      <c r="ES67" s="10"/>
+      <c r="ET67" s="10"/>
+      <c r="EU67" s="10"/>
+      <c r="EV67" s="10"/>
+      <c r="EW67" s="10"/>
+      <c r="EX67" s="10"/>
+      <c r="EY67" s="10"/>
+      <c r="EZ67" s="10"/>
+      <c r="FA67" s="10"/>
+      <c r="FB67" s="10"/>
+      <c r="FC67" s="10"/>
+      <c r="FD67" s="10"/>
+      <c r="FE67" s="10"/>
+      <c r="FF67" s="10"/>
+      <c r="FG67" s="10"/>
+      <c r="FH67" s="10"/>
+      <c r="FI67" s="10"/>
+      <c r="FJ67" s="10"/>
+      <c r="FK67" s="10"/>
+      <c r="FL67" s="10"/>
+      <c r="FM67" s="10"/>
+      <c r="FN67" s="10"/>
+      <c r="FO67" s="10"/>
+      <c r="FP67" s="10"/>
+      <c r="FQ67" s="10"/>
+      <c r="FR67" s="10"/>
+      <c r="FS67" s="10"/>
+      <c r="FT67" s="10"/>
+      <c r="FU67" s="10"/>
+      <c r="FV67" s="10"/>
+      <c r="FW67" s="10"/>
+      <c r="FX67" s="10"/>
+      <c r="FY67" s="10"/>
+      <c r="FZ67" s="10"/>
+      <c r="GA67" s="10"/>
+      <c r="GB67" s="10"/>
+      <c r="GC67" s="10"/>
+      <c r="GD67" s="10"/>
+      <c r="GE67" s="10"/>
+      <c r="GF67" s="10"/>
+      <c r="GG67" s="10"/>
+      <c r="GH67" s="10"/>
+      <c r="GI67" s="10"/>
+      <c r="GJ67" s="10"/>
+      <c r="GK67" s="11"/>
+      <c r="GL67" s="11"/>
+      <c r="GM67" s="11"/>
+      <c r="GN67" s="11"/>
+      <c r="GO67" s="11"/>
+      <c r="GP67" s="11"/>
+      <c r="GQ67" s="11"/>
+      <c r="GR67" s="11"/>
+      <c r="GS67" s="11"/>
+      <c r="GT67" s="11"/>
+      <c r="GU67" s="11"/>
+      <c r="GV67" s="11"/>
+      <c r="GW67" s="11"/>
+      <c r="GX67" s="11"/>
+      <c r="GY67" s="11"/>
+      <c r="GZ67" s="11"/>
+      <c r="HA67" s="10"/>
+      <c r="HB67" s="10"/>
+      <c r="HC67" s="10"/>
+      <c r="HD67" s="10"/>
+      <c r="HE67" s="10"/>
+      <c r="HF67" s="10"/>
+      <c r="HG67" s="10"/>
+      <c r="HH67" s="10"/>
+      <c r="HI67" s="10"/>
+      <c r="HJ67" s="10"/>
+      <c r="HK67" s="10"/>
+      <c r="HL67" s="10"/>
+      <c r="HM67" s="10"/>
+      <c r="HN67" s="10"/>
+      <c r="HO67" s="10"/>
+      <c r="HP67" s="10"/>
+      <c r="HQ67" s="10"/>
+      <c r="HR67" s="10"/>
+      <c r="HS67" s="10"/>
+      <c r="HT67" s="10"/>
+      <c r="HU67" s="10"/>
+      <c r="HV67" s="10"/>
+      <c r="HW67" s="12"/>
+      <c r="HX67" s="10"/>
+      <c r="HY67" s="10"/>
+      <c r="HZ67" s="10"/>
+      <c r="IA67" s="10"/>
+      <c r="IB67" s="10"/>
+      <c r="IC67" s="10"/>
+      <c r="ID67" s="10"/>
+      <c r="IE67" s="10"/>
+      <c r="IF67" s="10"/>
+      <c r="IG67" s="10"/>
+      <c r="IH67" s="10"/>
+      <c r="II67" s="10"/>
+      <c r="IJ67" s="10"/>
+      <c r="IK67" s="10"/>
+      <c r="IL67" s="10"/>
+      <c r="IM67" s="10"/>
+      <c r="IN67" s="10"/>
+      <c r="IO67" s="10"/>
+      <c r="IP67" s="10"/>
+      <c r="IQ67" s="10"/>
+      <c r="IR67" s="10"/>
+      <c r="IS67" s="10"/>
+      <c r="IT67" s="10"/>
+      <c r="IU67" s="10"/>
+      <c r="IV67" s="10"/>
+      <c r="IW67" s="10"/>
+      <c r="IX67" s="10"/>
+      <c r="IY67" s="10"/>
+      <c r="IZ67" s="10"/>
+      <c r="JA67" s="10"/>
+      <c r="JB67" s="10"/>
+      <c r="JC67" s="10"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
@@ -67627,32 +67639,32 @@
   </sheetPr>
   <dimension ref="A1:F260"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="1" sqref="C86 H14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A214" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C256" activeCellId="0" sqref="C256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="17" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.4081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="16" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.8673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="17" t="s">
+    <row r="1" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -67664,12 +67676,12 @@
       <c r="D2" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -67686,7 +67698,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -67703,7 +67715,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
@@ -67720,7 +67732,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
@@ -67733,8 +67745,8 @@
         <v>371</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="0" t="s">
@@ -67747,8 +67759,8 @@
         <v>371</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
@@ -67761,8 +67773,8 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
@@ -67776,7 +67788,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="0" t="s">
@@ -67790,7 +67802,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="0" t="s">
@@ -67804,7 +67816,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="0" t="s">
@@ -67818,7 +67830,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="0" t="s">
@@ -67832,7 +67844,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="0" t="s">
@@ -67846,7 +67858,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="0" t="s">
@@ -67860,7 +67872,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="0" t="s">
@@ -67874,7 +67886,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="0" t="s">
@@ -67888,7 +67900,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="0" t="s">
@@ -67902,7 +67914,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="0" t="s">
@@ -67916,7 +67928,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="0" t="s">
@@ -67930,7 +67942,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="0" t="s">
@@ -67944,7 +67956,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="0" t="s">
@@ -67958,7 +67970,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="0" t="s">
@@ -67972,7 +67984,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="0" t="s">
@@ -67986,7 +67998,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="0" t="s">
@@ -68000,7 +68012,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="0" t="s">
@@ -68014,7 +68026,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="0" t="s">
@@ -68028,7 +68040,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="0" t="s">
@@ -68042,7 +68054,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="0" t="s">
@@ -68056,7 +68068,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="0" t="s">
@@ -68070,7 +68082,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="0" t="s">
@@ -68084,7 +68096,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B32" s="0" t="s">
@@ -68098,7 +68110,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B33" s="0" t="s">
@@ -68112,7 +68124,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="0" t="s">
@@ -68126,7 +68138,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="0" t="s">
@@ -68140,7 +68152,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="0" t="s">
@@ -68154,7 +68166,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B37" s="0" t="s">
@@ -68168,7 +68180,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B38" s="0" t="s">
@@ -68182,7 +68194,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B39" s="0" t="s">
@@ -68196,7 +68208,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B40" s="0" t="s">
@@ -68210,7 +68222,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="16" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="0" t="s">
@@ -68224,7 +68236,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="16" t="s">
         <v>44</v>
       </c>
       <c r="B42" s="0" t="s">
@@ -68238,7 +68250,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B43" s="0" t="s">
@@ -68252,7 +68264,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="16" t="s">
         <v>46</v>
       </c>
       <c r="B44" s="0" t="s">
@@ -68266,7 +68278,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="16" t="s">
         <v>47</v>
       </c>
       <c r="B45" s="0" t="s">
@@ -68280,7 +68292,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="16" t="s">
         <v>48</v>
       </c>
       <c r="B46" s="0" t="s">
@@ -68294,7 +68306,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="16" t="s">
         <v>49</v>
       </c>
       <c r="B47" s="0" t="s">
@@ -68308,7 +68320,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B48" s="0" t="s">
@@ -68322,7 +68334,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B49" s="0" t="s">
@@ -68336,7 +68348,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="16" t="s">
         <v>52</v>
       </c>
       <c r="B50" s="0" t="s">
@@ -68350,7 +68362,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B51" s="0" t="s">
@@ -68364,7 +68376,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B52" s="0" t="s">
@@ -68378,7 +68390,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="16" t="s">
         <v>55</v>
       </c>
       <c r="B53" s="0" t="s">
@@ -68392,7 +68404,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B54" s="0" t="s">
@@ -68406,7 +68418,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B55" s="0" t="s">
@@ -68420,7 +68432,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B56" s="0" t="s">
@@ -68434,7 +68446,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="16" t="s">
         <v>59</v>
       </c>
       <c r="B57" s="0" t="s">
@@ -68448,7 +68460,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="16" t="s">
         <v>60</v>
       </c>
       <c r="B58" s="0" t="s">
@@ -68462,7 +68474,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="16" t="s">
         <v>61</v>
       </c>
       <c r="B59" s="0" t="s">
@@ -68476,7 +68488,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="0" t="s">
@@ -68490,7 +68502,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B61" s="0" t="s">
@@ -68504,7 +68516,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="16" t="s">
         <v>64</v>
       </c>
       <c r="B62" s="0" t="s">
@@ -68518,7 +68530,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B63" s="0" t="s">
@@ -68532,7 +68544,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B64" s="0" t="s">
@@ -68546,7 +68558,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="16" t="s">
         <v>67</v>
       </c>
       <c r="B65" s="0" t="s">
@@ -68560,7 +68572,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="16" t="s">
         <v>68</v>
       </c>
       <c r="B66" s="0" t="s">
@@ -68574,7 +68586,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="16" t="s">
         <v>69</v>
       </c>
       <c r="B67" s="0" t="s">
@@ -68588,7 +68600,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="17" t="s">
+      <c r="A68" s="16" t="s">
         <v>70</v>
       </c>
       <c r="B68" s="0" t="s">
@@ -68602,7 +68614,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="16" t="s">
         <v>71</v>
       </c>
       <c r="B69" s="0" t="s">
@@ -68616,7 +68628,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="16" t="s">
         <v>72</v>
       </c>
       <c r="B70" s="0" t="s">
@@ -68630,7 +68642,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="16" t="s">
         <v>73</v>
       </c>
       <c r="B71" s="0" t="s">
@@ -68644,7 +68656,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="17" t="s">
+      <c r="A72" s="16" t="s">
         <v>74</v>
       </c>
       <c r="B72" s="0" t="s">
@@ -68658,7 +68670,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="17" t="s">
+      <c r="A73" s="16" t="s">
         <v>75</v>
       </c>
       <c r="B73" s="0" t="s">
@@ -68672,7 +68684,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="16" t="s">
         <v>76</v>
       </c>
       <c r="B74" s="0" t="s">
@@ -68686,7 +68698,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="17" t="s">
+      <c r="A75" s="16" t="s">
         <v>77</v>
       </c>
       <c r="B75" s="0" t="s">
@@ -68700,7 +68712,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="17" t="s">
+      <c r="A76" s="16" t="s">
         <v>78</v>
       </c>
       <c r="B76" s="0" t="s">
@@ -68714,7 +68726,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="17" t="s">
+      <c r="A77" s="16" t="s">
         <v>79</v>
       </c>
       <c r="B77" s="0" t="s">
@@ -68728,7 +68740,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="17" t="s">
+      <c r="A78" s="16" t="s">
         <v>80</v>
       </c>
       <c r="B78" s="0" t="s">
@@ -68742,7 +68754,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="17" t="s">
+      <c r="A79" s="16" t="s">
         <v>81</v>
       </c>
       <c r="B79" s="0" t="s">
@@ -68756,7 +68768,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="17" t="s">
+      <c r="A80" s="16" t="s">
         <v>82</v>
       </c>
       <c r="B80" s="0" t="s">
@@ -68770,7 +68782,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="17" t="s">
+      <c r="A81" s="16" t="s">
         <v>83</v>
       </c>
       <c r="B81" s="0" t="s">
@@ -68784,7 +68796,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="17" t="s">
+      <c r="A82" s="16" t="s">
         <v>84</v>
       </c>
       <c r="B82" s="0" t="s">
@@ -68798,7 +68810,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="17" t="s">
+      <c r="A83" s="16" t="s">
         <v>85</v>
       </c>
       <c r="B83" s="0" t="s">
@@ -68812,7 +68824,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="17" t="s">
+      <c r="A84" s="16" t="s">
         <v>86</v>
       </c>
       <c r="B84" s="0" t="s">
@@ -68826,7 +68838,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="17" t="s">
+      <c r="A85" s="16" t="s">
         <v>87</v>
       </c>
       <c r="B85" s="0" t="s">
@@ -68840,7 +68852,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="17" t="s">
+      <c r="A86" s="16" t="s">
         <v>88</v>
       </c>
       <c r="B86" s="0" t="s">
@@ -68854,7 +68866,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="17" t="s">
+      <c r="A87" s="16" t="s">
         <v>89</v>
       </c>
       <c r="B87" s="0" t="s">
@@ -68868,7 +68880,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="17" t="s">
+      <c r="A88" s="16" t="s">
         <v>90</v>
       </c>
       <c r="B88" s="0" t="s">
@@ -68882,7 +68894,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="17" t="s">
+      <c r="A89" s="16" t="s">
         <v>91</v>
       </c>
       <c r="B89" s="0" t="s">
@@ -68896,7 +68908,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="17" t="s">
+      <c r="A90" s="16" t="s">
         <v>92</v>
       </c>
       <c r="B90" s="0" t="s">
@@ -68910,7 +68922,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="17" t="s">
+      <c r="A91" s="16" t="s">
         <v>93</v>
       </c>
       <c r="B91" s="0" t="s">
@@ -68924,7 +68936,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="17" t="s">
+      <c r="A92" s="16" t="s">
         <v>94</v>
       </c>
       <c r="B92" s="0" t="s">
@@ -68938,7 +68950,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="17" t="s">
+      <c r="A93" s="16" t="s">
         <v>95</v>
       </c>
       <c r="B93" s="0" t="s">
@@ -68952,7 +68964,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="17" t="s">
+      <c r="A94" s="16" t="s">
         <v>96</v>
       </c>
       <c r="B94" s="0" t="s">
@@ -68966,7 +68978,7 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="17" t="s">
+      <c r="A95" s="16" t="s">
         <v>97</v>
       </c>
       <c r="B95" s="0" t="s">
@@ -68980,7 +68992,7 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="17" t="s">
+      <c r="A96" s="16" t="s">
         <v>98</v>
       </c>
       <c r="B96" s="0" t="s">
@@ -68994,7 +69006,7 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="17" t="s">
+      <c r="A97" s="16" t="s">
         <v>99</v>
       </c>
       <c r="B97" s="0" t="s">
@@ -69008,7 +69020,7 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="17" t="s">
+      <c r="A98" s="16" t="s">
         <v>100</v>
       </c>
       <c r="B98" s="0" t="s">
@@ -69022,7 +69034,7 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="17" t="s">
+      <c r="A99" s="16" t="s">
         <v>101</v>
       </c>
       <c r="B99" s="0" t="s">
@@ -69036,7 +69048,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="17" t="s">
+      <c r="A100" s="16" t="s">
         <v>102</v>
       </c>
       <c r="B100" s="0" t="s">
@@ -69050,7 +69062,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="17" t="s">
+      <c r="A101" s="16" t="s">
         <v>103</v>
       </c>
       <c r="B101" s="0" t="s">
@@ -69064,7 +69076,7 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="17" t="s">
+      <c r="A102" s="16" t="s">
         <v>104</v>
       </c>
       <c r="B102" s="0" t="s">
@@ -69078,7 +69090,7 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="17" t="s">
+      <c r="A103" s="16" t="s">
         <v>105</v>
       </c>
       <c r="B103" s="0" t="s">
@@ -69092,7 +69104,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="17" t="s">
+      <c r="A104" s="16" t="s">
         <v>106</v>
       </c>
       <c r="B104" s="0" t="s">
@@ -69106,7 +69118,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="17" t="s">
+      <c r="A105" s="16" t="s">
         <v>107</v>
       </c>
       <c r="B105" s="0" t="s">
@@ -69120,7 +69132,7 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="17" t="s">
+      <c r="A106" s="16" t="s">
         <v>108</v>
       </c>
       <c r="B106" s="0" t="s">
@@ -69134,7 +69146,7 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="17" t="s">
+      <c r="A107" s="16" t="s">
         <v>109</v>
       </c>
       <c r="B107" s="0" t="s">
@@ -69148,7 +69160,7 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="17" t="s">
+      <c r="A108" s="16" t="s">
         <v>110</v>
       </c>
       <c r="B108" s="0" t="s">
@@ -69162,7 +69174,7 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="17" t="s">
+      <c r="A109" s="16" t="s">
         <v>111</v>
       </c>
       <c r="B109" s="0" t="s">
@@ -69176,7 +69188,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="17" t="s">
+      <c r="A110" s="16" t="s">
         <v>112</v>
       </c>
       <c r="B110" s="0" t="s">
@@ -69190,7 +69202,7 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="17" t="s">
+      <c r="A111" s="16" t="s">
         <v>113</v>
       </c>
       <c r="B111" s="0" t="s">
@@ -69204,7 +69216,7 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="17" t="s">
+      <c r="A112" s="16" t="s">
         <v>114</v>
       </c>
       <c r="B112" s="0" t="s">
@@ -69218,7 +69230,7 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="17" t="s">
+      <c r="A113" s="16" t="s">
         <v>115</v>
       </c>
       <c r="B113" s="0" t="s">
@@ -69232,7 +69244,7 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="17" t="s">
+      <c r="A114" s="16" t="s">
         <v>116</v>
       </c>
       <c r="B114" s="0" t="s">
@@ -69246,7 +69258,7 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="17" t="s">
+      <c r="A115" s="16" t="s">
         <v>117</v>
       </c>
       <c r="B115" s="0" t="s">
@@ -69260,7 +69272,7 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="17" t="s">
+      <c r="A116" s="16" t="s">
         <v>118</v>
       </c>
       <c r="B116" s="0" t="s">
@@ -69274,7 +69286,7 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="17" t="s">
+      <c r="A117" s="16" t="s">
         <v>119</v>
       </c>
       <c r="B117" s="0" t="s">
@@ -69288,7 +69300,7 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="17" t="s">
+      <c r="A118" s="16" t="s">
         <v>120</v>
       </c>
       <c r="B118" s="0" t="s">
@@ -69302,7 +69314,7 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="17" t="s">
+      <c r="A119" s="16" t="s">
         <v>121</v>
       </c>
       <c r="B119" s="0" t="s">
@@ -69316,7 +69328,7 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="17" t="s">
+      <c r="A120" s="16" t="s">
         <v>122</v>
       </c>
       <c r="B120" s="0" t="s">
@@ -69330,7 +69342,7 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="17" t="s">
+      <c r="A121" s="16" t="s">
         <v>123</v>
       </c>
       <c r="B121" s="0" t="s">
@@ -69344,7 +69356,7 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="17" t="s">
+      <c r="A122" s="16" t="s">
         <v>124</v>
       </c>
       <c r="B122" s="0" t="s">
@@ -69358,7 +69370,7 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="17" t="s">
+      <c r="A123" s="16" t="s">
         <v>125</v>
       </c>
       <c r="B123" s="0" t="s">
@@ -69372,7 +69384,7 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="17" t="s">
+      <c r="A124" s="16" t="s">
         <v>126</v>
       </c>
       <c r="B124" s="0" t="s">
@@ -69386,7 +69398,7 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="17" t="s">
+      <c r="A125" s="16" t="s">
         <v>127</v>
       </c>
       <c r="B125" s="0" t="s">
@@ -69400,7 +69412,7 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="17" t="s">
+      <c r="A126" s="16" t="s">
         <v>128</v>
       </c>
       <c r="B126" s="0" t="s">
@@ -69414,7 +69426,7 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="17" t="s">
+      <c r="A127" s="16" t="s">
         <v>129</v>
       </c>
       <c r="B127" s="0" t="s">
@@ -69428,7 +69440,7 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="17" t="s">
+      <c r="A128" s="16" t="s">
         <v>130</v>
       </c>
       <c r="B128" s="0" t="s">
@@ -69442,7 +69454,7 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="17" t="s">
+      <c r="A129" s="16" t="s">
         <v>131</v>
       </c>
       <c r="B129" s="0" t="s">
@@ -69456,7 +69468,7 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="17" t="s">
+      <c r="A130" s="16" t="s">
         <v>132</v>
       </c>
       <c r="B130" s="0" t="s">
@@ -69470,7 +69482,7 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="17" t="s">
+      <c r="A131" s="16" t="s">
         <v>133</v>
       </c>
       <c r="B131" s="0" t="s">
@@ -69484,7 +69496,7 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="17" t="s">
+      <c r="A132" s="16" t="s">
         <v>134</v>
       </c>
       <c r="B132" s="0" t="s">
@@ -69498,7 +69510,7 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="17" t="s">
+      <c r="A133" s="16" t="s">
         <v>135</v>
       </c>
       <c r="B133" s="0" t="s">
@@ -69512,7 +69524,7 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="17" t="s">
+      <c r="A134" s="16" t="s">
         <v>136</v>
       </c>
       <c r="B134" s="0" t="s">
@@ -69526,7 +69538,7 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="17" t="s">
+      <c r="A135" s="16" t="s">
         <v>137</v>
       </c>
       <c r="B135" s="0" t="s">
@@ -69540,7 +69552,7 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="17" t="s">
+      <c r="A136" s="16" t="s">
         <v>138</v>
       </c>
       <c r="B136" s="0" t="s">
@@ -69554,7 +69566,7 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="17" t="s">
+      <c r="A137" s="16" t="s">
         <v>139</v>
       </c>
       <c r="B137" s="0" t="s">
@@ -69568,7 +69580,7 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="17" t="s">
+      <c r="A138" s="16" t="s">
         <v>140</v>
       </c>
       <c r="B138" s="0" t="s">
@@ -69582,7 +69594,7 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="17" t="s">
+      <c r="A139" s="16" t="s">
         <v>141</v>
       </c>
       <c r="B139" s="0" t="s">
@@ -69596,7 +69608,7 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="17" t="s">
+      <c r="A140" s="16" t="s">
         <v>142</v>
       </c>
       <c r="B140" s="0" t="s">
@@ -69610,7 +69622,7 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="17" t="s">
+      <c r="A141" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B141" s="0" t="s">
@@ -69624,7 +69636,7 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="17" t="s">
+      <c r="A142" s="16" t="s">
         <v>144</v>
       </c>
       <c r="B142" s="0" t="s">
@@ -69638,7 +69650,7 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="17" t="s">
+      <c r="A143" s="16" t="s">
         <v>145</v>
       </c>
       <c r="B143" s="0" t="s">
@@ -69652,7 +69664,7 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="17" t="s">
+      <c r="A144" s="16" t="s">
         <v>146</v>
       </c>
       <c r="B144" s="0" t="s">
@@ -69666,7 +69678,7 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="17" t="s">
+      <c r="A145" s="16" t="s">
         <v>147</v>
       </c>
       <c r="B145" s="0" t="s">
@@ -69680,7 +69692,7 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="17" t="s">
+      <c r="A146" s="16" t="s">
         <v>148</v>
       </c>
       <c r="B146" s="0" t="s">
@@ -69694,7 +69706,7 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="17" t="s">
+      <c r="A147" s="16" t="s">
         <v>149</v>
       </c>
       <c r="B147" s="0" t="s">
@@ -69708,7 +69720,7 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="17" t="s">
+      <c r="A148" s="16" t="s">
         <v>150</v>
       </c>
       <c r="B148" s="0" t="s">
@@ -69722,7 +69734,7 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="17" t="s">
+      <c r="A149" s="16" t="s">
         <v>151</v>
       </c>
       <c r="B149" s="0" t="s">
@@ -69736,7 +69748,7 @@
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="17" t="s">
+      <c r="A150" s="16" t="s">
         <v>152</v>
       </c>
       <c r="B150" s="0" t="s">
@@ -69750,7 +69762,7 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="17" t="s">
+      <c r="A151" s="16" t="s">
         <v>153</v>
       </c>
       <c r="B151" s="0" t="s">
@@ -69764,7 +69776,7 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="17" t="s">
+      <c r="A152" s="16" t="s">
         <v>154</v>
       </c>
       <c r="B152" s="0" t="s">
@@ -69778,7 +69790,7 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="17" t="s">
+      <c r="A153" s="16" t="s">
         <v>155</v>
       </c>
       <c r="B153" s="0" t="s">
@@ -69792,7 +69804,7 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="17" t="s">
+      <c r="A154" s="16" t="s">
         <v>156</v>
       </c>
       <c r="B154" s="0" t="s">
@@ -69806,7 +69818,7 @@
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="17" t="s">
+      <c r="A155" s="16" t="s">
         <v>157</v>
       </c>
       <c r="B155" s="0" t="s">
@@ -69820,7 +69832,7 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="17" t="s">
+      <c r="A156" s="16" t="s">
         <v>158</v>
       </c>
       <c r="B156" s="0" t="s">
@@ -69834,7 +69846,7 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="17" t="s">
+      <c r="A157" s="16" t="s">
         <v>159</v>
       </c>
       <c r="B157" s="0" t="s">
@@ -69848,7 +69860,7 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="17" t="s">
+      <c r="A158" s="16" t="s">
         <v>160</v>
       </c>
       <c r="B158" s="0" t="s">
@@ -69862,7 +69874,7 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="17" t="s">
+      <c r="A159" s="16" t="s">
         <v>161</v>
       </c>
       <c r="B159" s="0" t="s">
@@ -69876,7 +69888,7 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="17" t="s">
+      <c r="A160" s="16" t="s">
         <v>162</v>
       </c>
       <c r="B160" s="0" t="s">
@@ -69890,7 +69902,7 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="17" t="s">
+      <c r="A161" s="16" t="s">
         <v>163</v>
       </c>
       <c r="B161" s="0" t="s">
@@ -69904,7 +69916,7 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="17" t="s">
+      <c r="A162" s="16" t="s">
         <v>164</v>
       </c>
       <c r="B162" s="0" t="s">
@@ -69918,7 +69930,7 @@
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="17" t="s">
+      <c r="A163" s="16" t="s">
         <v>165</v>
       </c>
       <c r="B163" s="0" t="s">
@@ -69932,7 +69944,7 @@
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="17" t="s">
+      <c r="A164" s="16" t="s">
         <v>166</v>
       </c>
       <c r="B164" s="0" t="s">
@@ -69946,7 +69958,7 @@
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="17" t="s">
+      <c r="A165" s="16" t="s">
         <v>167</v>
       </c>
       <c r="B165" s="0" t="s">
@@ -69960,7 +69972,7 @@
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="17" t="s">
+      <c r="A166" s="16" t="s">
         <v>168</v>
       </c>
       <c r="B166" s="0" t="s">
@@ -69974,7 +69986,7 @@
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="17" t="s">
+      <c r="A167" s="16" t="s">
         <v>169</v>
       </c>
       <c r="B167" s="0" t="s">
@@ -69988,7 +70000,7 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="17" t="s">
+      <c r="A168" s="16" t="s">
         <v>170</v>
       </c>
       <c r="B168" s="0" t="s">
@@ -70002,7 +70014,7 @@
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="17" t="s">
+      <c r="A169" s="16" t="s">
         <v>171</v>
       </c>
       <c r="B169" s="0" t="s">
@@ -70016,7 +70028,7 @@
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="17" t="s">
+      <c r="A170" s="16" t="s">
         <v>172</v>
       </c>
       <c r="B170" s="0" t="s">
@@ -70030,7 +70042,7 @@
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="17" t="s">
+      <c r="A171" s="16" t="s">
         <v>173</v>
       </c>
       <c r="B171" s="0" t="s">
@@ -70044,7 +70056,7 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="17" t="s">
+      <c r="A172" s="16" t="s">
         <v>174</v>
       </c>
       <c r="B172" s="0" t="s">
@@ -70058,7 +70070,7 @@
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="17" t="s">
+      <c r="A173" s="16" t="s">
         <v>175</v>
       </c>
       <c r="B173" s="0" t="s">
@@ -70072,7 +70084,7 @@
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="17" t="s">
+      <c r="A174" s="16" t="s">
         <v>176</v>
       </c>
       <c r="B174" s="0" t="s">
@@ -70086,7 +70098,7 @@
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="17" t="s">
+      <c r="A175" s="16" t="s">
         <v>177</v>
       </c>
       <c r="B175" s="0" t="s">
@@ -70100,7 +70112,7 @@
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="17" t="s">
+      <c r="A176" s="16" t="s">
         <v>178</v>
       </c>
       <c r="B176" s="0" t="s">
@@ -70114,7 +70126,7 @@
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="17" t="s">
+      <c r="A177" s="16" t="s">
         <v>179</v>
       </c>
       <c r="B177" s="0" t="s">
@@ -70128,7 +70140,7 @@
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="17" t="s">
+      <c r="A178" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B178" s="0" t="s">
@@ -70142,7 +70154,7 @@
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="17" t="s">
+      <c r="A179" s="16" t="s">
         <v>181</v>
       </c>
       <c r="B179" s="0" t="s">
@@ -70156,7 +70168,7 @@
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="17" t="s">
+      <c r="A180" s="16" t="s">
         <v>182</v>
       </c>
       <c r="B180" s="0" t="s">
@@ -70170,7 +70182,7 @@
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="17" t="s">
+      <c r="A181" s="16" t="s">
         <v>183</v>
       </c>
       <c r="B181" s="0" t="s">
@@ -70184,7 +70196,7 @@
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="17" t="s">
+      <c r="A182" s="16" t="s">
         <v>184</v>
       </c>
       <c r="B182" s="0" t="s">
@@ -70198,7 +70210,7 @@
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="17" t="s">
+      <c r="A183" s="16" t="s">
         <v>185</v>
       </c>
       <c r="B183" s="0" t="s">
@@ -70212,7 +70224,7 @@
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="17" t="s">
+      <c r="A184" s="16" t="s">
         <v>186</v>
       </c>
       <c r="B184" s="0" t="s">
@@ -70226,7 +70238,7 @@
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="17" t="s">
+      <c r="A185" s="16" t="s">
         <v>187</v>
       </c>
       <c r="B185" s="0" t="s">
@@ -70240,7 +70252,7 @@
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="17" t="s">
+      <c r="A186" s="16" t="s">
         <v>188</v>
       </c>
       <c r="B186" s="0" t="s">
@@ -70254,7 +70266,7 @@
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="17" t="s">
+      <c r="A187" s="16" t="s">
         <v>189</v>
       </c>
       <c r="B187" s="0" t="s">
@@ -70268,7 +70280,7 @@
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="17" t="s">
+      <c r="A188" s="16" t="s">
         <v>190</v>
       </c>
       <c r="B188" s="0" t="s">
@@ -70282,7 +70294,7 @@
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="17" t="s">
+      <c r="A189" s="16" t="s">
         <v>191</v>
       </c>
       <c r="B189" s="0" t="s">
@@ -70296,7 +70308,7 @@
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="17" t="s">
+      <c r="A190" s="16" t="s">
         <v>192</v>
       </c>
       <c r="B190" s="0" t="s">
@@ -70310,7 +70322,7 @@
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="17" t="s">
+      <c r="A191" s="16" t="s">
         <v>193</v>
       </c>
       <c r="B191" s="0" t="s">
@@ -70324,7 +70336,7 @@
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="17" t="s">
+      <c r="A192" s="16" t="s">
         <v>194</v>
       </c>
       <c r="B192" s="0" t="s">
@@ -70338,7 +70350,7 @@
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="17" t="s">
+      <c r="A193" s="16" t="s">
         <v>195</v>
       </c>
       <c r="B193" s="0" t="s">
@@ -70352,7 +70364,7 @@
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="17" t="s">
+      <c r="A194" s="16" t="s">
         <v>196</v>
       </c>
       <c r="B194" s="0" t="s">
@@ -70366,7 +70378,7 @@
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="17" t="s">
+      <c r="A195" s="16" t="s">
         <v>197</v>
       </c>
       <c r="B195" s="0" t="s">
@@ -70380,7 +70392,7 @@
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="17" t="s">
+      <c r="A196" s="16" t="s">
         <v>198</v>
       </c>
       <c r="B196" s="0" t="s">
@@ -70394,7 +70406,7 @@
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="17" t="s">
+      <c r="A197" s="16" t="s">
         <v>199</v>
       </c>
       <c r="B197" s="0" t="s">
@@ -70408,7 +70420,7 @@
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="17" t="s">
+      <c r="A198" s="16" t="s">
         <v>200</v>
       </c>
       <c r="B198" s="0" t="s">
@@ -70422,7 +70434,7 @@
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="17" t="s">
+      <c r="A199" s="16" t="s">
         <v>201</v>
       </c>
       <c r="B199" s="0" t="s">
@@ -70436,7 +70448,7 @@
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="17" t="s">
+      <c r="A200" s="16" t="s">
         <v>202</v>
       </c>
       <c r="B200" s="0" t="s">
@@ -70450,7 +70462,7 @@
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="17" t="s">
+      <c r="A201" s="16" t="s">
         <v>203</v>
       </c>
       <c r="B201" s="0" t="s">
@@ -70464,7 +70476,7 @@
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="17" t="s">
+      <c r="A202" s="16" t="s">
         <v>204</v>
       </c>
       <c r="B202" s="0" t="s">
@@ -70478,7 +70490,7 @@
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="17" t="s">
+      <c r="A203" s="16" t="s">
         <v>205</v>
       </c>
       <c r="B203" s="0" t="s">
@@ -70492,7 +70504,7 @@
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="17" t="s">
+      <c r="A204" s="16" t="s">
         <v>206</v>
       </c>
       <c r="B204" s="0" t="s">
@@ -70506,7 +70518,7 @@
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="17" t="s">
+      <c r="A205" s="16" t="s">
         <v>207</v>
       </c>
       <c r="B205" s="0" t="s">
@@ -70517,7 +70529,7 @@
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="17" t="s">
+      <c r="A206" s="16" t="s">
         <v>208</v>
       </c>
       <c r="B206" s="0" t="s">
@@ -70528,7 +70540,7 @@
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="17" t="s">
+      <c r="A207" s="16" t="s">
         <v>209</v>
       </c>
       <c r="B207" s="0" t="s">
@@ -70539,7 +70551,7 @@
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="17" t="s">
+      <c r="A208" s="16" t="s">
         <v>210</v>
       </c>
       <c r="B208" s="0" t="s">
@@ -70550,7 +70562,7 @@
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="17" t="s">
+      <c r="A209" s="16" t="s">
         <v>211</v>
       </c>
       <c r="B209" s="0" t="s">
@@ -70561,7 +70573,7 @@
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="17" t="s">
+      <c r="A210" s="16" t="s">
         <v>212</v>
       </c>
       <c r="D210" s="0" t="s">
@@ -70569,12 +70581,12 @@
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="17" t="s">
+      <c r="A211" s="16" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="17" t="s">
+      <c r="A212" s="16" t="s">
         <v>214</v>
       </c>
       <c r="B212" s="0" t="s">
@@ -70585,7 +70597,7 @@
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="17" t="s">
+      <c r="A213" s="16" t="s">
         <v>215</v>
       </c>
       <c r="B213" s="0" t="s">
@@ -70596,7 +70608,7 @@
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="17" t="s">
+      <c r="A214" s="16" t="s">
         <v>216</v>
       </c>
       <c r="B214" s="0" t="s">
@@ -70607,7 +70619,7 @@
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="17" t="s">
+      <c r="A215" s="16" t="s">
         <v>217</v>
       </c>
       <c r="B215" s="0" t="s">
@@ -70618,7 +70630,7 @@
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="17" t="s">
+      <c r="A216" s="16" t="s">
         <v>218</v>
       </c>
       <c r="B216" s="0" t="s">
@@ -70629,7 +70641,7 @@
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="17" t="s">
+      <c r="A217" s="16" t="s">
         <v>219</v>
       </c>
       <c r="B217" s="0" t="s">
@@ -70640,7 +70652,7 @@
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="17" t="s">
+      <c r="A218" s="16" t="s">
         <v>220</v>
       </c>
       <c r="B218" s="0" t="s">
@@ -70651,315 +70663,417 @@
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="17" t="s">
+      <c r="A219" s="16" t="s">
         <v>221</v>
       </c>
       <c r="D219" s="0" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="17" t="s">
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="16" t="s">
         <v>222</v>
+      </c>
+      <c r="C220" s="13" t="s">
+        <v>596</v>
       </c>
       <c r="D220" s="0" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="17" t="s">
+      <c r="A221" s="16" t="s">
         <v>223</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D221" s="0" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="17" t="s">
+      <c r="A222" s="16" t="s">
         <v>224</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D222" s="0" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="17" t="s">
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="16" t="s">
         <v>225</v>
       </c>
+      <c r="C223" s="13" t="s">
+        <v>599</v>
+      </c>
     </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="17" t="s">
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="16" t="s">
         <v>226</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>598</v>
+        <v>600</v>
+      </c>
+      <c r="C224" s="13" t="s">
+        <v>601</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="17" t="s">
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>599</v>
+        <v>602</v>
+      </c>
+      <c r="C225" s="13" t="s">
+        <v>603</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="17" t="s">
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="16" t="s">
         <v>228</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>600</v>
+        <v>604</v>
+      </c>
+      <c r="C226" s="13" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="17" t="s">
+      <c r="A227" s="16" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="17" t="s">
+      <c r="A228" s="16" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="17" t="s">
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="16" t="s">
         <v>231</v>
       </c>
+      <c r="C229" s="13" t="s">
+        <v>605</v>
+      </c>
     </row>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="17" t="s">
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="16" t="s">
         <v>232</v>
       </c>
+      <c r="C230" s="13" t="s">
+        <v>596</v>
+      </c>
       <c r="D230" s="0" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="17" t="s">
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="16" t="s">
         <v>233</v>
       </c>
+      <c r="C231" s="13" t="s">
+        <v>599</v>
+      </c>
     </row>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="17" t="s">
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="16" t="s">
         <v>234</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>602</v>
+        <v>607</v>
+      </c>
+      <c r="C232" s="13" t="s">
+        <v>599</v>
       </c>
       <c r="D232" s="0" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="17" t="s">
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="16" t="s">
         <v>235</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>603</v>
+        <v>608</v>
+      </c>
+      <c r="C233" s="13" t="s">
+        <v>599</v>
       </c>
       <c r="D233" s="0" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="17" t="s">
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="16" t="s">
         <v>236</v>
+      </c>
+      <c r="C234" s="13" t="s">
+        <v>599</v>
       </c>
       <c r="D234" s="0" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="17" t="s">
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="16" t="s">
         <v>237</v>
       </c>
+      <c r="C235" s="13" t="s">
+        <v>609</v>
+      </c>
       <c r="D235" s="0" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="17" t="s">
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="16" t="s">
         <v>238</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>604</v>
+        <v>610</v>
+      </c>
+      <c r="C236" s="13" t="s">
+        <v>609</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="17" t="s">
+      <c r="A237" s="16" t="s">
         <v>239</v>
       </c>
+      <c r="C237" s="0" t="s">
+        <v>596</v>
+      </c>
       <c r="D237" s="0" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="17" t="s">
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="16" t="s">
         <v>240</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>606</v>
+        <v>612</v>
+      </c>
+      <c r="C238" s="0" t="s">
+        <v>596</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="17" t="s">
+      <c r="A239" s="16" t="s">
         <v>241</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="17" t="s">
+      <c r="A240" s="16" t="s">
         <v>242</v>
       </c>
+      <c r="C240" s="0" t="s">
+        <v>614</v>
+      </c>
     </row>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="17" t="s">
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="16" t="s">
         <v>70</v>
       </c>
+      <c r="C241" s="13" t="s">
+        <v>601</v>
+      </c>
     </row>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="17" t="s">
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="16" t="s">
         <v>243</v>
       </c>
+      <c r="C242" s="13" t="s">
+        <v>601</v>
+      </c>
     </row>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="17" t="s">
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="16" t="s">
         <v>244</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>608</v>
+        <v>615</v>
+      </c>
+      <c r="C243" s="13" t="s">
+        <v>605</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="17" t="s">
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="16" t="s">
         <v>245</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>609</v>
+        <v>616</v>
+      </c>
+      <c r="C244" s="13" t="s">
+        <v>614</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="17" t="s">
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="16" t="s">
         <v>246</v>
       </c>
+      <c r="C245" s="13" t="s">
+        <v>596</v>
+      </c>
     </row>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="17" t="s">
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="16" t="s">
         <v>247</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>610</v>
+        <v>617</v>
+      </c>
+      <c r="C246" s="13" t="s">
+        <v>618</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="17" t="s">
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="16" t="s">
         <v>248</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>611</v>
+        <v>619</v>
+      </c>
+      <c r="C247" s="13" t="s">
+        <v>618</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="17" t="s">
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="16" t="s">
         <v>249</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>612</v>
+        <v>620</v>
+      </c>
+      <c r="C248" s="13" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="17" t="s">
+      <c r="A249" s="16" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="17" t="s">
+      <c r="A250" s="16" t="s">
         <v>251</v>
       </c>
+      <c r="C250" s="0" t="s">
+        <v>614</v>
+      </c>
     </row>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="17" t="s">
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="16" t="s">
         <v>252</v>
       </c>
+      <c r="C251" s="13" t="s">
+        <v>605</v>
+      </c>
     </row>
-    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="17" t="s">
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="16" t="s">
         <v>253</v>
       </c>
+      <c r="C252" s="13" t="s">
+        <v>596</v>
+      </c>
       <c r="D252" s="0" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="17" t="s">
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="16" t="s">
         <v>254</v>
       </c>
+      <c r="C253" s="13" t="s">
+        <v>596</v>
+      </c>
       <c r="D253" s="0" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="17" t="s">
+      <c r="A254" s="16" t="s">
         <v>255</v>
       </c>
+      <c r="C254" s="0" t="s">
+        <v>614</v>
+      </c>
     </row>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="17" t="s">
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="16" t="s">
         <v>256</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>613</v>
+        <v>621</v>
+      </c>
+      <c r="C255" s="13" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="17" t="s">
+      <c r="A256" s="16" t="s">
         <v>257</v>
       </c>
+      <c r="C256" s="0" t="s">
+        <v>614</v>
+      </c>
     </row>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="17" t="s">
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="16" t="s">
         <v>258</v>
+      </c>
+      <c r="C257" s="13" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="17" t="s">
+      <c r="A258" s="16" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="17" t="s">
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="16" t="s">
         <v>260</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>614</v>
+        <v>622</v>
+      </c>
+      <c r="C259" s="13" t="s">
+        <v>623</v>
       </c>
       <c r="D259" s="0" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="17" t="s">
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="16" t="s">
         <v>261</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>616</v>
+        <v>625</v>
+      </c>
+      <c r="C260" s="13" t="s">
+        <v>623</v>
       </c>
       <c r="D260" s="0" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>

--- a/data/measurements/Summary rat sample data 61 edit.xlsx
+++ b/data/measurements/Summary rat sample data 61 edit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="983" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="627">
   <si>
     <t xml:space="preserve">Sample Identification</t>
   </si>
@@ -755,6 +755,9 @@
     <t xml:space="preserve">Urea</t>
   </si>
   <si>
+    <t xml:space="preserve">Blood Creatinine</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cystatin C</t>
   </si>
   <si>
@@ -1136,7 +1139,7 @@
     <t xml:space="preserve">Carnitine </t>
   </si>
   <si>
-    <t xml:space="preserve">aclycarnitine</t>
+    <t xml:space="preserve">acylcarnitine</t>
   </si>
   <si>
     <t xml:space="preserve">µM</t>
@@ -2107,26 +2110,26 @@
   <dimension ref="A1:JF98"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="IE2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="IE1" activeCellId="0" sqref="IE1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C86" activeCellId="0" sqref="C86"/>
+      <selection pane="bottomRight" activeCell="IJ1" activeCellId="0" sqref="IJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="207" min="5" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="208" min="208" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="228" min="209" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="229" min="229" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="234" min="230" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="237" min="235" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="238" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="207" min="5" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="208" min="208" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="228" min="209" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="229" min="229" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="234" min="230" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="237" min="235" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="238" style="0" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2860,78 +2863,78 @@
         <v>242</v>
       </c>
       <c r="IJ1" s="3" t="s">
-        <v>70</v>
+        <v>243</v>
       </c>
       <c r="IK1" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="IL1" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="IM1" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="IN1" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="IO1" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="IP1" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="IQ1" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="IR1" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="IS1" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="IT1" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="IU1" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="IV1" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="IW1" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="IX1" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="IY1" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="IZ1" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="JA1" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="JB1" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="JC1" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>17.4</v>
@@ -3711,16 +3714,16 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>265</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>19.2</v>
@@ -4502,16 +4505,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>26.2</v>
@@ -5291,16 +5294,16 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>29</v>
@@ -6082,16 +6085,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>30.3</v>
@@ -6873,16 +6876,16 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>270</v>
-      </c>
       <c r="D7" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>32.2</v>
@@ -7664,16 +7667,16 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>19.2</v>
@@ -8455,16 +8458,16 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>24.6</v>
@@ -9246,16 +9249,16 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>13.9</v>
@@ -10035,16 +10038,16 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>277</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>276</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>21.9</v>
@@ -10826,16 +10829,16 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>19.3</v>
@@ -11615,16 +11618,16 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>20.9</v>
@@ -12404,16 +12407,16 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>17.2</v>
@@ -13195,16 +13198,16 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>21.1</v>
@@ -13984,16 +13987,16 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>27.6</v>
@@ -14775,16 +14778,16 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>38.7</v>
@@ -15564,16 +15567,16 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>29.6</v>
@@ -16355,16 +16358,16 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>26.7</v>
@@ -17146,16 +17149,16 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>16.5</v>
@@ -17937,16 +17940,16 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>21.1</v>
@@ -18728,16 +18731,16 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>35.6</v>
@@ -19517,16 +19520,16 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D23" s="0" t="s">
         <v>290</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>289</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>31.8</v>
@@ -20308,16 +20311,16 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>49.8</v>
@@ -21099,16 +21102,16 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>42.5</v>
@@ -21892,16 +21895,16 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>28.3</v>
@@ -22685,16 +22688,16 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>34.9</v>
@@ -23474,16 +23477,16 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>25.8</v>
@@ -24265,16 +24268,16 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>40.2</v>
@@ -25056,16 +25059,16 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>20.6</v>
@@ -25845,16 +25848,16 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>25</v>
@@ -26634,16 +26637,16 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>23.9</v>
@@ -27423,16 +27426,16 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>31</v>
@@ -28477,16 +28480,16 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>94.2</v>
@@ -29153,16 +29156,16 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="B36" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>302</v>
-      </c>
       <c r="C36" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>31</v>
@@ -29829,16 +29832,16 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>39.4</v>
@@ -30508,16 +30511,16 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>41.7</v>
@@ -31184,16 +31187,16 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>27.3</v>
@@ -31860,16 +31863,16 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>32.2</v>
@@ -32536,16 +32539,16 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>41.1</v>
@@ -33212,16 +33215,16 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>42.7</v>
@@ -33888,16 +33891,16 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>29.2</v>
@@ -34564,16 +34567,16 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>25.7</v>
@@ -35240,16 +35243,16 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>32.5</v>
@@ -35916,16 +35919,16 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>28.3</v>
@@ -36592,16 +36595,16 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>28.8</v>
@@ -37268,16 +37271,16 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>25.2</v>
@@ -37947,16 +37950,16 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>22.3</v>
@@ -38623,16 +38626,16 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>19.9</v>
@@ -39302,16 +39305,16 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>24</v>
@@ -39978,16 +39981,16 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>19.4</v>
@@ -40654,16 +40657,16 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>23.4</v>
@@ -41300,16 +41303,16 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>25.5</v>
@@ -41979,16 +41982,16 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>59.3</v>
@@ -42655,16 +42658,16 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>51.7</v>
@@ -43331,16 +43334,16 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>63.9</v>
@@ -44007,16 +44010,16 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>56.8</v>
@@ -44683,16 +44686,16 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>21.4</v>
@@ -45359,16 +45362,16 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>24.8</v>
@@ -46035,16 +46038,16 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>18.8</v>
@@ -46711,16 +46714,16 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>23.8</v>
@@ -47387,16 +47390,16 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="GK63" s="13" t="n">
         <v>7.39</v>
@@ -47502,16 +47505,16 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>30.6</v>
@@ -48178,16 +48181,16 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>24.2</v>
@@ -48857,16 +48860,16 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>33</v>
@@ -49798,16 +49801,16 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>203</v>
@@ -49948,7 +49951,7 @@
         <v>2260</v>
       </c>
       <c r="AY68" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AZ68" s="0" t="n">
         <v>136</v>
@@ -50373,16 +50376,16 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>199</v>
@@ -50523,7 +50526,7 @@
         <v>3720</v>
       </c>
       <c r="AY69" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AZ69" s="0" t="n">
         <v>190</v>
@@ -50948,16 +50951,16 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>142</v>
@@ -51098,7 +51101,7 @@
         <v>2150</v>
       </c>
       <c r="AY70" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AZ70" s="0" t="n">
         <v>1060</v>
@@ -51523,16 +51526,16 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>150</v>
@@ -51673,7 +51676,7 @@
         <v>3550</v>
       </c>
       <c r="AY71" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AZ71" s="0" t="n">
         <v>178</v>
@@ -52098,16 +52101,16 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>117</v>
@@ -52248,7 +52251,7 @@
         <v>2540</v>
       </c>
       <c r="AY72" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AZ72" s="0" t="n">
         <v>194</v>
@@ -52673,16 +52676,16 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>202</v>
@@ -52823,7 +52826,7 @@
         <v>1630</v>
       </c>
       <c r="AY73" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AZ73" s="0" t="n">
         <v>203</v>
@@ -53248,16 +53251,16 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>159</v>
@@ -53398,7 +53401,7 @@
         <v>2730</v>
       </c>
       <c r="AY74" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AZ74" s="0" t="n">
         <v>107</v>
@@ -53823,16 +53826,16 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>125</v>
@@ -53973,7 +53976,7 @@
         <v>1500</v>
       </c>
       <c r="AY75" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AZ75" s="0" t="n">
         <v>143</v>
@@ -54398,16 +54401,16 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>162</v>
@@ -54548,7 +54551,7 @@
         <v>2090</v>
       </c>
       <c r="AY76" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AZ76" s="0" t="n">
         <v>121</v>
@@ -54973,16 +54976,16 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>137</v>
@@ -55123,7 +55126,7 @@
         <v>2840</v>
       </c>
       <c r="AY77" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AZ77" s="0" t="n">
         <v>172</v>
@@ -55548,16 +55551,16 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>172</v>
@@ -55698,7 +55701,7 @@
         <v>4600</v>
       </c>
       <c r="AY78" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AZ78" s="0" t="n">
         <v>274</v>
@@ -56123,16 +56126,16 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>176</v>
@@ -56273,7 +56276,7 @@
         <v>3360</v>
       </c>
       <c r="AY79" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AZ79" s="0" t="n">
         <v>162</v>
@@ -56698,16 +56701,16 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E80" s="0" t="n">
         <v>150</v>
@@ -56848,7 +56851,7 @@
         <v>2660</v>
       </c>
       <c r="AY80" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AZ80" s="0" t="n">
         <v>258</v>
@@ -57273,16 +57276,16 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>132</v>
@@ -57423,7 +57426,7 @@
         <v>2050</v>
       </c>
       <c r="AY81" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AZ81" s="0" t="n">
         <v>291</v>
@@ -57848,16 +57851,16 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E82" s="0" t="n">
         <v>88.4</v>
@@ -57998,7 +58001,7 @@
         <v>1730</v>
       </c>
       <c r="AY82" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AZ82" s="0" t="n">
         <v>185</v>
@@ -58423,16 +58426,16 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>120</v>
@@ -58573,7 +58576,7 @@
         <v>1920</v>
       </c>
       <c r="AY83" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AZ83" s="0" t="n">
         <v>148</v>
@@ -58998,16 +59001,16 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>80.1</v>
@@ -59148,7 +59151,7 @@
         <v>1800</v>
       </c>
       <c r="AY84" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AZ84" s="0" t="n">
         <v>359</v>
@@ -59573,16 +59576,16 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>51</v>
@@ -59723,7 +59726,7 @@
         <v>2460</v>
       </c>
       <c r="AY85" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AZ85" s="0" t="n">
         <v>65.7</v>
@@ -60148,16 +60151,16 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E86" s="0" t="n">
         <v>139</v>
@@ -60298,7 +60301,7 @@
         <v>2620</v>
       </c>
       <c r="AY86" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AZ86" s="0" t="n">
         <v>187</v>
@@ -60723,16 +60726,16 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>141</v>
@@ -60873,7 +60876,7 @@
         <v>1980</v>
       </c>
       <c r="AY87" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AZ87" s="0" t="n">
         <v>139</v>
@@ -61298,16 +61301,16 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>167</v>
@@ -61448,7 +61451,7 @@
         <v>2210</v>
       </c>
       <c r="AY88" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AZ88" s="0" t="n">
         <v>113</v>
@@ -61873,16 +61876,16 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E89" s="0" t="n">
         <v>133</v>
@@ -62023,7 +62026,7 @@
         <v>3220</v>
       </c>
       <c r="AY89" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AZ89" s="0" t="n">
         <v>140</v>
@@ -62448,16 +62451,16 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>133</v>
@@ -62598,7 +62601,7 @@
         <v>925</v>
       </c>
       <c r="AY90" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AZ90" s="0" t="n">
         <v>174</v>
@@ -63023,16 +63026,16 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>181</v>
@@ -63173,7 +63176,7 @@
         <v>2970</v>
       </c>
       <c r="AY91" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AZ91" s="0" t="n">
         <v>221</v>
@@ -63598,16 +63601,16 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>184</v>
@@ -63748,7 +63751,7 @@
         <v>2290</v>
       </c>
       <c r="AY92" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AZ92" s="0" t="n">
         <v>70.9</v>
@@ -64173,16 +64176,16 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E93" s="0" t="n">
         <v>191</v>
@@ -64323,7 +64326,7 @@
         <v>1800</v>
       </c>
       <c r="AY93" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AZ93" s="0" t="n">
         <v>244</v>
@@ -64748,16 +64751,16 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E94" s="0" t="n">
         <v>172</v>
@@ -64898,7 +64901,7 @@
         <v>2470</v>
       </c>
       <c r="AY94" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AZ94" s="0" t="n">
         <v>83.7</v>
@@ -65323,16 +65326,16 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>219</v>
@@ -65473,7 +65476,7 @@
         <v>2520</v>
       </c>
       <c r="AY95" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AZ95" s="0" t="n">
         <v>152</v>
@@ -65898,16 +65901,16 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>203</v>
@@ -66048,7 +66051,7 @@
         <v>4030</v>
       </c>
       <c r="AY96" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AZ96" s="0" t="n">
         <v>321</v>
@@ -66473,16 +66476,16 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>114</v>
@@ -66623,7 +66626,7 @@
         <v>2410</v>
       </c>
       <c r="AY97" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AZ97" s="0" t="n">
         <v>128</v>
@@ -67048,16 +67051,16 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>125</v>
@@ -67198,7 +67201,7 @@
         <v>1650</v>
       </c>
       <c r="AY98" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AZ98" s="0" t="n">
         <v>93.9</v>
@@ -67639,110 +67642,110 @@
   </sheetPr>
   <dimension ref="A1:F260"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A214" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C256" activeCellId="0" sqref="C256"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="16" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.8673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="16" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.6530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="16" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -67750,13 +67753,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -67764,13 +67767,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -67778,461 +67781,461 @@
         <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="16" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68240,13 +68243,13 @@
         <v>44</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68254,13 +68257,13 @@
         <v>45</v>
       </c>
       <c r="B43" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="C43" s="0" t="s">
-        <v>416</v>
-      </c>
       <c r="D43" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68268,13 +68271,13 @@
         <v>46</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68282,13 +68285,13 @@
         <v>47</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68296,13 +68299,13 @@
         <v>48</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68310,13 +68313,13 @@
         <v>49</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68324,13 +68327,13 @@
         <v>50</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68338,13 +68341,13 @@
         <v>51</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68352,13 +68355,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68366,13 +68369,13 @@
         <v>53</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68380,13 +68383,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68394,13 +68397,13 @@
         <v>55</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68408,13 +68411,13 @@
         <v>56</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68422,13 +68425,13 @@
         <v>57</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68436,13 +68439,13 @@
         <v>58</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68450,13 +68453,13 @@
         <v>59</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68464,13 +68467,13 @@
         <v>60</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68478,13 +68481,13 @@
         <v>61</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68492,13 +68495,13 @@
         <v>62</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68506,13 +68509,13 @@
         <v>63</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68520,13 +68523,13 @@
         <v>64</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68534,13 +68537,13 @@
         <v>65</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68548,13 +68551,13 @@
         <v>66</v>
       </c>
       <c r="B64" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="C64" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="C64" s="0" t="s">
-        <v>438</v>
-      </c>
       <c r="D64" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68562,13 +68565,13 @@
         <v>67</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68576,13 +68579,13 @@
         <v>68</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68593,10 +68596,10 @@
         <v>69</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68607,10 +68610,10 @@
         <v>70</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68618,13 +68621,13 @@
         <v>71</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68635,10 +68638,10 @@
         <v>72</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68649,10 +68652,10 @@
         <v>73</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68663,10 +68666,10 @@
         <v>74</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68674,13 +68677,13 @@
         <v>75</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68688,13 +68691,13 @@
         <v>76</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68702,13 +68705,13 @@
         <v>77</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68719,10 +68722,10 @@
         <v>78</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68730,13 +68733,13 @@
         <v>79</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68747,10 +68750,10 @@
         <v>80</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68761,10 +68764,10 @@
         <v>81</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68775,10 +68778,10 @@
         <v>82</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68786,13 +68789,13 @@
         <v>83</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68803,10 +68806,10 @@
         <v>84</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68814,13 +68817,13 @@
         <v>85</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68828,13 +68831,13 @@
         <v>86</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68842,13 +68845,13 @@
         <v>87</v>
       </c>
       <c r="B85" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="C85" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="C85" s="0" t="s">
-        <v>450</v>
-      </c>
       <c r="D85" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68856,13 +68859,13 @@
         <v>88</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68870,13 +68873,13 @@
         <v>89</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68884,13 +68887,13 @@
         <v>90</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68898,13 +68901,13 @@
         <v>91</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68912,13 +68915,13 @@
         <v>92</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68926,13 +68929,13 @@
         <v>93</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68940,13 +68943,13 @@
         <v>94</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68954,13 +68957,13 @@
         <v>95</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68968,13 +68971,13 @@
         <v>96</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68982,13 +68985,13 @@
         <v>97</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68996,13 +68999,13 @@
         <v>98</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69010,13 +69013,13 @@
         <v>99</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69024,13 +69027,13 @@
         <v>100</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69038,13 +69041,13 @@
         <v>101</v>
       </c>
       <c r="B99" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="C99" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="C99" s="0" t="s">
-        <v>465</v>
-      </c>
       <c r="D99" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69052,13 +69055,13 @@
         <v>102</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69066,13 +69069,13 @@
         <v>103</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69080,13 +69083,13 @@
         <v>104</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69094,13 +69097,13 @@
         <v>105</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69108,13 +69111,13 @@
         <v>106</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69122,13 +69125,13 @@
         <v>107</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69136,13 +69139,13 @@
         <v>108</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69150,13 +69153,13 @@
         <v>109</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69164,13 +69167,13 @@
         <v>110</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69178,13 +69181,13 @@
         <v>111</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69192,13 +69195,13 @@
         <v>112</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69206,13 +69209,13 @@
         <v>113</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69220,13 +69223,13 @@
         <v>114</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69234,13 +69237,13 @@
         <v>115</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69248,13 +69251,13 @@
         <v>116</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69262,13 +69265,13 @@
         <v>117</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69276,13 +69279,13 @@
         <v>118</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69290,13 +69293,13 @@
         <v>119</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69304,13 +69307,13 @@
         <v>120</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69318,13 +69321,13 @@
         <v>121</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69332,13 +69335,13 @@
         <v>122</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69346,13 +69349,13 @@
         <v>123</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69360,13 +69363,13 @@
         <v>124</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69374,13 +69377,13 @@
         <v>125</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69388,13 +69391,13 @@
         <v>126</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69402,13 +69405,13 @@
         <v>127</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69416,13 +69419,13 @@
         <v>128</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69430,13 +69433,13 @@
         <v>129</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69444,13 +69447,13 @@
         <v>130</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69458,13 +69461,13 @@
         <v>131</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69472,13 +69475,13 @@
         <v>132</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69486,13 +69489,13 @@
         <v>133</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69500,13 +69503,13 @@
         <v>134</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69514,13 +69517,13 @@
         <v>135</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69528,13 +69531,13 @@
         <v>136</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69542,13 +69545,13 @@
         <v>137</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69556,13 +69559,13 @@
         <v>138</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69570,13 +69573,13 @@
         <v>139</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69584,13 +69587,13 @@
         <v>140</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69598,13 +69601,13 @@
         <v>141</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69612,13 +69615,13 @@
         <v>142</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69626,13 +69629,13 @@
         <v>143</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69640,13 +69643,13 @@
         <v>144</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69654,13 +69657,13 @@
         <v>145</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69668,13 +69671,13 @@
         <v>146</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69682,13 +69685,13 @@
         <v>147</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69696,13 +69699,13 @@
         <v>148</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69710,13 +69713,13 @@
         <v>149</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69724,13 +69727,13 @@
         <v>150</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69738,13 +69741,13 @@
         <v>151</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69752,13 +69755,13 @@
         <v>152</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69766,13 +69769,13 @@
         <v>153</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69780,13 +69783,13 @@
         <v>154</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69794,13 +69797,13 @@
         <v>155</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69808,13 +69811,13 @@
         <v>156</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69822,13 +69825,13 @@
         <v>157</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69836,13 +69839,13 @@
         <v>158</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69850,13 +69853,13 @@
         <v>159</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69864,13 +69867,13 @@
         <v>160</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69878,13 +69881,13 @@
         <v>161</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69892,13 +69895,13 @@
         <v>162</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69906,13 +69909,13 @@
         <v>163</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69920,13 +69923,13 @@
         <v>164</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69934,13 +69937,13 @@
         <v>165</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69948,13 +69951,13 @@
         <v>166</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69962,13 +69965,13 @@
         <v>167</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69976,13 +69979,13 @@
         <v>168</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -69990,13 +69993,13 @@
         <v>169</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70004,13 +70007,13 @@
         <v>170</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70018,13 +70021,13 @@
         <v>171</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70032,13 +70035,13 @@
         <v>172</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70046,13 +70049,13 @@
         <v>173</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70060,13 +70063,13 @@
         <v>174</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70074,13 +70077,13 @@
         <v>175</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70088,13 +70091,13 @@
         <v>176</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70102,13 +70105,13 @@
         <v>177</v>
       </c>
       <c r="B175" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="C175" s="0" t="s">
         <v>543</v>
       </c>
-      <c r="C175" s="0" t="s">
-        <v>542</v>
-      </c>
       <c r="D175" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70116,13 +70119,13 @@
         <v>178</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70130,13 +70133,13 @@
         <v>179</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70144,13 +70147,13 @@
         <v>180</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70158,13 +70161,13 @@
         <v>181</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70172,13 +70175,13 @@
         <v>182</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70186,13 +70189,13 @@
         <v>183</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70200,13 +70203,13 @@
         <v>184</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70214,13 +70217,13 @@
         <v>185</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70228,13 +70231,13 @@
         <v>186</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70242,13 +70245,13 @@
         <v>187</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70256,13 +70259,13 @@
         <v>188</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70270,13 +70273,13 @@
         <v>189</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70284,13 +70287,13 @@
         <v>190</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70298,13 +70301,13 @@
         <v>191</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70312,13 +70315,13 @@
         <v>192</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70326,13 +70329,13 @@
         <v>193</v>
       </c>
       <c r="B191" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="C191" s="0" t="s">
         <v>561</v>
       </c>
-      <c r="C191" s="0" t="s">
-        <v>560</v>
-      </c>
       <c r="D191" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70340,13 +70343,13 @@
         <v>194</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70354,13 +70357,13 @@
         <v>195</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70368,13 +70371,13 @@
         <v>196</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70382,13 +70385,13 @@
         <v>197</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D195" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70396,13 +70399,13 @@
         <v>198</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70410,13 +70413,13 @@
         <v>199</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70424,13 +70427,13 @@
         <v>200</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70438,13 +70441,13 @@
         <v>201</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70452,13 +70455,13 @@
         <v>202</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70466,13 +70469,13 @@
         <v>203</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70480,13 +70483,13 @@
         <v>204</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70494,13 +70497,13 @@
         <v>205</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D203" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70508,13 +70511,13 @@
         <v>206</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70522,10 +70525,10 @@
         <v>207</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70533,10 +70536,10 @@
         <v>208</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70544,10 +70547,10 @@
         <v>209</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70555,10 +70558,10 @@
         <v>210</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70566,10 +70569,10 @@
         <v>211</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70577,7 +70580,7 @@
         <v>212</v>
       </c>
       <c r="D210" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70590,10 +70593,10 @@
         <v>214</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70601,10 +70604,10 @@
         <v>215</v>
       </c>
       <c r="B213" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="D213" s="0" t="s">
         <v>588</v>
-      </c>
-      <c r="D213" s="0" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70612,10 +70615,10 @@
         <v>216</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70623,10 +70626,10 @@
         <v>217</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70634,10 +70637,10 @@
         <v>218</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70645,10 +70648,10 @@
         <v>219</v>
       </c>
       <c r="B217" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="D217" s="0" t="s">
         <v>594</v>
-      </c>
-      <c r="D217" s="0" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70656,10 +70659,10 @@
         <v>220</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70667,7 +70670,7 @@
         <v>221</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70675,10 +70678,10 @@
         <v>222</v>
       </c>
       <c r="C220" s="13" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70686,10 +70689,10 @@
         <v>223</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70697,10 +70700,10 @@
         <v>224</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70708,7 +70711,7 @@
         <v>225</v>
       </c>
       <c r="C223" s="13" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70716,10 +70719,10 @@
         <v>226</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C224" s="13" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70727,10 +70730,10 @@
         <v>227</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C225" s="13" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70738,10 +70741,10 @@
         <v>228</v>
       </c>
       <c r="B226" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="C226" s="13" t="s">
         <v>604</v>
-      </c>
-      <c r="C226" s="13" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70759,7 +70762,7 @@
         <v>231</v>
       </c>
       <c r="C229" s="13" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70767,10 +70770,10 @@
         <v>232</v>
       </c>
       <c r="C230" s="13" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70778,7 +70781,7 @@
         <v>233</v>
       </c>
       <c r="C231" s="13" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70786,13 +70789,13 @@
         <v>234</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C232" s="13" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70800,13 +70803,13 @@
         <v>235</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C233" s="13" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70814,10 +70817,10 @@
         <v>236</v>
       </c>
       <c r="C234" s="13" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70825,10 +70828,10 @@
         <v>237</v>
       </c>
       <c r="C235" s="13" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70836,13 +70839,13 @@
         <v>238</v>
       </c>
       <c r="B236" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="C236" s="13" t="s">
         <v>610</v>
       </c>
-      <c r="C236" s="13" t="s">
-        <v>609</v>
-      </c>
       <c r="D236" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70850,10 +70853,10 @@
         <v>239</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70861,13 +70864,13 @@
         <v>240</v>
       </c>
       <c r="B238" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="C238" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="D238" s="0" t="s">
         <v>612</v>
-      </c>
-      <c r="C238" s="0" t="s">
-        <v>596</v>
-      </c>
-      <c r="D238" s="0" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70875,7 +70878,7 @@
         <v>241</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -70883,197 +70886,197 @@
         <v>242</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="16" t="s">
-        <v>70</v>
+        <v>243</v>
       </c>
       <c r="C241" s="13" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="16" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="16" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C243" s="13" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="16" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C244" s="13" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="16" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="16" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C246" s="13" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="16" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B247" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="C247" s="13" t="s">
         <v>619</v>
-      </c>
-      <c r="C247" s="13" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C248" s="13" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C251" s="13" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="16" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C252" s="13" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D252" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="16" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C253" s="13" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="16" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C255" s="13" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="16" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="16" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C257" s="13" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="16" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C259" s="13" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D259" s="0" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="16" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B260" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="C260" s="13" t="s">
+        <v>624</v>
+      </c>
+      <c r="D260" s="0" t="s">
         <v>625</v>
-      </c>
-      <c r="C260" s="13" t="s">
-        <v>623</v>
-      </c>
-      <c r="D260" s="0" t="s">
-        <v>624</v>
       </c>
     </row>
   </sheetData>
